--- a/CONG NO/CONG NO 2016/CHI PHI HANG CHÚ NGUYÊN.xlsx
+++ b/CONG NO/CONG NO 2016/CHI PHI HANG CHÚ NGUYÊN.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="225" windowWidth="14880" windowHeight="8835" tabRatio="734"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="MAI MÈ 10-14" sheetId="11" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>Đường</t>
   </si>
@@ -67,9 +67,6 @@
     <t>TỔNG</t>
   </si>
   <si>
-    <t>THANH TOÁN</t>
-  </si>
-  <si>
     <t>THANH TOÁN :</t>
   </si>
   <si>
@@ -167,12 +164,30 @@
   </si>
   <si>
     <t>Tiền nước, nước thải, mặt bằng</t>
+  </si>
+  <si>
+    <t>CHI PHÍ:</t>
+  </si>
+  <si>
+    <t>Chi phí nguyên vật liệu phụ</t>
+  </si>
+  <si>
+    <t>Chi phí nguyên vật liệu chính &amp; bao bì</t>
+  </si>
+  <si>
+    <t>Chi phí xuất hàng</t>
+  </si>
+  <si>
+    <t>09/01/17 : Tiền mặt</t>
+  </si>
+  <si>
+    <t>Trả cô Dương 15.000USD * 23.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -181,7 +196,7 @@
     <numFmt numFmtId="167" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <name val="VNI-Times"/>
@@ -351,7 +366,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -580,6 +595,9 @@
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -672,7 +690,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -707,7 +724,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -883,43 +899,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor indexed="25"/>
   </sheetPr>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="3.5" style="9" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="30.25" style="9" customWidth="1"/>
     <col min="3" max="3" width="11" style="11" customWidth="1"/>
     <col min="4" max="4" width="9.875" style="12" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="11" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="9"/>
+    <col min="6" max="6" width="13.75" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="27.75" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
       <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
       <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:7" s="29" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="29" customFormat="1" ht="39.75" customHeight="1">
       <c r="A3" s="25"/>
       <c r="B3" s="26" t="s">
         <v>8</v>
@@ -931,27 +945,23 @@
         <v>6</v>
       </c>
       <c r="E3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" ht="17.25" hidden="1" customHeight="1">
       <c r="A4" s="30"/>
       <c r="B4" s="31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="33"/>
       <c r="E4" s="34"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="35"/>
-    </row>
-    <row r="5" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="35"/>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" hidden="1" customHeight="1">
       <c r="A5" s="30"/>
       <c r="B5" s="54"/>
       <c r="C5" s="55"/>
@@ -960,10 +970,9 @@
         <f>C5*D5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="53"/>
-    </row>
-    <row r="6" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="53"/>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" hidden="1" customHeight="1">
       <c r="A6" s="30"/>
       <c r="B6" s="54"/>
       <c r="C6" s="55"/>
@@ -972,18 +981,16 @@
         <f>C6*D6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="53"/>
-    </row>
-    <row r="7" spans="1:7" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="53"/>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" hidden="1" customHeight="1">
       <c r="B7" s="21"/>
       <c r="C7" s="36"/>
       <c r="D7" s="37"/>
       <c r="E7" s="38"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="39"/>
-    </row>
-    <row r="8" spans="1:7" s="10" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="39"/>
+    </row>
+    <row r="8" spans="1:6" s="10" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="B8" s="19" t="s">
         <v>16</v>
       </c>
@@ -996,28 +1003,23 @@
         <f>SUM(E4:E7)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="41">
         <f>SUM(F4:F7)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="41">
-        <f>SUM(G4:G7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" s="10" customFormat="1" ht="17.25" customHeight="1">
       <c r="B9" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="43"/>
       <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="43"/>
-    </row>
-    <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="43"/>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" customHeight="1">
       <c r="B10" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="36">
         <f>7*12</f>
@@ -1028,15 +1030,14 @@
         <f>C10*D10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="45">
+      <c r="F10" s="45">
         <f>E10*21400</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="17.25" customHeight="1">
       <c r="B11" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="36">
         <f>30*12</f>
@@ -1047,15 +1048,14 @@
         <f>C11*D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="45">
+      <c r="F11" s="45">
         <f>E11*21400</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="17.25" customHeight="1">
       <c r="B12" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="36">
         <f>220*7</f>
@@ -1066,15 +1066,14 @@
         <f>C12*D12</f>
         <v>0</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="45">
+      <c r="F12" s="45">
         <f>E12*21400</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="17.25" customHeight="1">
       <c r="B13" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="36">
         <f>270*8</f>
@@ -1085,15 +1084,14 @@
         <f>C13*D13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="45">
+      <c r="F13" s="45">
         <f>E13*21400</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="17.25" customHeight="1">
       <c r="B14" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="36">
         <f>170*8</f>
@@ -1104,31 +1102,28 @@
         <f>C14*D14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="45">
+      <c r="F14" s="45">
         <f>E14*21400</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="17.25" customHeight="1">
       <c r="B15" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="37"/>
       <c r="E15" s="38"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="45"/>
-    </row>
-    <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="45"/>
+    </row>
+    <row r="16" spans="1:6" ht="17.25" customHeight="1">
       <c r="B16" s="21"/>
       <c r="C16" s="36"/>
       <c r="D16" s="37"/>
       <c r="E16" s="38"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="39"/>
-    </row>
-    <row r="17" spans="1:7" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="39"/>
+    </row>
+    <row r="17" spans="1:6" s="10" customFormat="1" ht="17.25" customHeight="1">
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
@@ -1141,772 +1136,795 @@
         <f>SUM(E9:E16)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="41">
         <f>SUM(F9:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="41">
-        <f>SUM(G9:G16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" ht="17.25" customHeight="1">
       <c r="B18" s="22" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="45"/>
-    </row>
-    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="45"/>
+    </row>
+    <row r="19" spans="1:6" ht="17.25" customHeight="1">
       <c r="B19" s="52" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C19" s="60"/>
       <c r="D19" s="61"/>
       <c r="E19" s="62"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="7">
-        <v>300000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="52"/>
+      <c r="F19" s="7">
+        <f>E48</f>
+        <v>570628200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B20" s="52" t="s">
+        <v>51</v>
+      </c>
       <c r="C20" s="60"/>
       <c r="D20" s="61"/>
       <c r="E20" s="62"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="7">
-        <f>F20*21400</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="23"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="49"/>
-    </row>
-    <row r="22" spans="1:7" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="19" t="s">
+      <c r="F20" s="7">
+        <f>E67</f>
+        <v>286657750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B21" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="77"/>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B22" s="23"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
+    </row>
+    <row r="23" spans="1:6" s="10" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B23" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="41">
-        <f>SUM(C18:C21)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="41">
-        <f>SUM(D18:D21)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="41">
-        <f>SUM(E18:E21)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="41">
-        <f>SUM(F18:F21)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="41">
-        <f>SUM(G18:G21)</f>
+      <c r="C23" s="41">
+        <f>SUM(C18:C22)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="41">
+        <f>SUM(D18:D22)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="41">
+        <f>SUM(E18:E22)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="41">
+        <f>SUM(F18:F22)</f>
+        <v>857285950</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B24" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="45"/>
+    </row>
+    <row r="25" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B25" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="60"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="7">
         <v>300000000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="14"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="14"/>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" s="50" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="65" t="s">
+    <row r="26" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B26" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="60"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="7">
+        <f>15000*23000</f>
+        <v>345000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B27" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="60"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="7">
+        <v>212285950</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B28" s="23"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
+    </row>
+    <row r="29" spans="1:6" s="10" customFormat="1" ht="17.25" customHeight="1">
+      <c r="B29" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="41">
+        <f>SUM(C24:C28)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="41">
+        <f>SUM(D24:D28)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="41">
+        <f>SUM(E24:E28)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="41">
+        <f>SUM(F24:F28)</f>
+        <v>857285950</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="11.25" customHeight="1">
+      <c r="B30" s="13"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:6" ht="26.25" customHeight="1">
+      <c r="B31" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:6" s="50" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A32" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B32" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C32" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D32" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E32" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="58">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A33" s="58">
         <v>1</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B33" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="55">
+        <v>2</v>
+      </c>
+      <c r="D33" s="53">
+        <v>350000</v>
+      </c>
+      <c r="E33" s="53">
+        <f t="shared" ref="E33:E65" si="0">C33*D33</f>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A34" s="58">
+        <v>2</v>
+      </c>
+      <c r="B34" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="55">
-        <v>2</v>
-      </c>
-      <c r="D26" s="53">
-        <v>350000</v>
-      </c>
-      <c r="E26" s="53">
-        <f t="shared" ref="E26:E66" si="0">C26*D26</f>
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="58">
-        <v>2</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="36">
+      <c r="C34" s="36">
         <v>12</v>
       </c>
-      <c r="D27" s="39">
+      <c r="D34" s="39">
         <v>150000</v>
       </c>
-      <c r="E27" s="39">
-        <f t="shared" ref="E27:E28" si="1">C27*D27</f>
+      <c r="E34" s="39">
+        <f t="shared" ref="E34:E35" si="1">C34*D34</f>
         <v>1800000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A35" s="20">
         <v>3</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="36">
+      <c r="B35" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="36">
         <v>403</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D35" s="39">
         <v>200000</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E35" s="39">
         <f t="shared" si="1"/>
         <v>80600000</v>
       </c>
-      <c r="G28" s="51"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="58">
+      <c r="F35" s="51"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A36" s="58">
         <v>4</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B36" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="36">
+        <v>108</v>
+      </c>
+      <c r="D36" s="39">
+        <v>165000</v>
+      </c>
+      <c r="E36" s="39">
+        <f t="shared" si="0"/>
+        <v>17820000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A37" s="20">
+        <v>5</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="36">
+        <v>1753</v>
+      </c>
+      <c r="D37" s="39">
+        <v>200000</v>
+      </c>
+      <c r="E37" s="39">
+        <f t="shared" si="0"/>
+        <v>350600000</v>
+      </c>
+      <c r="F37" s="51"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A38" s="58">
+        <v>6</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="36">
+        <v>696</v>
+      </c>
+      <c r="D38" s="39">
+        <v>90000</v>
+      </c>
+      <c r="E38" s="39">
+        <f t="shared" si="0"/>
+        <v>62640000</v>
+      </c>
+      <c r="F38" s="51"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A39" s="20">
+        <v>7</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="36">
+        <v>1350</v>
+      </c>
+      <c r="D39" s="39">
+        <v>34000</v>
+      </c>
+      <c r="E39" s="39">
+        <f t="shared" si="0"/>
+        <v>45900000</v>
+      </c>
+      <c r="F39" s="51"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A40" s="58">
+        <v>8</v>
+      </c>
+      <c r="B40" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="36">
-        <v>108</v>
-      </c>
-      <c r="D29" s="39">
-        <v>165000</v>
-      </c>
-      <c r="E29" s="39">
-        <f t="shared" si="0"/>
-        <v>17820000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20">
+      <c r="C40" s="36">
+        <v>100</v>
+      </c>
+      <c r="D40" s="39">
+        <v>18500</v>
+      </c>
+      <c r="E40" s="39">
+        <f t="shared" si="0"/>
+        <v>1850000</v>
+      </c>
+      <c r="F40" s="51"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A41" s="20">
+        <v>9</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="36">
+        <v>660</v>
+      </c>
+      <c r="D41" s="39">
+        <v>10120</v>
+      </c>
+      <c r="E41" s="39">
+        <f t="shared" si="0"/>
+        <v>6679200</v>
+      </c>
+      <c r="F41" s="51"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A42" s="58">
+        <v>10</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="36">
+        <v>60</v>
+      </c>
+      <c r="D42" s="39">
+        <v>9500</v>
+      </c>
+      <c r="E42" s="39">
+        <f t="shared" si="0"/>
+        <v>570000</v>
+      </c>
+      <c r="F42" s="51"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A43" s="20">
+        <v>11</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="36">
         <v>5</v>
       </c>
-      <c r="B30" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="36">
-        <v>1753</v>
-      </c>
-      <c r="D30" s="39">
-        <v>200000</v>
-      </c>
-      <c r="E30" s="39">
-        <f t="shared" si="0"/>
-        <v>350600000</v>
-      </c>
-      <c r="G30" s="51"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="58">
-        <v>6</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="36">
-        <v>696</v>
-      </c>
-      <c r="D31" s="39">
-        <v>90000</v>
-      </c>
-      <c r="E31" s="39">
-        <f t="shared" si="0"/>
-        <v>62640000</v>
-      </c>
-      <c r="G31" s="51"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20">
-        <v>7</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="36">
-        <v>1350</v>
-      </c>
-      <c r="D32" s="39">
-        <v>34000</v>
-      </c>
-      <c r="E32" s="39">
-        <f t="shared" si="0"/>
-        <v>45900000</v>
-      </c>
-      <c r="G32" s="51"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="58">
-        <v>8</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="36">
-        <v>100</v>
-      </c>
-      <c r="D33" s="39">
-        <v>18500</v>
-      </c>
-      <c r="E33" s="39">
-        <f t="shared" si="0"/>
-        <v>1850000</v>
-      </c>
-      <c r="G33" s="51"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="20">
+      <c r="D43" s="39">
+        <v>55000</v>
+      </c>
+      <c r="E43" s="39">
+        <f t="shared" si="0"/>
+        <v>275000</v>
+      </c>
+      <c r="F43" s="51"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A44" s="58">
+        <v>12</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="36">
+        <v>1</v>
+      </c>
+      <c r="D44" s="39">
+        <v>58000</v>
+      </c>
+      <c r="E44" s="39">
+        <f t="shared" si="0"/>
+        <v>58000</v>
+      </c>
+      <c r="F44" s="51"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A45" s="20">
+        <v>13</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="36">
+        <v>380</v>
+      </c>
+      <c r="D45" s="39">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="39">
+        <f t="shared" si="0"/>
+        <v>380000</v>
+      </c>
+      <c r="F45" s="51"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A46" s="58">
+        <v>14</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="36">
+        <v>18</v>
+      </c>
+      <c r="D46" s="39">
+        <v>42000</v>
+      </c>
+      <c r="E46" s="39">
+        <f t="shared" si="0"/>
+        <v>756000</v>
+      </c>
+      <c r="F46" s="51"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A47" s="67"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="51"/>
+    </row>
+    <row r="48" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="36">
-        <v>660</v>
-      </c>
-      <c r="D34" s="39">
-        <v>10120</v>
-      </c>
-      <c r="E34" s="39">
-        <f t="shared" si="0"/>
-        <v>6679200</v>
-      </c>
-      <c r="G34" s="51"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="58">
-        <v>10</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="36">
-        <v>60</v>
-      </c>
-      <c r="D35" s="39">
-        <v>9500</v>
-      </c>
-      <c r="E35" s="39">
-        <f t="shared" si="0"/>
-        <v>570000</v>
-      </c>
-      <c r="G35" s="51"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="20">
-        <v>11</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="36">
-        <v>5</v>
-      </c>
-      <c r="D36" s="39">
-        <v>55000</v>
-      </c>
-      <c r="E36" s="39">
-        <f t="shared" si="0"/>
-        <v>275000</v>
-      </c>
-      <c r="G36" s="51"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="58">
-        <v>12</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="36">
-        <v>1</v>
-      </c>
-      <c r="D37" s="39">
-        <v>58000</v>
-      </c>
-      <c r="E37" s="39">
-        <f t="shared" si="0"/>
-        <v>58000</v>
-      </c>
-      <c r="G37" s="51"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="20">
-        <v>13</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="36">
-        <v>380</v>
-      </c>
-      <c r="D38" s="39">
-        <v>1000</v>
-      </c>
-      <c r="E38" s="39">
-        <f t="shared" si="0"/>
-        <v>380000</v>
-      </c>
-      <c r="G38" s="51"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="58">
-        <v>14</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="36">
-        <v>18</v>
-      </c>
-      <c r="D39" s="39">
-        <v>42000</v>
-      </c>
-      <c r="E39" s="39">
-        <f t="shared" si="0"/>
-        <v>756000</v>
-      </c>
-      <c r="G39" s="51"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="67"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="G40" s="51"/>
-    </row>
-    <row r="41" spans="1:7" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41">
-        <f>SUM(E26:E40)</f>
+      <c r="C48" s="40"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41">
+        <f>SUM(E33:E47)</f>
         <v>570628200</v>
       </c>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="72"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="G42" s="74"/>
-    </row>
-    <row r="43" spans="1:7" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="72"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="G43" s="74"/>
-    </row>
-    <row r="44" spans="1:7" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="72"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="G44" s="74"/>
-    </row>
-    <row r="45" spans="1:7" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="72"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="G45" s="74"/>
-    </row>
-    <row r="46" spans="1:7" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="72"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="G46" s="74"/>
-    </row>
-    <row r="47" spans="1:7" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="72"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="G47" s="74"/>
-    </row>
-    <row r="48" spans="1:7" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="72"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="G48" s="74"/>
-    </row>
-    <row r="49" spans="1:7" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="1:6" s="71" customFormat="1" ht="15.75" customHeight="1">
       <c r="C49" s="72"/>
       <c r="D49" s="73"/>
       <c r="E49" s="73"/>
-      <c r="G49" s="74"/>
-    </row>
-    <row r="50" spans="1:7" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="74"/>
+    </row>
+    <row r="50" spans="1:6" s="71" customFormat="1" ht="26.25" customHeight="1">
+      <c r="B50" s="71" t="s">
+        <v>47</v>
+      </c>
       <c r="C50" s="72"/>
       <c r="D50" s="73"/>
       <c r="E50" s="73"/>
-      <c r="G50" s="74"/>
-    </row>
-    <row r="51" spans="1:7" s="71" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="72"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
-      <c r="G51" s="74"/>
-    </row>
-    <row r="52" spans="1:7" s="50" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="65" t="s">
+      <c r="F50" s="74"/>
+    </row>
+    <row r="51" spans="1:6" s="50" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A51" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="65" t="s">
+      <c r="B51" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C51" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D51" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="28" t="s">
+      <c r="E51" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="20">
+    <row r="52" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A52" s="20">
         <v>1</v>
       </c>
+      <c r="B52" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="36">
+        <v>450</v>
+      </c>
+      <c r="D52" s="39">
+        <v>22000</v>
+      </c>
+      <c r="E52" s="39">
+        <f>C52*D52</f>
+        <v>9900000</v>
+      </c>
+      <c r="F52" s="51"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A53" s="58">
+        <v>2</v>
+      </c>
       <c r="B53" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="36">
+        <v>1</v>
+      </c>
+      <c r="D53" s="39">
+        <v>100000</v>
+      </c>
+      <c r="E53" s="39">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="F53" s="51"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A54" s="20">
         <v>3</v>
       </c>
-      <c r="C53" s="36">
-        <v>450</v>
-      </c>
-      <c r="D53" s="39">
-        <v>22000</v>
-      </c>
-      <c r="E53" s="39">
-        <f>C53*D53</f>
-        <v>9900000</v>
-      </c>
-      <c r="G53" s="51"/>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="58">
+      <c r="B54" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="36">
+        <v>1034</v>
+      </c>
+      <c r="D54" s="39">
+        <v>18000</v>
+      </c>
+      <c r="E54" s="39">
+        <f t="shared" si="0"/>
+        <v>18612000</v>
+      </c>
+      <c r="F54" s="51"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A55" s="58">
+        <v>4</v>
+      </c>
+      <c r="B55" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="C55" s="36">
+        <v>146</v>
+      </c>
+      <c r="D55" s="39">
+        <v>42000</v>
+      </c>
+      <c r="E55" s="39">
+        <f t="shared" si="0"/>
+        <v>6132000</v>
+      </c>
+      <c r="F55" s="51"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A56" s="20">
+        <v>5</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="36">
+        <v>78.5</v>
+      </c>
+      <c r="D56" s="39">
+        <v>3500</v>
+      </c>
+      <c r="E56" s="39">
+        <f t="shared" si="0"/>
+        <v>274750</v>
+      </c>
+      <c r="F56" s="51"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A57" s="58">
+        <v>6</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="36">
+        <v>1770</v>
+      </c>
+      <c r="D57" s="39">
+        <v>78000</v>
+      </c>
+      <c r="E57" s="39">
+        <f t="shared" si="0"/>
+        <v>138060000</v>
+      </c>
+      <c r="F57" s="51"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A58" s="20">
+        <v>7</v>
+      </c>
+      <c r="B58" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="36">
-        <v>1</v>
-      </c>
-      <c r="D54" s="39">
-        <v>100000</v>
-      </c>
-      <c r="E54" s="39">
-        <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-      <c r="G54" s="51"/>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="20">
+      <c r="C58" s="36">
+        <v>432</v>
+      </c>
+      <c r="D58" s="39">
+        <v>66000</v>
+      </c>
+      <c r="E58" s="39">
+        <f t="shared" si="0"/>
+        <v>28512000</v>
+      </c>
+      <c r="F58" s="51"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A59" s="58">
+        <v>8</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="36">
+        <v>6</v>
+      </c>
+      <c r="D59" s="39">
+        <v>240000</v>
+      </c>
+      <c r="E59" s="39">
+        <f t="shared" si="0"/>
+        <v>1440000</v>
+      </c>
+      <c r="F59" s="51"/>
+    </row>
+    <row r="60" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A60" s="20">
+        <v>9</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="4">
+        <v>19</v>
+      </c>
+      <c r="D60" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E60" s="39">
+        <f t="shared" si="0"/>
+        <v>950000</v>
+      </c>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A61" s="58">
+        <v>10</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="D61" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E61" s="39">
+        <f t="shared" si="0"/>
+        <v>1800000</v>
+      </c>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A62" s="20">
+        <v>11</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="5">
         <v>3</v>
       </c>
-      <c r="B55" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="36">
-        <v>1034</v>
-      </c>
-      <c r="D55" s="39">
-        <v>18000</v>
-      </c>
-      <c r="E55" s="39">
-        <f t="shared" si="0"/>
-        <v>18612000</v>
-      </c>
-      <c r="G55" s="51"/>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="58">
-        <v>4</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="36">
-        <v>146</v>
-      </c>
-      <c r="D56" s="39">
-        <v>42000</v>
-      </c>
-      <c r="E56" s="39">
-        <f t="shared" si="0"/>
-        <v>6132000</v>
-      </c>
-      <c r="G56" s="51"/>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="20">
-        <v>5</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="36">
-        <v>78.5</v>
-      </c>
-      <c r="D57" s="39">
-        <v>3500</v>
-      </c>
-      <c r="E57" s="39">
-        <f t="shared" si="0"/>
-        <v>274750</v>
-      </c>
-      <c r="G57" s="51"/>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="58">
-        <v>6</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="36">
-        <v>1770</v>
-      </c>
-      <c r="D58" s="39">
-        <v>78000</v>
-      </c>
-      <c r="E58" s="39">
-        <f t="shared" si="0"/>
-        <v>138060000</v>
-      </c>
-      <c r="G58" s="51"/>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="20">
-        <v>7</v>
-      </c>
-      <c r="B59" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="C59" s="36">
-        <v>432</v>
-      </c>
-      <c r="D59" s="39">
-        <v>66000</v>
-      </c>
-      <c r="E59" s="39">
-        <f t="shared" si="0"/>
-        <v>28512000</v>
-      </c>
-      <c r="G59" s="51"/>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="58">
-        <v>8</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="36">
-        <v>6</v>
-      </c>
-      <c r="D60" s="39">
-        <v>240000</v>
-      </c>
-      <c r="E60" s="39">
-        <f t="shared" si="0"/>
-        <v>1440000</v>
-      </c>
-      <c r="G60" s="51"/>
-    </row>
-    <row r="61" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="20">
-        <v>9</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C61" s="4">
-        <v>19</v>
-      </c>
-      <c r="D61" s="3">
-        <v>50000</v>
-      </c>
-      <c r="E61" s="39">
-        <f t="shared" si="0"/>
-        <v>950000</v>
-      </c>
-      <c r="G61" s="8"/>
-    </row>
-    <row r="62" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="58">
-        <v>10</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="D62" s="3">
-        <v>240000</v>
+      <c r="D62" s="6">
+        <v>75000</v>
       </c>
       <c r="E62" s="39">
         <f t="shared" si="0"/>
-        <v>1800000</v>
-      </c>
-      <c r="G62" s="8"/>
-    </row>
-    <row r="63" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="20">
-        <v>11</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>31</v>
+        <v>225000</v>
+      </c>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A63" s="58">
+        <v>12</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="C63" s="5">
-        <v>3</v>
-      </c>
-      <c r="D63" s="6">
-        <v>75000</v>
-      </c>
-      <c r="E63" s="39">
-        <f t="shared" si="0"/>
-        <v>225000</v>
-      </c>
-      <c r="G63" s="8"/>
-    </row>
-    <row r="64" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="58">
-        <v>12</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="5">
         <f>C17</f>
         <v>5504</v>
       </c>
+      <c r="D63" s="6">
+        <v>9000</v>
+      </c>
+      <c r="E63" s="39">
+        <f t="shared" si="0"/>
+        <v>49536000</v>
+      </c>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A64" s="20">
+        <v>13</v>
+      </c>
+      <c r="B64" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="5">
+        <v>3500</v>
+      </c>
       <c r="D64" s="6">
-        <v>9000</v>
+        <v>2600</v>
       </c>
       <c r="E64" s="39">
         <f t="shared" si="0"/>
-        <v>49536000</v>
-      </c>
-      <c r="G64" s="8"/>
-    </row>
-    <row r="65" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="20">
-        <v>13</v>
-      </c>
-      <c r="B65" s="59" t="s">
-        <v>29</v>
+        <v>9100000</v>
+      </c>
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A65" s="58">
+        <v>14</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C65" s="5">
-        <v>3500</v>
-      </c>
-      <c r="D65" s="6">
-        <v>2600</v>
-      </c>
-      <c r="E65" s="39">
-        <f t="shared" si="0"/>
-        <v>9100000</v>
-      </c>
-      <c r="G65" s="8"/>
-    </row>
-    <row r="66" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="58">
-        <v>14</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C66" s="5">
         <f>C17</f>
         <v>5504</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D65" s="6">
         <v>4000</v>
       </c>
-      <c r="E66" s="39">
+      <c r="E65" s="39">
         <f t="shared" si="0"/>
         <v>22016000</v>
       </c>
-      <c r="G66" s="8"/>
-    </row>
-    <row r="67" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="58"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="63"/>
-      <c r="G67" s="8"/>
-    </row>
-    <row r="68" spans="1:7" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19" t="s">
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A66" s="58"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A67" s="19"/>
+      <c r="B67" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="40"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41">
-        <f>SUM(E53:E67)</f>
+      <c r="C67" s="40"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41">
+        <f>SUM(E52:E66)</f>
         <v>286657750</v>
       </c>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="1:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="1:6" ht="8.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.16" right="0.25" top="0.19" bottom="0.25" header="0" footer="0"/>

--- a/CONG NO/CONG NO 2016/CHI PHI HANG CHÚ NGUYÊN.xlsx
+++ b/CONG NO/CONG NO 2016/CHI PHI HANG CHÚ NGUYÊN.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14880" windowHeight="8835" tabRatio="734"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14880" windowHeight="8775" tabRatio="734" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="MAI MÈ 10-14" sheetId="11" r:id="rId1"/>
+    <sheet name="MAI MÈ 2017" sheetId="11" r:id="rId1"/>
+    <sheet name="05-2017" sheetId="13" r:id="rId2"/>
+    <sheet name="05-2017 (2)" sheetId="14" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'05-2017'!$A$1:$G$94</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'05-2017 (2)'!$A$1:$G$100</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="100">
   <si>
     <t>Đường</t>
   </si>
@@ -182,12 +188,144 @@
   </si>
   <si>
     <t>Trả cô Dương 15.000USD * 23.000</t>
+  </si>
+  <si>
+    <t>Tiền xe chở hàng</t>
+  </si>
+  <si>
+    <t>Tiền tàu &amp; phụ phí (600USD)</t>
+  </si>
+  <si>
+    <t>Tiền bồi dưỡng Nafi</t>
+  </si>
+  <si>
+    <t>Chi phí kiểm hàng</t>
+  </si>
+  <si>
+    <t>02/03/17 : Tạm ứng Cô Dương</t>
+  </si>
+  <si>
+    <t>20/03/17 : Tạm ứng Cô Dương</t>
+  </si>
+  <si>
+    <t>Chi phí kiểm thành phần dinh dưỡng</t>
+  </si>
+  <si>
+    <t>20/04/17 : 25.000usd</t>
+  </si>
+  <si>
+    <t>Cá mai</t>
+  </si>
+  <si>
+    <t>Nước khoán</t>
+  </si>
+  <si>
+    <t>Chống mốc</t>
+  </si>
+  <si>
+    <t>Bao tay tẩm cá (căp)</t>
+  </si>
+  <si>
+    <t>Bao PA</t>
+  </si>
+  <si>
+    <t>CHI PHÍ KHÁC</t>
+  </si>
+  <si>
+    <t>Tiền xe giao hàng Cát Lái (11/03)</t>
+  </si>
+  <si>
+    <t>Tạm ứng lương (C.Nguyên) (3/4)</t>
+  </si>
+  <si>
+    <t>Gửi mẫu (19/4)</t>
+  </si>
+  <si>
+    <t>Chi phí khác</t>
+  </si>
+  <si>
+    <t>Cá chai</t>
+  </si>
+  <si>
+    <t>Cá bò</t>
+  </si>
+  <si>
+    <t>Mai ớt</t>
+  </si>
+  <si>
+    <t>CHI PHÍ XUẤT HÀNG (Lô trước)</t>
+  </si>
+  <si>
+    <t>Chi phí xuất hàng lô trước</t>
+  </si>
+  <si>
+    <t>11/04/17 : Tạm ứng Cô Dương</t>
+  </si>
+  <si>
+    <t>TỒN KHO</t>
+  </si>
+  <si>
+    <t>Mai hành phi</t>
+  </si>
+  <si>
+    <t>Mai hành lá</t>
+  </si>
+  <si>
+    <t>Cá mối</t>
+  </si>
+  <si>
+    <t>Xương cá bò</t>
+  </si>
+  <si>
+    <t>Cá chỉ vàng</t>
+  </si>
+  <si>
+    <t>Tôm tẩm</t>
+  </si>
+  <si>
+    <t>SL TP</t>
+  </si>
+  <si>
+    <t>SL XUẤT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THÀNH TIỀN </t>
+  </si>
+  <si>
+    <t>Mặt quỹ</t>
+  </si>
+  <si>
+    <t>CHI PHÍ NGUYÊN LIỆU &amp; BAO BÌ</t>
+  </si>
+  <si>
+    <t>Tiền cá khác (tỷ giá: 22.700)</t>
+  </si>
+  <si>
+    <t>Hủ nhựa (Hàng trước tết)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cồn </t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>CHI PHÍ XUẤT HÀNG</t>
+  </si>
+  <si>
+    <t>Chi phí đóng hàng cá chai</t>
+  </si>
+  <si>
+    <t>CHI PHÍ ĐÓNG HÀNG CÁ CHAI</t>
+  </si>
+  <si>
+    <t>Tiền công vanh, đóng túi ép PA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -196,7 +334,7 @@
     <numFmt numFmtId="167" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="VNI-Times"/>
@@ -366,7 +504,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -590,14 +728,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -690,6 +846,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -724,6 +881,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -899,17 +1057,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor indexed="25"/>
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:XFD79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" style="9" customWidth="1"/>
     <col min="2" max="2" width="30.25" style="9" customWidth="1"/>
@@ -920,20 +1078,20 @@
     <col min="7" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
       <c r="F1" s="24"/>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:6" s="29" customFormat="1" ht="39.75" customHeight="1">
+    <row r="3" spans="1:6" s="29" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
       <c r="B3" s="26" t="s">
         <v>8</v>
@@ -951,7 +1109,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25" hidden="1" customHeight="1">
+    <row r="4" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30"/>
       <c r="B4" s="31" t="s">
         <v>18</v>
@@ -961,7 +1119,7 @@
       <c r="E4" s="34"/>
       <c r="F4" s="35"/>
     </row>
-    <row r="5" spans="1:6" ht="17.25" hidden="1" customHeight="1">
+    <row r="5" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="54"/>
       <c r="C5" s="55"/>
@@ -972,7 +1130,7 @@
       </c>
       <c r="F5" s="53"/>
     </row>
-    <row r="6" spans="1:6" ht="17.25" hidden="1" customHeight="1">
+    <row r="6" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
       <c r="B6" s="54"/>
       <c r="C6" s="55"/>
@@ -983,14 +1141,14 @@
       </c>
       <c r="F6" s="53"/>
     </row>
-    <row r="7" spans="1:6" ht="17.25" hidden="1" customHeight="1">
+    <row r="7" spans="1:6" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="21"/>
       <c r="C7" s="36"/>
       <c r="D7" s="37"/>
       <c r="E7" s="38"/>
       <c r="F7" s="39"/>
     </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" ht="17.25" hidden="1" customHeight="1">
+    <row r="8" spans="1:6" s="10" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
         <v>16</v>
       </c>
@@ -1008,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" ht="17.25" customHeight="1">
+    <row r="9" spans="1:6" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
         <v>19</v>
       </c>
@@ -1017,7 +1175,7 @@
       <c r="E9" s="44"/>
       <c r="F9" s="43"/>
     </row>
-    <row r="10" spans="1:6" ht="17.25" customHeight="1">
+    <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
         <v>44</v>
       </c>
@@ -1035,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.25" customHeight="1">
+    <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
         <v>29</v>
       </c>
@@ -1053,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" customHeight="1">
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
         <v>25</v>
       </c>
@@ -1071,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.25" customHeight="1">
+    <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
         <v>31</v>
       </c>
@@ -1089,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" customHeight="1">
+    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
         <v>45</v>
       </c>
@@ -1107,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.25" customHeight="1">
+    <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="21" t="s">
         <v>46</v>
       </c>
@@ -1116,14 +1274,14 @@
       <c r="E15" s="38"/>
       <c r="F15" s="45"/>
     </row>
-    <row r="16" spans="1:6" ht="17.25" customHeight="1">
+    <row r="16" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="21"/>
       <c r="C16" s="36"/>
       <c r="D16" s="37"/>
       <c r="E16" s="38"/>
       <c r="F16" s="39"/>
     </row>
-    <row r="17" spans="1:6" s="10" customFormat="1" ht="17.25" customHeight="1">
+    <row r="17" spans="1:6" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="19" t="s">
         <v>16</v>
       </c>
@@ -1141,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.25" customHeight="1">
+    <row r="18" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="22" t="s">
         <v>50</v>
       </c>
@@ -1150,7 +1308,7 @@
       <c r="E18" s="38"/>
       <c r="F18" s="45"/>
     </row>
-    <row r="19" spans="1:6" ht="17.25" customHeight="1">
+    <row r="19" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="52" t="s">
         <v>52</v>
       </c>
@@ -1162,7 +1320,7 @@
         <v>570628200</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.25" customHeight="1">
+    <row r="20" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="52" t="s">
         <v>51</v>
       </c>
@@ -1174,23 +1332,23 @@
         <v>286657750</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.25" customHeight="1">
+    <row r="21" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="52" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="60"/>
       <c r="D21" s="61"/>
       <c r="E21" s="62"/>
-      <c r="F21" s="77"/>
-    </row>
-    <row r="22" spans="1:6" ht="17.25" customHeight="1">
+      <c r="F21" s="75"/>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="23"/>
       <c r="C22" s="46"/>
       <c r="D22" s="47"/>
       <c r="E22" s="48"/>
       <c r="F22" s="49"/>
     </row>
-    <row r="23" spans="1:6" s="10" customFormat="1" ht="17.25" customHeight="1">
+    <row r="23" spans="1:6" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="19" t="s">
         <v>16</v>
       </c>
@@ -1211,7 +1369,7 @@
         <v>857285950</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.25" customHeight="1">
+    <row r="24" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="22" t="s">
         <v>17</v>
       </c>
@@ -1220,7 +1378,7 @@
       <c r="E24" s="38"/>
       <c r="F24" s="45"/>
     </row>
-    <row r="25" spans="1:6" ht="17.25" customHeight="1">
+    <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="52" t="s">
         <v>33</v>
       </c>
@@ -1231,7 +1389,7 @@
         <v>300000000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.25" customHeight="1">
+    <row r="26" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="52" t="s">
         <v>55</v>
       </c>
@@ -1243,7 +1401,7 @@
         <v>345000000</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.25" customHeight="1">
+    <row r="27" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="52" t="s">
         <v>54</v>
       </c>
@@ -1254,14 +1412,14 @@
         <v>212285950</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.25" customHeight="1">
+    <row r="28" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23"/>
       <c r="C28" s="46"/>
       <c r="D28" s="47"/>
       <c r="E28" s="48"/>
       <c r="F28" s="49"/>
     </row>
-    <row r="29" spans="1:6" s="10" customFormat="1" ht="17.25" customHeight="1">
+    <row r="29" spans="1:6" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="19" t="s">
         <v>16</v>
       </c>
@@ -1282,14 +1440,14 @@
         <v>857285950</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="11.25" customHeight="1">
+    <row r="30" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
       <c r="E30" s="14"/>
       <c r="F30" s="15"/>
     </row>
-    <row r="31" spans="1:6" ht="26.25" customHeight="1">
+    <row r="31" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
         <v>48</v>
       </c>
@@ -1298,7 +1456,7 @@
       <c r="E31" s="14"/>
       <c r="F31" s="15"/>
     </row>
-    <row r="32" spans="1:6" s="50" customFormat="1" ht="36.75" customHeight="1">
+    <row r="32" spans="1:6" s="50" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="65" t="s">
         <v>4</v>
       </c>
@@ -1315,7 +1473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="58">
         <v>1</v>
       </c>
@@ -1333,7 +1491,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="58">
         <v>2</v>
       </c>
@@ -1351,7 +1509,7 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20">
         <v>3</v>
       </c>
@@ -1370,7 +1528,7 @@
       </c>
       <c r="F35" s="51"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="58">
         <v>4</v>
       </c>
@@ -1388,7 +1546,7 @@
         <v>17820000</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20">
         <v>5</v>
       </c>
@@ -1407,7 +1565,7 @@
       </c>
       <c r="F37" s="51"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="58">
         <v>6</v>
       </c>
@@ -1426,7 +1584,7 @@
       </c>
       <c r="F38" s="51"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
         <v>7</v>
       </c>
@@ -1445,7 +1603,7 @@
       </c>
       <c r="F39" s="51"/>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="58">
         <v>8</v>
       </c>
@@ -1464,7 +1622,7 @@
       </c>
       <c r="F40" s="51"/>
     </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
         <v>9</v>
       </c>
@@ -1483,7 +1641,7 @@
       </c>
       <c r="F41" s="51"/>
     </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="58">
         <v>10</v>
       </c>
@@ -1502,7 +1660,7 @@
       </c>
       <c r="F42" s="51"/>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20">
         <v>11</v>
       </c>
@@ -1521,7 +1679,7 @@
       </c>
       <c r="F43" s="51"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="58">
         <v>12</v>
       </c>
@@ -1540,7 +1698,7 @@
       </c>
       <c r="F44" s="51"/>
     </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20">
         <v>13</v>
       </c>
@@ -1559,7 +1717,7 @@
       </c>
       <c r="F45" s="51"/>
     </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="58">
         <v>14</v>
       </c>
@@ -1578,7 +1736,7 @@
       </c>
       <c r="F46" s="51"/>
     </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="67"/>
       <c r="B47" s="68"/>
       <c r="C47" s="69"/>
@@ -1586,7 +1744,7 @@
       <c r="E47" s="70"/>
       <c r="F47" s="51"/>
     </row>
-    <row r="48" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1">
+    <row r="48" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="19"/>
       <c r="B48" s="19" t="s">
         <v>9</v>
@@ -1599,13 +1757,13 @@
       </c>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="1:6" s="71" customFormat="1" ht="15.75" customHeight="1">
+    <row r="49" spans="1:6" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="72"/>
       <c r="D49" s="73"/>
       <c r="E49" s="73"/>
       <c r="F49" s="74"/>
     </row>
-    <row r="50" spans="1:6" s="71" customFormat="1" ht="26.25" customHeight="1">
+    <row r="50" spans="1:6" s="71" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="71" t="s">
         <v>47</v>
       </c>
@@ -1614,7 +1772,7 @@
       <c r="E50" s="73"/>
       <c r="F50" s="74"/>
     </row>
-    <row r="51" spans="1:6" s="50" customFormat="1" ht="36.75" customHeight="1">
+    <row r="51" spans="1:6" s="50" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="65" t="s">
         <v>4</v>
       </c>
@@ -1631,7 +1789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1">
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20">
         <v>1</v>
       </c>
@@ -1650,7 +1808,7 @@
       </c>
       <c r="F52" s="51"/>
     </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1">
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="58">
         <v>2</v>
       </c>
@@ -1669,7 +1827,7 @@
       </c>
       <c r="F53" s="51"/>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20">
         <v>3</v>
       </c>
@@ -1688,7 +1846,7 @@
       </c>
       <c r="F54" s="51"/>
     </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1">
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="58">
         <v>4</v>
       </c>
@@ -1707,7 +1865,7 @@
       </c>
       <c r="F55" s="51"/>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="20">
         <v>5</v>
       </c>
@@ -1726,7 +1884,7 @@
       </c>
       <c r="F56" s="51"/>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="58">
         <v>6</v>
       </c>
@@ -1745,7 +1903,7 @@
       </c>
       <c r="F57" s="51"/>
     </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1">
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="20">
         <v>7</v>
       </c>
@@ -1764,7 +1922,7 @@
       </c>
       <c r="F58" s="51"/>
     </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1">
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="58">
         <v>8</v>
       </c>
@@ -1783,7 +1941,7 @@
       </c>
       <c r="F59" s="51"/>
     </row>
-    <row r="60" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="60" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="20">
         <v>9</v>
       </c>
@@ -1802,7 +1960,7 @@
       </c>
       <c r="F60" s="8"/>
     </row>
-    <row r="61" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="61" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="58">
         <v>10</v>
       </c>
@@ -1821,7 +1979,7 @@
       </c>
       <c r="F61" s="8"/>
     </row>
-    <row r="62" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="62" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="20">
         <v>11</v>
       </c>
@@ -1840,7 +1998,7 @@
       </c>
       <c r="F62" s="8"/>
     </row>
-    <row r="63" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="63" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="58">
         <v>12</v>
       </c>
@@ -1860,7 +2018,7 @@
       </c>
       <c r="F63" s="8"/>
     </row>
-    <row r="64" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="64" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="20">
         <v>13</v>
       </c>
@@ -1879,7 +2037,7 @@
       </c>
       <c r="F64" s="8"/>
     </row>
-    <row r="65" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="65" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="58">
         <v>14</v>
       </c>
@@ -1899,7 +2057,7 @@
       </c>
       <c r="F65" s="8"/>
     </row>
-    <row r="66" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="66" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="58"/>
       <c r="B66" s="66"/>
       <c r="C66" s="5"/>
@@ -1907,7 +2065,7 @@
       <c r="E66" s="63"/>
       <c r="F66" s="8"/>
     </row>
-    <row r="67" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1">
+    <row r="67" spans="1:6" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="19"/>
       <c r="B67" s="19" t="s">
         <v>9</v>
@@ -1920,7 +2078,7 @@
       </c>
       <c r="F67" s="9"/>
     </row>
-    <row r="68" spans="1:6" ht="8.25" customHeight="1"/>
+    <row r="68" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
@@ -1931,4 +2089,3084 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor indexed="25"/>
+  </sheetPr>
+  <dimension ref="A1:G94"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="12" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="24"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" s="29" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25"/>
+      <c r="B3" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56">
+        <f>20*12</f>
+        <v>240</v>
+      </c>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="53"/>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
+      <c r="B6" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56">
+        <f t="shared" ref="D6:D7" si="0">20*12</f>
+        <v>240</v>
+      </c>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="53"/>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
+      <c r="B7" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="53"/>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="21"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+    </row>
+    <row r="9" spans="1:7" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="40">
+        <f>SUM(C4:C8)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="40">
+        <f>SUM(D4:D8)</f>
+        <v>720</v>
+      </c>
+      <c r="E9" s="40">
+        <f>SUM(E4:E8)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41">
+        <f>SUM(G4:G8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="43"/>
+    </row>
+    <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="36">
+        <f>D11+E11</f>
+        <v>428</v>
+      </c>
+      <c r="D11" s="37">
+        <f>50*8</f>
+        <v>400</v>
+      </c>
+      <c r="E11" s="38">
+        <f>7*4</f>
+        <v>28</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="45"/>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="36">
+        <f t="shared" ref="C12:C15" si="1">D12+E12</f>
+        <v>672</v>
+      </c>
+      <c r="D12" s="37">
+        <f>80*8</f>
+        <v>640</v>
+      </c>
+      <c r="E12" s="38">
+        <f>8*4</f>
+        <v>32</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="45"/>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="36">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38">
+        <f>23*4</f>
+        <v>92</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="45"/>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="36">
+        <f t="shared" si="1"/>
+        <v>1376</v>
+      </c>
+      <c r="D14" s="37">
+        <f>150*8</f>
+        <v>1200</v>
+      </c>
+      <c r="E14" s="38">
+        <f>22*8</f>
+        <v>176</v>
+      </c>
+      <c r="F14" s="38"/>
+      <c r="G14" s="45"/>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="36">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="D15" s="37">
+        <f>200*7</f>
+        <v>1400</v>
+      </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="45"/>
+    </row>
+    <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37">
+        <f>(56+20)*12</f>
+        <v>912</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38">
+        <v>9.1</v>
+      </c>
+      <c r="G16" s="37">
+        <f>D16*F16</f>
+        <v>8299.1999999999989</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37">
+        <f>42*12</f>
+        <v>504</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38">
+        <v>9.1</v>
+      </c>
+      <c r="G17" s="37">
+        <f t="shared" ref="G17:G22" si="2">D17*F17</f>
+        <v>4586.3999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37">
+        <f>(6+20)*12</f>
+        <v>312</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38">
+        <v>9.1</v>
+      </c>
+      <c r="G18" s="37">
+        <f t="shared" ref="G18:G19" si="3">D18*F18</f>
+        <v>2839.2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37">
+        <f>(146+20)*12</f>
+        <v>1992</v>
+      </c>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38">
+        <v>9.1</v>
+      </c>
+      <c r="G19" s="37">
+        <f t="shared" si="3"/>
+        <v>18127.2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37">
+        <f>5*9</f>
+        <v>45</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38">
+        <v>5</v>
+      </c>
+      <c r="G20" s="37">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37">
+        <v>6</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38">
+        <v>7.5</v>
+      </c>
+      <c r="G21" s="37">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37">
+        <v>3</v>
+      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38">
+        <v>18.5</v>
+      </c>
+      <c r="G22" s="37">
+        <f t="shared" si="2"/>
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="21"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
+    </row>
+    <row r="24" spans="2:7" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="40">
+        <f>SUM(C10:C23)</f>
+        <v>3968</v>
+      </c>
+      <c r="D24" s="40">
+        <f>SUM(D10:D23)</f>
+        <v>7414</v>
+      </c>
+      <c r="E24" s="40">
+        <f>SUM(E10:E23)</f>
+        <v>328</v>
+      </c>
+      <c r="F24" s="40"/>
+      <c r="G24" s="81">
+        <f>SUM(G10:G23)</f>
+        <v>34177.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="45"/>
+    </row>
+    <row r="26" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="60"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="7">
+        <f>G24*22700</f>
+        <v>775829250</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="60"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="7">
+        <f>E76</f>
+        <v>602341860</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="60"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="75">
+        <f>E84</f>
+        <v>17200000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="60"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="75">
+        <f>E94</f>
+        <v>25510000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="23"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="49"/>
+    </row>
+    <row r="31" spans="2:7" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="41">
+        <f>SUM(C25:C30)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="41">
+        <f>SUM(D25:D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="41">
+        <f>SUM(E25:E30)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41">
+        <f>SUM(G25:G30)</f>
+        <v>1420881110</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="45"/>
+    </row>
+    <row r="33" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="60"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="7">
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="60"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="7">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="60"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="7">
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="60"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="7">
+        <v>568000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="23"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="49"/>
+    </row>
+    <row r="38" spans="1:7" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="41">
+        <f>SUM(C32:C37)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="41">
+        <f>SUM(D32:D37)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="41">
+        <f>SUM(E32:E37)</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41">
+        <f>SUM(G32:G37)</f>
+        <v>1368000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="13"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="13"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="15"/>
+    </row>
+    <row r="41" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="13"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15"/>
+    </row>
+    <row r="42" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="13"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="15"/>
+    </row>
+    <row r="43" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="13"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="15"/>
+    </row>
+    <row r="44" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="13"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="15"/>
+    </row>
+    <row r="45" spans="1:7" s="71" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="72"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="74"/>
+    </row>
+    <row r="46" spans="1:7" s="50" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="79"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="58">
+        <v>1</v>
+      </c>
+      <c r="B47" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="55">
+        <f>1104+122</f>
+        <v>1226</v>
+      </c>
+      <c r="D47" s="53">
+        <v>200000</v>
+      </c>
+      <c r="E47" s="53">
+        <f>C47*D47</f>
+        <v>245200000</v>
+      </c>
+      <c r="F47" s="80"/>
+    </row>
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="58">
+        <v>2</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="36">
+        <v>667</v>
+      </c>
+      <c r="D48" s="39">
+        <v>95000</v>
+      </c>
+      <c r="E48" s="39">
+        <f>C48*D48</f>
+        <v>63365000</v>
+      </c>
+      <c r="F48" s="80"/>
+    </row>
+    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="58">
+        <v>3</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="36">
+        <v>1100</v>
+      </c>
+      <c r="D49" s="39">
+        <v>34000</v>
+      </c>
+      <c r="E49" s="39">
+        <f>C49*D49</f>
+        <v>37400000</v>
+      </c>
+      <c r="F49" s="80"/>
+      <c r="G49" s="51"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="58">
+        <v>4</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="36">
+        <v>102</v>
+      </c>
+      <c r="D50" s="39">
+        <v>18500</v>
+      </c>
+      <c r="E50" s="39">
+        <f>C50*D50</f>
+        <v>1887000</v>
+      </c>
+      <c r="F50" s="80"/>
+      <c r="G50" s="51"/>
+    </row>
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="58">
+        <v>5</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="36">
+        <v>638</v>
+      </c>
+      <c r="D51" s="39">
+        <v>10120</v>
+      </c>
+      <c r="E51" s="39">
+        <f>C51*D51</f>
+        <v>6456560</v>
+      </c>
+      <c r="F51" s="80"/>
+      <c r="G51" s="51"/>
+    </row>
+    <row r="52" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="58">
+        <v>6</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="5">
+        <v>264</v>
+      </c>
+      <c r="D52" s="6">
+        <v>3000</v>
+      </c>
+      <c r="E52" s="39">
+        <f t="shared" ref="E52:E58" si="4">C52*D52</f>
+        <v>792000</v>
+      </c>
+      <c r="F52" s="80"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="58">
+        <v>7</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="36">
+        <f>65+25</f>
+        <v>90</v>
+      </c>
+      <c r="D53" s="39">
+        <v>9500</v>
+      </c>
+      <c r="E53" s="39">
+        <f t="shared" si="4"/>
+        <v>855000</v>
+      </c>
+      <c r="F53" s="80"/>
+      <c r="G53" s="51"/>
+    </row>
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="58">
+        <v>8</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="36">
+        <v>4</v>
+      </c>
+      <c r="D54" s="39">
+        <v>55000</v>
+      </c>
+      <c r="E54" s="39">
+        <f t="shared" si="4"/>
+        <v>220000</v>
+      </c>
+      <c r="F54" s="80"/>
+      <c r="G54" s="51"/>
+    </row>
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="58">
+        <v>9</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="36">
+        <v>12</v>
+      </c>
+      <c r="D55" s="39">
+        <v>25000</v>
+      </c>
+      <c r="E55" s="39">
+        <f t="shared" ref="E55" si="5">C55*D55</f>
+        <v>300000</v>
+      </c>
+      <c r="F55" s="80"/>
+      <c r="G55" s="51"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="58">
+        <v>10</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="36">
+        <v>1</v>
+      </c>
+      <c r="D56" s="39">
+        <v>58000</v>
+      </c>
+      <c r="E56" s="39">
+        <f t="shared" si="4"/>
+        <v>58000</v>
+      </c>
+      <c r="F56" s="80"/>
+      <c r="G56" s="51"/>
+    </row>
+    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="58">
+        <v>11</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="36">
+        <v>1</v>
+      </c>
+      <c r="D57" s="39">
+        <v>360000</v>
+      </c>
+      <c r="E57" s="39">
+        <f t="shared" si="4"/>
+        <v>360000</v>
+      </c>
+      <c r="F57" s="80"/>
+      <c r="G57" s="51"/>
+    </row>
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="58">
+        <v>12</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="36">
+        <f>65.3</f>
+        <v>65.3</v>
+      </c>
+      <c r="D58" s="39">
+        <v>75000</v>
+      </c>
+      <c r="E58" s="39">
+        <f t="shared" si="4"/>
+        <v>4897500</v>
+      </c>
+      <c r="F58" s="80"/>
+      <c r="G58" s="51"/>
+    </row>
+    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="58">
+        <v>13</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="36">
+        <f>137+5.7</f>
+        <v>142.69999999999999</v>
+      </c>
+      <c r="D59" s="39">
+        <v>45000</v>
+      </c>
+      <c r="E59" s="39">
+        <f>C59*D59</f>
+        <v>6421499.9999999991</v>
+      </c>
+      <c r="F59" s="80"/>
+      <c r="G59" s="51"/>
+    </row>
+    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="58">
+        <v>14</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="36">
+        <f>45*15</f>
+        <v>675</v>
+      </c>
+      <c r="D60" s="39">
+        <v>25000</v>
+      </c>
+      <c r="E60" s="39">
+        <f>C60*D60</f>
+        <v>16875000</v>
+      </c>
+      <c r="F60" s="80"/>
+      <c r="G60" s="51"/>
+    </row>
+    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="58">
+        <v>15</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="36">
+        <f>710+54.5</f>
+        <v>764.5</v>
+      </c>
+      <c r="D61" s="39">
+        <v>18000</v>
+      </c>
+      <c r="E61" s="39">
+        <f t="shared" ref="E61:E74" si="6">C61*D61</f>
+        <v>13761000</v>
+      </c>
+      <c r="F61" s="80"/>
+      <c r="G61" s="51"/>
+    </row>
+    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="58">
+        <v>16</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="36">
+        <f>88+6.5</f>
+        <v>94.5</v>
+      </c>
+      <c r="D62" s="39">
+        <v>42000</v>
+      </c>
+      <c r="E62" s="39">
+        <f t="shared" si="6"/>
+        <v>3969000</v>
+      </c>
+      <c r="F62" s="80"/>
+      <c r="G62" s="51"/>
+    </row>
+    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="58">
+        <v>17</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="36">
+        <f>63+4</f>
+        <v>67</v>
+      </c>
+      <c r="D63" s="39">
+        <v>3500</v>
+      </c>
+      <c r="E63" s="39">
+        <f t="shared" si="6"/>
+        <v>234500</v>
+      </c>
+      <c r="F63" s="80"/>
+      <c r="G63" s="51"/>
+    </row>
+    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="58">
+        <v>18</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="36">
+        <f>1190+102</f>
+        <v>1292</v>
+      </c>
+      <c r="D64" s="39">
+        <v>78000</v>
+      </c>
+      <c r="E64" s="39">
+        <f t="shared" si="6"/>
+        <v>100776000</v>
+      </c>
+      <c r="F64" s="80"/>
+      <c r="G64" s="51"/>
+    </row>
+    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="58">
+        <v>19</v>
+      </c>
+      <c r="B65" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="36">
+        <f>239+21.5</f>
+        <v>260.5</v>
+      </c>
+      <c r="D65" s="39">
+        <v>102000</v>
+      </c>
+      <c r="E65" s="39">
+        <f t="shared" si="6"/>
+        <v>26571000</v>
+      </c>
+      <c r="F65" s="80"/>
+      <c r="G65" s="51"/>
+    </row>
+    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="58">
+        <v>20</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="36">
+        <v>4</v>
+      </c>
+      <c r="D66" s="39">
+        <v>240000</v>
+      </c>
+      <c r="E66" s="39">
+        <f t="shared" si="6"/>
+        <v>960000</v>
+      </c>
+      <c r="F66" s="80"/>
+      <c r="G66" s="51"/>
+    </row>
+    <row r="67" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="58">
+        <v>21</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="4">
+        <v>7</v>
+      </c>
+      <c r="D67" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E67" s="39">
+        <f t="shared" si="6"/>
+        <v>350000</v>
+      </c>
+      <c r="F67" s="80"/>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="58">
+        <v>22</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D68" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E68" s="39">
+        <f t="shared" si="6"/>
+        <v>360000</v>
+      </c>
+      <c r="F68" s="80"/>
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="58">
+        <v>23</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="4">
+        <v>29</v>
+      </c>
+      <c r="D69" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E69" s="39">
+        <f t="shared" ref="E69" si="7">C69*D69</f>
+        <v>232000</v>
+      </c>
+      <c r="F69" s="80"/>
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="58">
+        <v>24</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="5">
+        <v>3</v>
+      </c>
+      <c r="D70" s="6">
+        <v>18000</v>
+      </c>
+      <c r="E70" s="39">
+        <f t="shared" ref="E70" si="8">C70*D70</f>
+        <v>54000</v>
+      </c>
+      <c r="F70" s="80"/>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="58">
+        <v>25</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="5">
+        <v>2</v>
+      </c>
+      <c r="D71" s="6">
+        <v>75000</v>
+      </c>
+      <c r="E71" s="39">
+        <f>C71*D71</f>
+        <v>150000</v>
+      </c>
+      <c r="F71" s="80"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="58">
+        <v>26</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="5">
+        <f>$C$24</f>
+        <v>3968</v>
+      </c>
+      <c r="D72" s="6">
+        <v>9000</v>
+      </c>
+      <c r="E72" s="39">
+        <f t="shared" si="6"/>
+        <v>35712000</v>
+      </c>
+      <c r="F72" s="80"/>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="58">
+        <v>27</v>
+      </c>
+      <c r="B73" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="5">
+        <f t="shared" ref="C73:C74" si="9">$C$24</f>
+        <v>3968</v>
+      </c>
+      <c r="D73" s="6">
+        <v>3600</v>
+      </c>
+      <c r="E73" s="39">
+        <f t="shared" si="6"/>
+        <v>14284800</v>
+      </c>
+      <c r="F73" s="80"/>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="58">
+        <v>28</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" s="5">
+        <f t="shared" si="9"/>
+        <v>3968</v>
+      </c>
+      <c r="D74" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E74" s="39">
+        <f t="shared" si="6"/>
+        <v>19840000</v>
+      </c>
+      <c r="F74" s="80"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="58"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="80"/>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" spans="1:7" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="19"/>
+      <c r="B76" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="40"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41">
+        <f>SUM(E47:E75)</f>
+        <v>602341860</v>
+      </c>
+      <c r="F76" s="73"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" s="10" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="71"/>
+      <c r="B77" s="71"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="73"/>
+      <c r="E77" s="73"/>
+      <c r="F77" s="73"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" s="71" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="72"/>
+      <c r="D78" s="73"/>
+      <c r="E78" s="73"/>
+      <c r="F78" s="73"/>
+      <c r="G78" s="74"/>
+    </row>
+    <row r="79" spans="1:7" s="50" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="79"/>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="20">
+        <v>1</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" s="36"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39">
+        <v>5000000</v>
+      </c>
+      <c r="F80" s="80"/>
+      <c r="G80" s="51"/>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="58">
+        <v>2</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" s="36"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39">
+        <v>11000000</v>
+      </c>
+      <c r="F81" s="80"/>
+      <c r="G81" s="51"/>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="20">
+        <v>3</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82" s="36"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39">
+        <v>1200000</v>
+      </c>
+      <c r="F82" s="80"/>
+      <c r="G82" s="51"/>
+    </row>
+    <row r="83" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="58"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="80"/>
+      <c r="G83" s="8"/>
+    </row>
+    <row r="84" spans="1:7" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="19"/>
+      <c r="B84" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="40"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41">
+        <f>SUM(E80:E83)</f>
+        <v>17200000</v>
+      </c>
+      <c r="F84" s="73"/>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="1:7" s="71" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86" s="72"/>
+      <c r="D86" s="73"/>
+      <c r="E86" s="73"/>
+      <c r="F86" s="73"/>
+      <c r="G86" s="74"/>
+    </row>
+    <row r="87" spans="1:7" s="50" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" s="79"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="20">
+        <v>1</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88" s="36"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39">
+        <v>13620000</v>
+      </c>
+      <c r="F88" s="80"/>
+      <c r="G88" s="51"/>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="58">
+        <v>2</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" s="36"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="39">
+        <v>1200000</v>
+      </c>
+      <c r="F89" s="80"/>
+      <c r="G89" s="51"/>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="20">
+        <v>3</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C90" s="36"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39">
+        <v>500000</v>
+      </c>
+      <c r="F90" s="80"/>
+      <c r="G90" s="51"/>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="58">
+        <v>4</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C91" s="36"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39">
+        <v>2000000</v>
+      </c>
+      <c r="F91" s="80"/>
+      <c r="G91" s="51"/>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="20">
+        <v>5</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C92" s="36"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39">
+        <v>8190000</v>
+      </c>
+      <c r="F92" s="80"/>
+      <c r="G92" s="51"/>
+    </row>
+    <row r="93" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="58"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="63"/>
+      <c r="F93" s="80"/>
+      <c r="G93" s="8"/>
+    </row>
+    <row r="94" spans="1:7" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="19"/>
+      <c r="B94" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="40"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="41">
+        <f>SUM(E88:E93)</f>
+        <v>25510000</v>
+      </c>
+      <c r="F94" s="73"/>
+      <c r="G94" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C39:D39"/>
+  </mergeCells>
+  <pageMargins left="0.16" right="0.25" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor indexed="25"/>
+  </sheetPr>
+  <dimension ref="A1:G100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="24"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" s="29" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25"/>
+      <c r="B3" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56">
+        <f>20*12</f>
+        <v>240</v>
+      </c>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G5" s="37">
+        <f>D5*F5</f>
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
+      <c r="B6" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56">
+        <f t="shared" ref="D6:D7" si="0">20*12</f>
+        <v>240</v>
+      </c>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G6" s="37">
+        <f t="shared" ref="G6:G7" si="1">D6*F6</f>
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
+      <c r="B7" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G7" s="37">
+        <f t="shared" si="1"/>
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="21"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+    </row>
+    <row r="9" spans="1:7" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="40">
+        <f>SUM(C4:C8)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="40">
+        <f>SUM(D4:D8)</f>
+        <v>720</v>
+      </c>
+      <c r="E9" s="40">
+        <f>SUM(E4:E8)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="81">
+        <f>SUM(G4:G8)</f>
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="43"/>
+    </row>
+    <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="36">
+        <f t="shared" ref="C11:C12" si="2">D11+E11</f>
+        <v>2616</v>
+      </c>
+      <c r="D11" s="37">
+        <f>327*8</f>
+        <v>2616</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="45"/>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="36">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="D12" s="37">
+        <f>200*7</f>
+        <v>1400</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="45"/>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37">
+        <f>(56)*12</f>
+        <v>672</v>
+      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G13" s="37">
+        <f>D13*F13</f>
+        <v>6182.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37">
+        <f>42*12</f>
+        <v>504</v>
+      </c>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G14" s="37">
+        <f t="shared" ref="G14:G19" si="3">D14*F14</f>
+        <v>4636.7999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37">
+        <f>(6)*12</f>
+        <v>72</v>
+      </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G15" s="37">
+        <f t="shared" si="3"/>
+        <v>662.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37">
+        <f>(146)*12</f>
+        <v>1752</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G16" s="37">
+        <f t="shared" si="3"/>
+        <v>16118.4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37">
+        <f>5*9</f>
+        <v>45</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38">
+        <v>5</v>
+      </c>
+      <c r="G17" s="37">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37">
+        <v>6</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38">
+        <v>7.5</v>
+      </c>
+      <c r="G18" s="37">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37">
+        <v>3</v>
+      </c>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38">
+        <v>18.5</v>
+      </c>
+      <c r="G19" s="37">
+        <f t="shared" si="3"/>
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="21"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+    </row>
+    <row r="21" spans="2:7" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="40">
+        <f>SUM(C10:C20)</f>
+        <v>4016</v>
+      </c>
+      <c r="D21" s="40">
+        <f>SUM(D10:D20)</f>
+        <v>7070</v>
+      </c>
+      <c r="E21" s="40">
+        <f>SUM(E10:E20)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="81">
+        <f>SUM(G10:G20)</f>
+        <v>27925.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="45"/>
+    </row>
+    <row r="23" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="7">
+        <f>(G21+G9)*22700</f>
+        <v>784273650</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="60"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="75">
+        <f>E45</f>
+        <v>16688240</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="60"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="7">
+        <f>E79</f>
+        <v>611755160</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="60"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="75">
+        <f>E90</f>
+        <v>33320000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="60"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="75">
+        <f>E100</f>
+        <v>25510000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="23"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="49"/>
+    </row>
+    <row r="29" spans="2:7" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="41">
+        <f>SUM(C22:C28)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="41">
+        <f>SUM(D22:D28)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="41">
+        <f>SUM(E22:E28)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41">
+        <f>SUM(G22:G28)</f>
+        <v>1471547050</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="45"/>
+    </row>
+    <row r="31" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="60"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="7">
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="60"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="7">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="60"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="7">
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="60"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="7">
+        <v>568000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="23"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="49"/>
+    </row>
+    <row r="36" spans="1:7" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="41">
+        <f>SUM(C30:C35)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="41">
+        <f>SUM(D30:D35)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="41">
+        <f>SUM(E30:E35)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41">
+        <f>SUM(G30:G35)</f>
+        <v>1368000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="13"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="13"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="1:7" s="71" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="72"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="74"/>
+    </row>
+    <row r="40" spans="1:7" s="50" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="79"/>
+    </row>
+    <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="58">
+        <v>1</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="60"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63">
+        <v>11745000</v>
+      </c>
+      <c r="F41" s="80"/>
+      <c r="G41" s="51"/>
+    </row>
+    <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="20">
+        <v>2</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="36">
+        <v>102</v>
+      </c>
+      <c r="D42" s="39">
+        <v>18500</v>
+      </c>
+      <c r="E42" s="39">
+        <f>C42*D42</f>
+        <v>1887000</v>
+      </c>
+      <c r="F42" s="80"/>
+      <c r="G42" s="51"/>
+    </row>
+    <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="58">
+        <v>3</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="36">
+        <v>302</v>
+      </c>
+      <c r="D43" s="39">
+        <v>10120</v>
+      </c>
+      <c r="E43" s="39">
+        <f>C43*D43</f>
+        <v>3056240</v>
+      </c>
+      <c r="F43" s="80"/>
+      <c r="G43" s="51"/>
+    </row>
+    <row r="44" spans="1:7" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="58"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="40"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41">
+        <f>SUM(E41:E44)</f>
+        <v>16688240</v>
+      </c>
+      <c r="F45" s="73"/>
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="1:7" s="10" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="71"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="13"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="15"/>
+    </row>
+    <row r="48" spans="1:7" s="71" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="72"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="74"/>
+    </row>
+    <row r="49" spans="1:7" s="50" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="79"/>
+    </row>
+    <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="58">
+        <v>1</v>
+      </c>
+      <c r="B50" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="55">
+        <f>1104+122</f>
+        <v>1226</v>
+      </c>
+      <c r="D50" s="53">
+        <v>200000</v>
+      </c>
+      <c r="E50" s="53">
+        <f>C50*D50</f>
+        <v>245200000</v>
+      </c>
+      <c r="F50" s="80"/>
+    </row>
+    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="58">
+        <v>2</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="36">
+        <v>667</v>
+      </c>
+      <c r="D51" s="39">
+        <v>95000</v>
+      </c>
+      <c r="E51" s="39">
+        <f>C51*D51</f>
+        <v>63365000</v>
+      </c>
+      <c r="F51" s="80"/>
+    </row>
+    <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="58">
+        <v>3</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="36">
+        <v>1100</v>
+      </c>
+      <c r="D52" s="39">
+        <v>34000</v>
+      </c>
+      <c r="E52" s="39">
+        <f>C52*D52</f>
+        <v>37400000</v>
+      </c>
+      <c r="F52" s="80"/>
+      <c r="G52" s="51"/>
+    </row>
+    <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="58">
+        <v>4</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="36">
+        <v>102</v>
+      </c>
+      <c r="D53" s="39">
+        <v>18500</v>
+      </c>
+      <c r="E53" s="39">
+        <f>C53*D53</f>
+        <v>1887000</v>
+      </c>
+      <c r="F53" s="80"/>
+      <c r="G53" s="51"/>
+    </row>
+    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="58">
+        <v>5</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="36">
+        <v>638</v>
+      </c>
+      <c r="D54" s="39">
+        <v>10120</v>
+      </c>
+      <c r="E54" s="39">
+        <f>C54*D54</f>
+        <v>6456560</v>
+      </c>
+      <c r="F54" s="80"/>
+      <c r="G54" s="51"/>
+    </row>
+    <row r="55" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="58">
+        <v>6</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="5">
+        <v>264</v>
+      </c>
+      <c r="D55" s="6">
+        <v>3000</v>
+      </c>
+      <c r="E55" s="39">
+        <f t="shared" ref="E55:E61" si="4">C55*D55</f>
+        <v>792000</v>
+      </c>
+      <c r="F55" s="80"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="58">
+        <v>7</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="36">
+        <f>65+25</f>
+        <v>90</v>
+      </c>
+      <c r="D56" s="39">
+        <v>9500</v>
+      </c>
+      <c r="E56" s="39">
+        <f t="shared" si="4"/>
+        <v>855000</v>
+      </c>
+      <c r="F56" s="80"/>
+      <c r="G56" s="51"/>
+    </row>
+    <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="58">
+        <v>8</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="36">
+        <v>4</v>
+      </c>
+      <c r="D57" s="39">
+        <v>55000</v>
+      </c>
+      <c r="E57" s="39">
+        <f t="shared" si="4"/>
+        <v>220000</v>
+      </c>
+      <c r="F57" s="80"/>
+      <c r="G57" s="51"/>
+    </row>
+    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="58">
+        <v>9</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="36">
+        <v>12</v>
+      </c>
+      <c r="D58" s="39">
+        <v>25000</v>
+      </c>
+      <c r="E58" s="39">
+        <f t="shared" si="4"/>
+        <v>300000</v>
+      </c>
+      <c r="F58" s="80"/>
+      <c r="G58" s="51"/>
+    </row>
+    <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="58">
+        <v>10</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="36">
+        <v>1</v>
+      </c>
+      <c r="D59" s="39">
+        <v>58000</v>
+      </c>
+      <c r="E59" s="39">
+        <f t="shared" si="4"/>
+        <v>58000</v>
+      </c>
+      <c r="F59" s="80"/>
+      <c r="G59" s="51"/>
+    </row>
+    <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="58">
+        <v>11</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="36">
+        <v>1</v>
+      </c>
+      <c r="D60" s="39">
+        <v>360000</v>
+      </c>
+      <c r="E60" s="39">
+        <f t="shared" si="4"/>
+        <v>360000</v>
+      </c>
+      <c r="F60" s="80"/>
+      <c r="G60" s="51"/>
+    </row>
+    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="58">
+        <v>12</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="36">
+        <v>126</v>
+      </c>
+      <c r="D61" s="39">
+        <v>75000</v>
+      </c>
+      <c r="E61" s="39">
+        <f t="shared" si="4"/>
+        <v>9450000</v>
+      </c>
+      <c r="F61" s="80"/>
+      <c r="G61" s="51"/>
+    </row>
+    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="58">
+        <v>13</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="36">
+        <f>137+5.7</f>
+        <v>142.69999999999999</v>
+      </c>
+      <c r="D62" s="39">
+        <v>45000</v>
+      </c>
+      <c r="E62" s="39">
+        <f>C62*D62</f>
+        <v>6421499.9999999991</v>
+      </c>
+      <c r="F62" s="80"/>
+      <c r="G62" s="51"/>
+    </row>
+    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="58">
+        <v>14</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="36">
+        <f>45*15</f>
+        <v>675</v>
+      </c>
+      <c r="D63" s="39">
+        <v>25000</v>
+      </c>
+      <c r="E63" s="39">
+        <f>C63*D63</f>
+        <v>16875000</v>
+      </c>
+      <c r="F63" s="80"/>
+      <c r="G63" s="51"/>
+    </row>
+    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="58">
+        <v>15</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="36">
+        <f>710+54.5</f>
+        <v>764.5</v>
+      </c>
+      <c r="D64" s="39">
+        <v>18000</v>
+      </c>
+      <c r="E64" s="39">
+        <f t="shared" ref="E64:E77" si="5">C64*D64</f>
+        <v>13761000</v>
+      </c>
+      <c r="F64" s="80"/>
+      <c r="G64" s="51"/>
+    </row>
+    <row r="65" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="58">
+        <v>16</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="36">
+        <f>88+6.5</f>
+        <v>94.5</v>
+      </c>
+      <c r="D65" s="39">
+        <v>42000</v>
+      </c>
+      <c r="E65" s="39">
+        <f t="shared" si="5"/>
+        <v>3969000</v>
+      </c>
+      <c r="F65" s="80"/>
+      <c r="G65" s="51"/>
+    </row>
+    <row r="66" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="58">
+        <v>17</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="36">
+        <f>63+4</f>
+        <v>67</v>
+      </c>
+      <c r="D66" s="39">
+        <v>3500</v>
+      </c>
+      <c r="E66" s="39">
+        <f t="shared" si="5"/>
+        <v>234500</v>
+      </c>
+      <c r="F66" s="80"/>
+      <c r="G66" s="51"/>
+    </row>
+    <row r="67" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="58">
+        <v>18</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="36">
+        <f>1190+102</f>
+        <v>1292</v>
+      </c>
+      <c r="D67" s="39">
+        <v>78000</v>
+      </c>
+      <c r="E67" s="39">
+        <f t="shared" si="5"/>
+        <v>100776000</v>
+      </c>
+      <c r="F67" s="80"/>
+      <c r="G67" s="51"/>
+    </row>
+    <row r="68" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="58">
+        <v>19</v>
+      </c>
+      <c r="B68" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="36">
+        <f>239+21.5</f>
+        <v>260.5</v>
+      </c>
+      <c r="D68" s="39">
+        <v>102000</v>
+      </c>
+      <c r="E68" s="39">
+        <f t="shared" si="5"/>
+        <v>26571000</v>
+      </c>
+      <c r="F68" s="80"/>
+      <c r="G68" s="51"/>
+    </row>
+    <row r="69" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="58">
+        <v>20</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="36">
+        <v>4</v>
+      </c>
+      <c r="D69" s="39">
+        <v>240000</v>
+      </c>
+      <c r="E69" s="39">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="F69" s="80"/>
+      <c r="G69" s="51"/>
+    </row>
+    <row r="70" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="58">
+        <v>21</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" s="4">
+        <v>7</v>
+      </c>
+      <c r="D70" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E70" s="39">
+        <f t="shared" si="5"/>
+        <v>350000</v>
+      </c>
+      <c r="F70" s="80"/>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="58">
+        <v>22</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D71" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E71" s="39">
+        <f t="shared" si="5"/>
+        <v>360000</v>
+      </c>
+      <c r="F71" s="80"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="58">
+        <v>23</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" s="4">
+        <v>29</v>
+      </c>
+      <c r="D72" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E72" s="39">
+        <f t="shared" si="5"/>
+        <v>232000</v>
+      </c>
+      <c r="F72" s="80"/>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="58">
+        <v>24</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="5">
+        <v>3</v>
+      </c>
+      <c r="D73" s="6">
+        <v>18000</v>
+      </c>
+      <c r="E73" s="39">
+        <f t="shared" si="5"/>
+        <v>54000</v>
+      </c>
+      <c r="F73" s="80"/>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="58">
+        <v>25</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="5">
+        <v>2</v>
+      </c>
+      <c r="D74" s="6">
+        <v>75000</v>
+      </c>
+      <c r="E74" s="39">
+        <f>C74*D74</f>
+        <v>150000</v>
+      </c>
+      <c r="F74" s="80"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="58">
+        <v>26</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="5">
+        <f>$C$21</f>
+        <v>4016</v>
+      </c>
+      <c r="D75" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E75" s="39">
+        <f t="shared" si="5"/>
+        <v>40160000</v>
+      </c>
+      <c r="F75" s="80"/>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="58">
+        <v>27</v>
+      </c>
+      <c r="B76" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="5">
+        <f t="shared" ref="C76:C77" si="6">$C$21</f>
+        <v>4016</v>
+      </c>
+      <c r="D76" s="6">
+        <v>3600</v>
+      </c>
+      <c r="E76" s="39">
+        <f t="shared" si="5"/>
+        <v>14457600</v>
+      </c>
+      <c r="F76" s="80"/>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="58">
+        <v>28</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="5">
+        <f t="shared" si="6"/>
+        <v>4016</v>
+      </c>
+      <c r="D77" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E77" s="39">
+        <f t="shared" si="5"/>
+        <v>20080000</v>
+      </c>
+      <c r="F77" s="80"/>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="1:7" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="58"/>
+      <c r="B78" s="66"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="80"/>
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" spans="1:7" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="19"/>
+      <c r="B79" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="40"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41">
+        <f>SUM(E50:E78)</f>
+        <v>611755160</v>
+      </c>
+      <c r="F79" s="73"/>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="71"/>
+      <c r="B80" s="71"/>
+      <c r="C80" s="72"/>
+      <c r="D80" s="73"/>
+      <c r="E80" s="73"/>
+      <c r="F80" s="73"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="1:7" s="71" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="72"/>
+      <c r="D81" s="73"/>
+      <c r="E81" s="73"/>
+      <c r="F81" s="73"/>
+      <c r="G81" s="74"/>
+    </row>
+    <row r="82" spans="1:7" s="50" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="79"/>
+    </row>
+    <row r="83" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="20">
+        <v>1</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" s="36"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39">
+        <v>13620000</v>
+      </c>
+      <c r="F83" s="80"/>
+      <c r="G83" s="51"/>
+    </row>
+    <row r="84" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="20">
+        <v>2</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C84" s="36"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39">
+        <v>500000</v>
+      </c>
+      <c r="F84" s="80"/>
+      <c r="G84" s="51"/>
+    </row>
+    <row r="85" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="58">
+        <v>3</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C85" s="36"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="39">
+        <v>2000000</v>
+      </c>
+      <c r="F85" s="80"/>
+      <c r="G85" s="51"/>
+    </row>
+    <row r="86" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="20">
+        <v>4</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" s="36"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39">
+        <v>5000000</v>
+      </c>
+      <c r="F86" s="80"/>
+      <c r="G86" s="51"/>
+    </row>
+    <row r="87" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="58">
+        <v>5</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" s="36"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="39">
+        <v>11000000</v>
+      </c>
+      <c r="F87" s="80"/>
+      <c r="G87" s="51"/>
+    </row>
+    <row r="88" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="20">
+        <v>6</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C88" s="36"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39">
+        <v>1200000</v>
+      </c>
+      <c r="F88" s="80"/>
+      <c r="G88" s="51"/>
+    </row>
+    <row r="89" spans="1:7" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="58"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="63"/>
+      <c r="F89" s="80"/>
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" spans="1:7" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="19"/>
+      <c r="B90" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="40"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="41">
+        <f>SUM(E83:E89)</f>
+        <v>33320000</v>
+      </c>
+      <c r="F90" s="73"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="1:7" s="71" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" s="72"/>
+      <c r="D92" s="73"/>
+      <c r="E92" s="73"/>
+      <c r="F92" s="73"/>
+      <c r="G92" s="74"/>
+    </row>
+    <row r="93" spans="1:7" s="50" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="79"/>
+    </row>
+    <row r="94" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="20">
+        <v>1</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C94" s="36"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="39">
+        <v>13620000</v>
+      </c>
+      <c r="F94" s="80"/>
+      <c r="G94" s="51"/>
+    </row>
+    <row r="95" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="58">
+        <v>2</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C95" s="36"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="39">
+        <v>1200000</v>
+      </c>
+      <c r="F95" s="80"/>
+      <c r="G95" s="51"/>
+    </row>
+    <row r="96" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="20">
+        <v>3</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C96" s="36"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="39">
+        <v>500000</v>
+      </c>
+      <c r="F96" s="80"/>
+      <c r="G96" s="51"/>
+    </row>
+    <row r="97" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="58">
+        <v>4</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C97" s="36"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="39">
+        <v>2000000</v>
+      </c>
+      <c r="F97" s="80"/>
+      <c r="G97" s="51"/>
+    </row>
+    <row r="98" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="20">
+        <v>5</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C98" s="36"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="39">
+        <v>8190000</v>
+      </c>
+      <c r="F98" s="80"/>
+      <c r="G98" s="51"/>
+    </row>
+    <row r="99" spans="1:7" s="1" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="58"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="63"/>
+      <c r="F99" s="80"/>
+      <c r="G99" s="8"/>
+    </row>
+    <row r="100" spans="1:7" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="19"/>
+      <c r="B100" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="40"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="41">
+        <f>SUM(E94:E99)</f>
+        <v>25510000</v>
+      </c>
+      <c r="F100" s="73"/>
+      <c r="G100" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C37:D37"/>
+  </mergeCells>
+  <pageMargins left="0.16" right="0.25" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/CONG NO/CONG NO 2016/CHI PHI HANG CHÚ NGUYÊN.xlsx
+++ b/CONG NO/CONG NO 2016/CHI PHI HANG CHÚ NGUYÊN.xlsx
@@ -15,12 +15,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'05-2017'!$A$1:$G$94</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'05-2017 (2)'!$A$1:$G$100</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="101">
   <si>
     <t>Đường</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>Tiền công vanh, đóng túi ép PA</t>
+  </si>
+  <si>
+    <t>CÔ DƯƠNG CÒN NỢ AN LẠC:</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -754,6 +757,9 @@
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3585,8 +3591,8 @@
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3659,11 +3665,11 @@
       </c>
       <c r="E5" s="57"/>
       <c r="F5" s="57">
-        <v>9.1999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="G5" s="37">
         <f>D5*F5</f>
-        <v>2208</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3678,11 +3684,11 @@
       </c>
       <c r="E6" s="57"/>
       <c r="F6" s="57">
-        <v>9.1999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="G6" s="37">
         <f t="shared" ref="G6:G7" si="1">D6*F6</f>
-        <v>2208</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3697,11 +3703,11 @@
       </c>
       <c r="E7" s="57"/>
       <c r="F7" s="57">
-        <v>9.1999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="G7" s="37">
         <f t="shared" si="1"/>
-        <v>2208</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3731,7 +3737,7 @@
       <c r="F9" s="40"/>
       <c r="G9" s="81">
         <f>SUM(G4:G8)</f>
-        <v>6624</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3787,11 +3793,11 @@
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="38">
-        <v>9.1999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="G13" s="37">
         <f>D13*F13</f>
-        <v>6182.4</v>
+        <v>6384</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3805,11 +3811,11 @@
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="38">
-        <v>9.1999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="G14" s="37">
         <f t="shared" ref="G14:G19" si="3">D14*F14</f>
-        <v>4636.7999999999993</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3823,11 +3829,11 @@
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="38">
-        <v>9.1999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="G15" s="37">
         <f t="shared" si="3"/>
-        <v>662.4</v>
+        <v>684</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3841,11 +3847,11 @@
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="38">
-        <v>9.1999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="G16" s="37">
         <f t="shared" si="3"/>
-        <v>16118.4</v>
+        <v>16644</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3927,7 +3933,7 @@
       <c r="F21" s="40"/>
       <c r="G21" s="81">
         <f>SUM(G10:G20)</f>
-        <v>27925.5</v>
+        <v>28825.5</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3950,7 +3956,7 @@
       <c r="F23" s="62"/>
       <c r="G23" s="7">
         <f>(G21+G9)*22700</f>
-        <v>784273650</v>
+        <v>809606850</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4032,7 +4038,7 @@
       <c r="F29" s="41"/>
       <c r="G29" s="41">
         <f>SUM(G22:G28)</f>
-        <v>1471547050</v>
+        <v>1496880250</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4134,10 +4140,15 @@
     <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13"/>
       <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
+      <c r="D38" s="64" t="s">
+        <v>100</v>
+      </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
-      <c r="G38" s="15"/>
+      <c r="G38" s="84">
+        <f>G29-G36</f>
+        <v>128880250</v>
+      </c>
     </row>
     <row r="39" spans="1:7" s="71" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="71" t="s">

--- a/CONG NO/CONG NO 2016/CHI PHI HANG CHÚ NGUYÊN.xlsx
+++ b/CONG NO/CONG NO 2016/CHI PHI HANG CHÚ NGUYÊN.xlsx
@@ -4,23 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14880" windowHeight="8775" tabRatio="734" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14880" windowHeight="8775" tabRatio="734" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="MAI MÈ 2017" sheetId="11" r:id="rId1"/>
     <sheet name="05-2017" sheetId="13" r:id="rId2"/>
     <sheet name="05-2017 (2)" sheetId="14" r:id="rId3"/>
+    <sheet name="11-2017" sheetId="15" r:id="rId4"/>
+    <sheet name="12-2017" sheetId="16" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'05-2017'!$A$1:$G$94</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'05-2017 (2)'!$A$1:$G$100</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'05-2017 (2)'!$A$1:$G$101</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'11-2017'!$A$1:$I$93</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'12-2017'!$A$1:$I$85</definedName>
   </definedNames>
-  <calcPr calcId="144525" iterate="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="144">
   <si>
     <t>Đường</t>
   </si>
@@ -323,6 +327,135 @@
   </si>
   <si>
     <t>CÔ DƯƠNG CÒN NỢ AN LẠC:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/06/17 : thu TM </t>
+  </si>
+  <si>
+    <t>Mai nhật nướng</t>
+  </si>
+  <si>
+    <t>Chỉ chua ngọt</t>
+  </si>
+  <si>
+    <t>Chỉ hung khói</t>
+  </si>
+  <si>
+    <t>Mắt kiếng cay</t>
+  </si>
+  <si>
+    <t>Chai cán</t>
+  </si>
+  <si>
+    <t>SỐ THÙNG</t>
+  </si>
+  <si>
+    <t>Mai mè tẩm</t>
+  </si>
+  <si>
+    <t>Mai mè hành phi</t>
+  </si>
+  <si>
+    <t>KG/ THÙNG</t>
+  </si>
+  <si>
+    <t>Mắt kiếng</t>
+  </si>
+  <si>
+    <t>Cá mai lạt</t>
+  </si>
+  <si>
+    <t>Tôm ngọt</t>
+  </si>
+  <si>
+    <t>Hành lá khô</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hũ ly trung </t>
+  </si>
+  <si>
+    <t>Cồn</t>
+  </si>
+  <si>
+    <t>sorbitol</t>
+  </si>
+  <si>
+    <t>Thùng 50x35x22</t>
+  </si>
+  <si>
+    <t>Thùng 50x35x13</t>
+  </si>
+  <si>
+    <t>Chi phí kiểm mẫu chỉ &amp; mối</t>
+  </si>
+  <si>
+    <t>Chú nguyên ứng (1/10/17)</t>
+  </si>
+  <si>
+    <t>Giấm</t>
+  </si>
+  <si>
+    <t>Thùng 50x35x25 (5 lớp)</t>
+  </si>
+  <si>
+    <t>Thùng 50x35x25 (3 lớp)</t>
+  </si>
+  <si>
+    <t>CHI PHÍ XUẤT HÀNG - CHÚ NGUYÊN (15/11/17)</t>
+  </si>
+  <si>
+    <t>20/06/17: 9,568.5USD</t>
+  </si>
+  <si>
+    <t>14/06/17: 20,000USD</t>
+  </si>
+  <si>
+    <t>13/10/17: 50,000USD</t>
+  </si>
+  <si>
+    <t>04/10/17: 5,388.74USD</t>
+  </si>
+  <si>
+    <t>Tỷ giá : 22.700</t>
+  </si>
+  <si>
+    <t>Cá mai hành lá</t>
+  </si>
+  <si>
+    <t>Cá mai hành phi</t>
+  </si>
+  <si>
+    <t>AN LẠC CÒN NỢ CÔ DƯƠNG :</t>
+  </si>
+  <si>
+    <t>Phí chiếu xạ</t>
+  </si>
+  <si>
+    <t>Tôm nướng</t>
+  </si>
+  <si>
+    <t>06/12/17: 60,000USD</t>
+  </si>
+  <si>
+    <t>28/12/17: 20,000USD</t>
+  </si>
+  <si>
+    <t>Bao tay xốp</t>
+  </si>
+  <si>
+    <t>Khăn trắng</t>
+  </si>
+  <si>
+    <t>Thùng 50x25x13</t>
+  </si>
+  <si>
+    <t>Ớt miếng</t>
+  </si>
+  <si>
+    <t>Tôm xẻ</t>
+  </si>
+  <si>
+    <t>CHI PHÍ XUẤT HÀNG - CHÚ NGUYÊN (18/01/17)</t>
   </si>
 </sst>
 </file>
@@ -337,7 +470,7 @@
     <numFmt numFmtId="167" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="VNI-Times"/>
@@ -378,6 +511,43 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10.5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -387,7 +557,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -501,13 +671,124 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -752,14 +1033,299 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1069,8 +1635,8 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:XFD79"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1085,13 +1651,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
       <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1448,8 +2014,8 @@
     </row>
     <row r="30" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
+      <c r="C30" s="156"/>
+      <c r="D30" s="156"/>
       <c r="E30" s="14"/>
       <c r="F30" s="15"/>
     </row>
@@ -2104,7 +2670,7 @@
   </sheetPr>
   <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
@@ -2121,13 +2687,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
       <c r="F1" s="77"/>
       <c r="G1" s="24"/>
     </row>
@@ -2673,8 +3239,8 @@
     </row>
     <row r="39" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
+      <c r="C39" s="156"/>
+      <c r="D39" s="156"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="15"/>
@@ -3589,10 +4155,10 @@
   <sheetPr>
     <tabColor indexed="25"/>
   </sheetPr>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3608,13 +4174,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
       <c r="F1" s="78"/>
       <c r="G1" s="24"/>
     </row>
@@ -3968,7 +4534,7 @@
       <c r="E24" s="62"/>
       <c r="F24" s="62"/>
       <c r="G24" s="75">
-        <f>E45</f>
+        <f>E46</f>
         <v>16688240</v>
       </c>
     </row>
@@ -3981,7 +4547,7 @@
       <c r="E25" s="62"/>
       <c r="F25" s="62"/>
       <c r="G25" s="7">
-        <f>E79</f>
+        <f>E80</f>
         <v>611755160</v>
       </c>
     </row>
@@ -3994,7 +4560,7 @@
       <c r="E26" s="62"/>
       <c r="F26" s="62"/>
       <c r="G26" s="75">
-        <f>E90</f>
+        <f>E91</f>
         <v>33320000</v>
       </c>
     </row>
@@ -4007,7 +4573,7 @@
       <c r="E27" s="62"/>
       <c r="F27" s="62"/>
       <c r="G27" s="75">
-        <f>E100</f>
+        <f>E101</f>
         <v>25510000</v>
       </c>
     </row>
@@ -4100,1084 +4666,4962 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="23"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="49"/>
-    </row>
-    <row r="36" spans="1:7" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="19" t="s">
+      <c r="B35" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="60"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="75">
+        <v>128800000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="23"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="49"/>
+    </row>
+    <row r="37" spans="1:7" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="41">
-        <f>SUM(C30:C35)</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="41">
-        <f>SUM(D30:D35)</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="41">
-        <f>SUM(E30:E35)</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41">
-        <f>SUM(G30:G35)</f>
-        <v>1368000000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="13"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="15"/>
-    </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="41">
+        <f>SUM(C30:C36)</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="41">
+        <f>SUM(D30:D36)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="41">
+        <f>SUM(E30:E36)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41">
+        <f>SUM(G30:G36)</f>
+        <v>1496800000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64" t="s">
-        <v>100</v>
-      </c>
+      <c r="C38" s="156"/>
+      <c r="D38" s="156"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
-      <c r="G38" s="84">
-        <f>G29-G36</f>
-        <v>128880250</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="71" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="71" t="s">
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="13"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="82">
+        <f>G29-G37</f>
+        <v>80250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="71" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="74"/>
-    </row>
-    <row r="40" spans="1:7" s="50" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="65" t="s">
+      <c r="C40" s="72"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="74"/>
+    </row>
+    <row r="41" spans="1:7" s="50" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="65" t="s">
+      <c r="B41" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C41" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D41" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E41" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="79"/>
-    </row>
-    <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="58">
+      <c r="F41" s="79"/>
+    </row>
+    <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="58">
         <v>1</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B42" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63">
+      <c r="C42" s="60"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63">
         <v>11745000</v>
-      </c>
-      <c r="F41" s="80"/>
-      <c r="G41" s="51"/>
-    </row>
-    <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="20">
-        <v>2</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="36">
-        <v>102</v>
-      </c>
-      <c r="D42" s="39">
-        <v>18500</v>
-      </c>
-      <c r="E42" s="39">
-        <f>C42*D42</f>
-        <v>1887000</v>
       </c>
       <c r="F42" s="80"/>
       <c r="G42" s="51"/>
     </row>
     <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="58">
-        <v>3</v>
+      <c r="A43" s="20">
+        <v>2</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="36">
-        <v>302</v>
+        <v>102</v>
       </c>
       <c r="D43" s="39">
-        <v>10120</v>
+        <v>18500</v>
       </c>
       <c r="E43" s="39">
         <f>C43*D43</f>
-        <v>3056240</v>
+        <v>1887000</v>
       </c>
       <c r="F43" s="80"/>
       <c r="G43" s="51"/>
     </row>
-    <row r="44" spans="1:7" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="63"/>
+    <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="58">
+        <v>3</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="36">
+        <v>302</v>
+      </c>
+      <c r="D44" s="39">
+        <v>10120</v>
+      </c>
+      <c r="E44" s="39">
+        <f>C44*D44</f>
+        <v>3056240</v>
+      </c>
       <c r="F44" s="80"/>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="1:7" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19" t="s">
+      <c r="G44" s="51"/>
+    </row>
+    <row r="45" spans="1:7" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="58"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41">
-        <f>SUM(E41:E44)</f>
+      <c r="C46" s="40"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41">
+        <f>SUM(E42:E45)</f>
         <v>16688240</v>
       </c>
-      <c r="F45" s="73"/>
-      <c r="G45" s="9"/>
-    </row>
-    <row r="46" spans="1:7" s="10" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="71"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
       <c r="F46" s="73"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="13"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="15"/>
-    </row>
-    <row r="48" spans="1:7" s="71" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="13" t="s">
+    <row r="47" spans="1:7" s="10" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="71"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="13"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="15"/>
+    </row>
+    <row r="49" spans="1:7" s="71" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="72"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="74"/>
-    </row>
-    <row r="49" spans="1:7" s="50" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="65" t="s">
+      <c r="C49" s="72"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="74"/>
+    </row>
+    <row r="50" spans="1:7" s="50" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="65" t="s">
+      <c r="B50" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C50" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D50" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="28" t="s">
+      <c r="E50" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F49" s="79"/>
-    </row>
-    <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="58">
+      <c r="F50" s="79"/>
+    </row>
+    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="58">
         <v>1</v>
       </c>
-      <c r="B50" s="54" t="s">
+      <c r="B51" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="55">
+      <c r="C51" s="55">
         <f>1104+122</f>
         <v>1226</v>
       </c>
-      <c r="D50" s="53">
+      <c r="D51" s="53">
         <v>200000</v>
       </c>
-      <c r="E50" s="53">
-        <f>C50*D50</f>
+      <c r="E51" s="53">
+        <f>C51*D51</f>
         <v>245200000</v>
-      </c>
-      <c r="F50" s="80"/>
-    </row>
-    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="58">
-        <v>2</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="36">
-        <v>667</v>
-      </c>
-      <c r="D51" s="39">
-        <v>95000</v>
-      </c>
-      <c r="E51" s="39">
-        <f>C51*D51</f>
-        <v>63365000</v>
       </c>
       <c r="F51" s="80"/>
     </row>
     <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C52" s="36">
-        <v>1100</v>
+        <v>667</v>
       </c>
       <c r="D52" s="39">
-        <v>34000</v>
+        <v>95000</v>
       </c>
       <c r="E52" s="39">
         <f>C52*D52</f>
-        <v>37400000</v>
+        <v>63365000</v>
       </c>
       <c r="F52" s="80"/>
-      <c r="G52" s="51"/>
     </row>
     <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C53" s="36">
-        <v>102</v>
+        <v>1100</v>
       </c>
       <c r="D53" s="39">
-        <v>18500</v>
+        <v>34000</v>
       </c>
       <c r="E53" s="39">
         <f>C53*D53</f>
-        <v>1887000</v>
+        <v>37400000</v>
       </c>
       <c r="F53" s="80"/>
       <c r="G53" s="51"/>
     </row>
     <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C54" s="36">
-        <v>638</v>
+        <v>102</v>
       </c>
       <c r="D54" s="39">
-        <v>10120</v>
+        <v>18500</v>
       </c>
       <c r="E54" s="39">
         <f>C54*D54</f>
-        <v>6456560</v>
+        <v>1887000</v>
       </c>
       <c r="F54" s="80"/>
       <c r="G54" s="51"/>
     </row>
-    <row r="55" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="58">
+        <v>5</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="36">
+        <v>638</v>
+      </c>
+      <c r="D55" s="39">
+        <v>10120</v>
+      </c>
+      <c r="E55" s="39">
+        <f>C55*D55</f>
+        <v>6456560</v>
+      </c>
+      <c r="F55" s="80"/>
+      <c r="G55" s="51"/>
+    </row>
+    <row r="56" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="58">
         <v>6</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C56" s="5">
         <v>264</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D56" s="6">
         <v>3000</v>
       </c>
-      <c r="E55" s="39">
-        <f t="shared" ref="E55:E61" si="4">C55*D55</f>
+      <c r="E56" s="39">
+        <f t="shared" ref="E56:E62" si="4">C56*D56</f>
         <v>792000</v>
       </c>
-      <c r="F55" s="80"/>
-      <c r="G55" s="8"/>
-    </row>
-    <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="58">
+      <c r="F56" s="80"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="58">
         <v>7</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B57" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="36">
+      <c r="C57" s="36">
         <f>65+25</f>
         <v>90</v>
       </c>
-      <c r="D56" s="39">
+      <c r="D57" s="39">
         <v>9500</v>
       </c>
-      <c r="E56" s="39">
+      <c r="E57" s="39">
         <f t="shared" si="4"/>
         <v>855000</v>
       </c>
-      <c r="F56" s="80"/>
-      <c r="G56" s="51"/>
-    </row>
-    <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="58">
+      <c r="F57" s="80"/>
+      <c r="G57" s="51"/>
+    </row>
+    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="58">
         <v>8</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B58" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="36">
+      <c r="C58" s="36">
         <v>4</v>
       </c>
-      <c r="D57" s="39">
+      <c r="D58" s="39">
         <v>55000</v>
       </c>
-      <c r="E57" s="39">
+      <c r="E58" s="39">
         <f t="shared" si="4"/>
         <v>220000</v>
       </c>
-      <c r="F57" s="80"/>
-      <c r="G57" s="51"/>
-    </row>
-    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="58">
+      <c r="F58" s="80"/>
+      <c r="G58" s="51"/>
+    </row>
+    <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="58">
         <v>9</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B59" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C58" s="36">
+      <c r="C59" s="36">
         <v>12</v>
       </c>
-      <c r="D58" s="39">
+      <c r="D59" s="39">
         <v>25000</v>
       </c>
-      <c r="E58" s="39">
+      <c r="E59" s="39">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
-      <c r="F58" s="80"/>
-      <c r="G58" s="51"/>
-    </row>
-    <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="58">
+      <c r="F59" s="80"/>
+      <c r="G59" s="51"/>
+    </row>
+    <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="58">
         <v>10</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B60" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="36">
+      <c r="C60" s="36">
         <v>1</v>
       </c>
-      <c r="D59" s="39">
+      <c r="D60" s="39">
         <v>58000</v>
       </c>
-      <c r="E59" s="39">
+      <c r="E60" s="39">
         <f t="shared" si="4"/>
         <v>58000</v>
       </c>
-      <c r="F59" s="80"/>
-      <c r="G59" s="51"/>
-    </row>
-    <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="58">
+      <c r="F60" s="80"/>
+      <c r="G60" s="51"/>
+    </row>
+    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="58">
         <v>11</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B61" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="36">
+      <c r="C61" s="36">
         <v>1</v>
       </c>
-      <c r="D60" s="39">
+      <c r="D61" s="39">
         <v>360000</v>
       </c>
-      <c r="E60" s="39">
+      <c r="E61" s="39">
         <f t="shared" si="4"/>
         <v>360000</v>
       </c>
-      <c r="F60" s="80"/>
-      <c r="G60" s="51"/>
-    </row>
-    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="58">
+      <c r="F61" s="80"/>
+      <c r="G61" s="51"/>
+    </row>
+    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="58">
         <v>12</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B62" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="36">
+      <c r="C62" s="36">
         <v>126</v>
       </c>
-      <c r="D61" s="39">
+      <c r="D62" s="39">
         <v>75000</v>
       </c>
-      <c r="E61" s="39">
+      <c r="E62" s="39">
         <f t="shared" si="4"/>
         <v>9450000</v>
       </c>
-      <c r="F61" s="80"/>
-      <c r="G61" s="51"/>
-    </row>
-    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="58">
+      <c r="F62" s="80"/>
+      <c r="G62" s="51"/>
+    </row>
+    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="58">
         <v>13</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B63" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C62" s="36">
+      <c r="C63" s="36">
         <f>137+5.7</f>
         <v>142.69999999999999</v>
       </c>
-      <c r="D62" s="39">
+      <c r="D63" s="39">
         <v>45000</v>
       </c>
-      <c r="E62" s="39">
-        <f>C62*D62</f>
+      <c r="E63" s="39">
+        <f>C63*D63</f>
         <v>6421499.9999999991</v>
       </c>
-      <c r="F62" s="80"/>
-      <c r="G62" s="51"/>
-    </row>
-    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="58">
+      <c r="F63" s="80"/>
+      <c r="G63" s="51"/>
+    </row>
+    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="58">
         <v>14</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B64" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="36">
+      <c r="C64" s="36">
         <f>45*15</f>
         <v>675</v>
       </c>
-      <c r="D63" s="39">
+      <c r="D64" s="39">
         <v>25000</v>
       </c>
-      <c r="E63" s="39">
-        <f>C63*D63</f>
+      <c r="E64" s="39">
+        <f>C64*D64</f>
         <v>16875000</v>
       </c>
-      <c r="F63" s="80"/>
-      <c r="G63" s="51"/>
-    </row>
-    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="58">
+      <c r="F64" s="80"/>
+      <c r="G64" s="51"/>
+    </row>
+    <row r="65" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="58">
         <v>15</v>
       </c>
-      <c r="B64" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" s="36">
+      <c r="B65" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="36">
         <f>710+54.5</f>
         <v>764.5</v>
       </c>
-      <c r="D64" s="39">
+      <c r="D65" s="39">
         <v>18000</v>
       </c>
-      <c r="E64" s="39">
-        <f t="shared" ref="E64:E77" si="5">C64*D64</f>
+      <c r="E65" s="39">
+        <f t="shared" ref="E65:E78" si="5">C65*D65</f>
         <v>13761000</v>
       </c>
-      <c r="F64" s="80"/>
-      <c r="G64" s="51"/>
-    </row>
-    <row r="65" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="58">
+      <c r="F65" s="80"/>
+      <c r="G65" s="51"/>
+    </row>
+    <row r="66" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="58">
         <v>16</v>
       </c>
-      <c r="B65" s="21" t="s">
+      <c r="B66" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="36">
+      <c r="C66" s="36">
         <f>88+6.5</f>
         <v>94.5</v>
       </c>
-      <c r="D65" s="39">
+      <c r="D66" s="39">
         <v>42000</v>
       </c>
-      <c r="E65" s="39">
+      <c r="E66" s="39">
         <f t="shared" si="5"/>
         <v>3969000</v>
       </c>
-      <c r="F65" s="80"/>
-      <c r="G65" s="51"/>
-    </row>
-    <row r="66" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="58">
+      <c r="F66" s="80"/>
+      <c r="G66" s="51"/>
+    </row>
+    <row r="67" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="58">
         <v>17</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B67" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="36">
+      <c r="C67" s="36">
         <f>63+4</f>
         <v>67</v>
       </c>
-      <c r="D66" s="39">
+      <c r="D67" s="39">
         <v>3500</v>
       </c>
-      <c r="E66" s="39">
+      <c r="E67" s="39">
         <f t="shared" si="5"/>
         <v>234500</v>
       </c>
-      <c r="F66" s="80"/>
-      <c r="G66" s="51"/>
-    </row>
-    <row r="67" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="58">
+      <c r="F67" s="80"/>
+      <c r="G67" s="51"/>
+    </row>
+    <row r="68" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="58">
         <v>18</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B68" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="36">
+      <c r="C68" s="36">
         <f>1190+102</f>
         <v>1292</v>
       </c>
-      <c r="D67" s="39">
+      <c r="D68" s="39">
         <v>78000</v>
       </c>
-      <c r="E67" s="39">
+      <c r="E68" s="39">
         <f t="shared" si="5"/>
         <v>100776000</v>
       </c>
-      <c r="F67" s="80"/>
-      <c r="G67" s="51"/>
-    </row>
-    <row r="68" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="58">
+      <c r="F68" s="80"/>
+      <c r="G68" s="51"/>
+    </row>
+    <row r="69" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="58">
         <v>19</v>
       </c>
-      <c r="B68" s="59" t="s">
+      <c r="B69" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C68" s="36">
+      <c r="C69" s="36">
         <f>239+21.5</f>
         <v>260.5</v>
       </c>
-      <c r="D68" s="39">
+      <c r="D69" s="39">
         <v>102000</v>
       </c>
-      <c r="E68" s="39">
+      <c r="E69" s="39">
         <f t="shared" si="5"/>
         <v>26571000</v>
       </c>
-      <c r="F68" s="80"/>
-      <c r="G68" s="51"/>
-    </row>
-    <row r="69" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="58">
+      <c r="F69" s="80"/>
+      <c r="G69" s="51"/>
+    </row>
+    <row r="70" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="58">
         <v>20</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="36">
+      <c r="C70" s="36">
         <v>4</v>
       </c>
-      <c r="D69" s="39">
+      <c r="D70" s="39">
         <v>240000</v>
       </c>
-      <c r="E69" s="39">
+      <c r="E70" s="39">
         <f t="shared" si="5"/>
         <v>960000</v>
       </c>
-      <c r="F69" s="80"/>
-      <c r="G69" s="51"/>
-    </row>
-    <row r="70" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="58">
+      <c r="F70" s="80"/>
+      <c r="G70" s="51"/>
+    </row>
+    <row r="71" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="58">
         <v>21</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B71" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C71" s="4">
         <v>7</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D71" s="3">
         <v>50000</v>
       </c>
-      <c r="E70" s="39">
+      <c r="E71" s="39">
         <f t="shared" si="5"/>
         <v>350000</v>
       </c>
-      <c r="F70" s="80"/>
-      <c r="G70" s="8"/>
-    </row>
-    <row r="71" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="58">
+      <c r="F71" s="80"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="58">
         <v>22</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B72" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C72" s="4">
         <v>1.5</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D72" s="3">
         <v>240000</v>
       </c>
-      <c r="E71" s="39">
+      <c r="E72" s="39">
         <f t="shared" si="5"/>
         <v>360000</v>
       </c>
-      <c r="F71" s="80"/>
-      <c r="G71" s="8"/>
-    </row>
-    <row r="72" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="58">
+      <c r="F72" s="80"/>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="58">
         <v>23</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B73" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C73" s="4">
         <v>29</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D73" s="3">
         <v>8000</v>
       </c>
-      <c r="E72" s="39">
+      <c r="E73" s="39">
         <f t="shared" si="5"/>
         <v>232000</v>
       </c>
-      <c r="F72" s="80"/>
-      <c r="G72" s="8"/>
-    </row>
-    <row r="73" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="58">
+      <c r="F73" s="80"/>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="58">
         <v>24</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B74" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C74" s="5">
         <v>3</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D74" s="6">
         <v>18000</v>
       </c>
-      <c r="E73" s="39">
+      <c r="E74" s="39">
         <f t="shared" si="5"/>
         <v>54000</v>
       </c>
-      <c r="F73" s="80"/>
-      <c r="G73" s="8"/>
-    </row>
-    <row r="74" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="58">
-        <v>25</v>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74" s="5">
-        <v>2</v>
-      </c>
-      <c r="D74" s="6">
-        <v>75000</v>
-      </c>
-      <c r="E74" s="39">
-        <f>C74*D74</f>
-        <v>150000</v>
-      </c>
       <c r="F74" s="80"/>
       <c r="G74" s="8"/>
     </row>
     <row r="75" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="58">
+        <v>25</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="5">
+        <v>2</v>
+      </c>
+      <c r="D75" s="6">
+        <v>75000</v>
+      </c>
+      <c r="E75" s="39">
+        <f>C75*D75</f>
+        <v>150000</v>
+      </c>
+      <c r="F75" s="80"/>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="58">
         <v>26</v>
       </c>
-      <c r="B75" s="21" t="s">
+      <c r="B76" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C76" s="5">
         <f>$C$21</f>
         <v>4016</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D76" s="6">
         <v>10000</v>
       </c>
-      <c r="E75" s="39">
+      <c r="E76" s="39">
         <f t="shared" si="5"/>
         <v>40160000</v>
       </c>
-      <c r="F75" s="80"/>
-      <c r="G75" s="8"/>
-    </row>
-    <row r="76" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="58">
+      <c r="F76" s="80"/>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="58">
         <v>27</v>
       </c>
-      <c r="B76" s="59" t="s">
+      <c r="B77" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="5">
-        <f t="shared" ref="C76:C77" si="6">$C$21</f>
+      <c r="C77" s="5">
+        <f t="shared" ref="C77:C78" si="6">$C$21</f>
         <v>4016</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D77" s="6">
         <v>3600</v>
       </c>
-      <c r="E76" s="39">
+      <c r="E77" s="39">
         <f t="shared" si="5"/>
         <v>14457600</v>
       </c>
-      <c r="F76" s="80"/>
-      <c r="G76" s="8"/>
-    </row>
-    <row r="77" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="58">
+      <c r="F77" s="80"/>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="58">
         <v>28</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C78" s="5">
         <f t="shared" si="6"/>
         <v>4016</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D78" s="6">
         <v>5000</v>
       </c>
-      <c r="E77" s="39">
+      <c r="E78" s="39">
         <f t="shared" si="5"/>
         <v>20080000</v>
       </c>
-      <c r="F77" s="80"/>
-      <c r="G77" s="8"/>
-    </row>
-    <row r="78" spans="1:7" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="58"/>
-      <c r="B78" s="66"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="63"/>
       <c r="F78" s="80"/>
       <c r="G78" s="8"/>
     </row>
-    <row r="79" spans="1:7" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="19"/>
-      <c r="B79" s="19" t="s">
+    <row r="79" spans="1:7" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="58"/>
+      <c r="B79" s="66"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="80"/>
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" spans="1:7" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="19"/>
+      <c r="B80" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="40"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="41">
-        <f>SUM(E50:E78)</f>
+      <c r="C80" s="40"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41">
+        <f>SUM(E51:E79)</f>
         <v>611755160</v>
       </c>
-      <c r="F79" s="73"/>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" spans="1:7" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="71"/>
-      <c r="B80" s="71"/>
-      <c r="C80" s="72"/>
-      <c r="D80" s="73"/>
-      <c r="E80" s="73"/>
       <c r="F80" s="73"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="1:7" s="71" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="71" t="s">
-        <v>96</v>
-      </c>
+    <row r="81" spans="1:7" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="71"/>
+      <c r="B81" s="71"/>
       <c r="C81" s="72"/>
       <c r="D81" s="73"/>
       <c r="E81" s="73"/>
       <c r="F81" s="73"/>
-      <c r="G81" s="74"/>
-    </row>
-    <row r="82" spans="1:7" s="50" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="65" t="s">
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="1:7" s="71" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" s="72"/>
+      <c r="D82" s="73"/>
+      <c r="E82" s="73"/>
+      <c r="F82" s="73"/>
+      <c r="G82" s="74"/>
+    </row>
+    <row r="83" spans="1:7" s="50" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B82" s="65" t="s">
+      <c r="B83" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="27" t="s">
+      <c r="C83" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D82" s="28" t="s">
+      <c r="D83" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E82" s="28" t="s">
+      <c r="E83" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F82" s="79"/>
-    </row>
-    <row r="83" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="20">
-        <v>1</v>
-      </c>
-      <c r="B83" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C83" s="36"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39">
-        <v>13620000</v>
-      </c>
-      <c r="F83" s="80"/>
-      <c r="G83" s="51"/>
+      <c r="F83" s="79"/>
     </row>
     <row r="84" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C84" s="36"/>
       <c r="D84" s="39"/>
       <c r="E84" s="39">
-        <v>500000</v>
+        <v>13620000</v>
       </c>
       <c r="F84" s="80"/>
       <c r="G84" s="51"/>
     </row>
     <row r="85" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="58">
-        <v>3</v>
+      <c r="A85" s="20">
+        <v>2</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C85" s="36"/>
       <c r="D85" s="39"/>
       <c r="E85" s="39">
-        <v>2000000</v>
+        <v>500000</v>
       </c>
       <c r="F85" s="80"/>
       <c r="G85" s="51"/>
     </row>
     <row r="86" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="20">
-        <v>4</v>
+      <c r="A86" s="58">
+        <v>3</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C86" s="36"/>
       <c r="D86" s="39"/>
       <c r="E86" s="39">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="F86" s="80"/>
       <c r="G86" s="51"/>
     </row>
     <row r="87" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="58">
-        <v>5</v>
+      <c r="A87" s="20">
+        <v>4</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C87" s="36"/>
       <c r="D87" s="39"/>
       <c r="E87" s="39">
-        <v>11000000</v>
+        <v>5000000</v>
       </c>
       <c r="F87" s="80"/>
       <c r="G87" s="51"/>
     </row>
     <row r="88" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="20">
-        <v>6</v>
+      <c r="A88" s="58">
+        <v>5</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C88" s="36"/>
       <c r="D88" s="39"/>
       <c r="E88" s="39">
-        <v>1200000</v>
+        <v>11000000</v>
       </c>
       <c r="F88" s="80"/>
       <c r="G88" s="51"/>
     </row>
-    <row r="89" spans="1:7" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="58"/>
-      <c r="B89" s="66"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="63"/>
+    <row r="89" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="20">
+        <v>6</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89" s="36"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="39">
+        <v>1200000</v>
+      </c>
       <c r="F89" s="80"/>
-      <c r="G89" s="8"/>
-    </row>
-    <row r="90" spans="1:7" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19" t="s">
+      <c r="G89" s="51"/>
+    </row>
+    <row r="90" spans="1:7" s="1" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="58"/>
+      <c r="B90" s="66"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="63"/>
+      <c r="F90" s="80"/>
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" spans="1:7" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="19"/>
+      <c r="B91" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C90" s="40"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="41">
-        <f>SUM(E83:E89)</f>
+      <c r="C91" s="40"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="41">
+        <f>SUM(E84:E90)</f>
         <v>33320000</v>
       </c>
-      <c r="F90" s="73"/>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" spans="1:7" s="71" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="71" t="s">
+      <c r="F91" s="73"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="1:7" s="71" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="C92" s="72"/>
-      <c r="D92" s="73"/>
-      <c r="E92" s="73"/>
-      <c r="F92" s="73"/>
-      <c r="G92" s="74"/>
-    </row>
-    <row r="93" spans="1:7" s="50" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="65" t="s">
+      <c r="C93" s="72"/>
+      <c r="D93" s="73"/>
+      <c r="E93" s="73"/>
+      <c r="F93" s="73"/>
+      <c r="G93" s="74"/>
+    </row>
+    <row r="94" spans="1:7" s="50" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="65" t="s">
+      <c r="B94" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C93" s="27" t="s">
+      <c r="C94" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D93" s="28" t="s">
+      <c r="D94" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="28" t="s">
+      <c r="E94" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F93" s="79"/>
-    </row>
-    <row r="94" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="20">
+      <c r="F94" s="79"/>
+    </row>
+    <row r="95" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="20">
         <v>1</v>
       </c>
-      <c r="B94" s="21" t="s">
+      <c r="B95" s="21" t="s">
         <v>57</v>
-      </c>
-      <c r="C94" s="36"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="39">
-        <v>13620000</v>
-      </c>
-      <c r="F94" s="80"/>
-      <c r="G94" s="51"/>
-    </row>
-    <row r="95" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="58">
-        <v>2</v>
-      </c>
-      <c r="B95" s="21" t="s">
-        <v>56</v>
       </c>
       <c r="C95" s="36"/>
       <c r="D95" s="39"/>
       <c r="E95" s="39">
-        <v>1200000</v>
+        <v>13620000</v>
       </c>
       <c r="F95" s="80"/>
       <c r="G95" s="51"/>
     </row>
     <row r="96" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="20">
-        <v>3</v>
+      <c r="A96" s="58">
+        <v>2</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C96" s="36"/>
       <c r="D96" s="39"/>
       <c r="E96" s="39">
-        <v>500000</v>
+        <v>1200000</v>
       </c>
       <c r="F96" s="80"/>
       <c r="G96" s="51"/>
     </row>
     <row r="97" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="58">
-        <v>4</v>
+      <c r="A97" s="20">
+        <v>3</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C97" s="36"/>
       <c r="D97" s="39"/>
       <c r="E97" s="39">
-        <v>2000000</v>
+        <v>500000</v>
       </c>
       <c r="F97" s="80"/>
       <c r="G97" s="51"/>
     </row>
     <row r="98" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="20">
-        <v>5</v>
+      <c r="A98" s="58">
+        <v>4</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C98" s="36"/>
       <c r="D98" s="39"/>
       <c r="E98" s="39">
-        <v>8190000</v>
+        <v>2000000</v>
       </c>
       <c r="F98" s="80"/>
       <c r="G98" s="51"/>
     </row>
-    <row r="99" spans="1:7" s="1" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="58"/>
-      <c r="B99" s="66"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="63"/>
+    <row r="99" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="20">
+        <v>5</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C99" s="36"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="39">
+        <v>8190000</v>
+      </c>
       <c r="F99" s="80"/>
-      <c r="G99" s="8"/>
-    </row>
-    <row r="100" spans="1:7" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="19"/>
-      <c r="B100" s="19" t="s">
+      <c r="G99" s="51"/>
+    </row>
+    <row r="100" spans="1:7" s="1" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="58"/>
+      <c r="B100" s="66"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="63"/>
+      <c r="F100" s="80"/>
+      <c r="G100" s="8"/>
+    </row>
+    <row r="101" spans="1:7" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="19"/>
+      <c r="B101" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C100" s="40"/>
-      <c r="D100" s="41"/>
-      <c r="E100" s="41">
-        <f>SUM(E94:E99)</f>
+      <c r="C101" s="40"/>
+      <c r="D101" s="41"/>
+      <c r="E101" s="41">
+        <f>SUM(E95:E100)</f>
         <v>25510000</v>
       </c>
-      <c r="F100" s="73"/>
-      <c r="G100" s="9"/>
+      <c r="F101" s="73"/>
+      <c r="G101" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.25" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor indexed="25"/>
+  </sheetPr>
+  <dimension ref="A1:I93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="83" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="83" customWidth="1"/>
+    <col min="3" max="3" width="10" style="85" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="85" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="85" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="86" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="86" customWidth="1"/>
+    <col min="8" max="8" width="7.625" style="86" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="83" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="83"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="157" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="84"/>
+    </row>
+    <row r="3" spans="1:9" s="87" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="158" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="177" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="168" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="179"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="170" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="170" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="87" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="159"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="144"/>
+      <c r="B5" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="94"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="143">
+        <v>1</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="96">
+        <f>F6</f>
+        <v>80</v>
+      </c>
+      <c r="D6" s="96">
+        <v>10</v>
+      </c>
+      <c r="E6" s="96">
+        <v>8</v>
+      </c>
+      <c r="F6" s="97">
+        <f>D6*E6</f>
+        <v>80</v>
+      </c>
+      <c r="G6" s="98">
+        <f>C6-F6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="98"/>
+      <c r="I6" s="99">
+        <f>F6*H6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="143">
+        <v>2</v>
+      </c>
+      <c r="B7" s="95" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="96">
+        <f t="shared" ref="C7:C8" si="0">F7</f>
+        <v>80</v>
+      </c>
+      <c r="D7" s="96">
+        <v>10</v>
+      </c>
+      <c r="E7" s="96">
+        <v>8</v>
+      </c>
+      <c r="F7" s="97">
+        <f t="shared" ref="F7:F11" si="1">D7*E7</f>
+        <v>80</v>
+      </c>
+      <c r="G7" s="98">
+        <f t="shared" ref="G7" si="2">C7-F7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="98"/>
+      <c r="I7" s="99">
+        <f t="shared" ref="I7" si="3">F7*H7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="143">
+        <v>3</v>
+      </c>
+      <c r="B8" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="96">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="D8" s="96">
+        <v>10</v>
+      </c>
+      <c r="E8" s="96">
+        <v>12</v>
+      </c>
+      <c r="F8" s="97">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="99">
+        <f>F8*H8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="143">
+        <v>4</v>
+      </c>
+      <c r="B9" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96">
+        <v>10</v>
+      </c>
+      <c r="E9" s="96">
+        <v>12</v>
+      </c>
+      <c r="F9" s="97">
+        <f>D9*E9</f>
+        <v>120</v>
+      </c>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98">
+        <v>9.5</v>
+      </c>
+      <c r="I9" s="99">
+        <f>F9*H9</f>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="143">
+        <v>5</v>
+      </c>
+      <c r="B10" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96">
+        <v>10</v>
+      </c>
+      <c r="E10" s="96">
+        <v>12</v>
+      </c>
+      <c r="F10" s="97">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98">
+        <v>9.5</v>
+      </c>
+      <c r="I10" s="99">
+        <f t="shared" ref="I10:I11" si="4">F10*H10</f>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="143">
+        <v>6</v>
+      </c>
+      <c r="B11" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96">
+        <v>10</v>
+      </c>
+      <c r="E11" s="96">
+        <v>12</v>
+      </c>
+      <c r="F11" s="97">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98">
+        <v>9.5</v>
+      </c>
+      <c r="I11" s="99">
+        <f t="shared" si="4"/>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="143"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="102"/>
+    </row>
+    <row r="13" spans="1:9" s="84" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="145"/>
+      <c r="B13" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="104">
+        <f>SUM(C5:C12)</f>
+        <v>280</v>
+      </c>
+      <c r="D13" s="104">
+        <f>SUM(D5:D12)</f>
+        <v>60</v>
+      </c>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104">
+        <f>SUM(F5:F12)</f>
+        <v>640</v>
+      </c>
+      <c r="G13" s="104">
+        <f>SUM(G5:G12)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="104"/>
+      <c r="I13" s="105">
+        <f>SUM(I5:I12)</f>
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="84" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="144"/>
+      <c r="B14" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="107"/>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="143">
+        <v>1</v>
+      </c>
+      <c r="B15" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="100">
+        <f>F15</f>
+        <v>480</v>
+      </c>
+      <c r="D15" s="100">
+        <v>60</v>
+      </c>
+      <c r="E15" s="100">
+        <v>8</v>
+      </c>
+      <c r="F15" s="97">
+        <f t="shared" ref="F15:F24" si="5">D15*E15</f>
+        <v>480</v>
+      </c>
+      <c r="G15" s="98">
+        <f t="shared" ref="G15:G17" si="6">C15-F15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="101"/>
+      <c r="I15" s="109"/>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="143">
+        <v>2</v>
+      </c>
+      <c r="B16" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="100">
+        <f t="shared" ref="C16:C19" si="7">F16</f>
+        <v>640</v>
+      </c>
+      <c r="D16" s="100">
+        <v>80</v>
+      </c>
+      <c r="E16" s="100">
+        <v>8</v>
+      </c>
+      <c r="F16" s="97">
+        <f t="shared" si="5"/>
+        <v>640</v>
+      </c>
+      <c r="G16" s="98">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="101"/>
+      <c r="I16" s="109"/>
+    </row>
+    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="143">
+        <v>3</v>
+      </c>
+      <c r="B17" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="100">
+        <f t="shared" si="7"/>
+        <v>1400</v>
+      </c>
+      <c r="D17" s="100">
+        <v>200</v>
+      </c>
+      <c r="E17" s="100">
+        <v>7</v>
+      </c>
+      <c r="F17" s="97">
+        <f t="shared" si="5"/>
+        <v>1400</v>
+      </c>
+      <c r="G17" s="98">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="101"/>
+      <c r="I17" s="99">
+        <f>F17*H17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="143">
+        <v>4</v>
+      </c>
+      <c r="B18" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="100">
+        <f t="shared" si="7"/>
+        <v>1800</v>
+      </c>
+      <c r="D18" s="100">
+        <v>150</v>
+      </c>
+      <c r="E18" s="100">
+        <v>12</v>
+      </c>
+      <c r="F18" s="97">
+        <f t="shared" si="5"/>
+        <v>1800</v>
+      </c>
+      <c r="G18" s="98"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="99">
+        <f t="shared" ref="I18:I24" si="8">F18*H18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="143">
+        <v>5</v>
+      </c>
+      <c r="B19" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="100">
+        <f t="shared" si="7"/>
+        <v>240</v>
+      </c>
+      <c r="D19" s="100">
+        <v>20</v>
+      </c>
+      <c r="E19" s="100">
+        <v>12</v>
+      </c>
+      <c r="F19" s="97">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+      <c r="G19" s="98"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="99">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="143">
+        <v>6</v>
+      </c>
+      <c r="B20" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100">
+        <v>145</v>
+      </c>
+      <c r="E20" s="100">
+        <v>12</v>
+      </c>
+      <c r="F20" s="97">
+        <f>D20*E20</f>
+        <v>1740</v>
+      </c>
+      <c r="G20" s="98"/>
+      <c r="H20" s="101">
+        <v>9.5</v>
+      </c>
+      <c r="I20" s="99">
+        <f>F20*H20</f>
+        <v>16530</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="143">
+        <v>7</v>
+      </c>
+      <c r="B21" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100">
+        <v>23</v>
+      </c>
+      <c r="E21" s="100">
+        <v>12</v>
+      </c>
+      <c r="F21" s="97">
+        <f t="shared" si="5"/>
+        <v>276</v>
+      </c>
+      <c r="G21" s="98"/>
+      <c r="H21" s="101">
+        <v>9.5</v>
+      </c>
+      <c r="I21" s="99">
+        <f t="shared" si="8"/>
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="143">
+        <v>8</v>
+      </c>
+      <c r="B22" s="95" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100">
+        <v>16</v>
+      </c>
+      <c r="E22" s="100">
+        <v>12</v>
+      </c>
+      <c r="F22" s="97">
+        <f t="shared" si="5"/>
+        <v>192</v>
+      </c>
+      <c r="G22" s="98"/>
+      <c r="H22" s="101">
+        <v>9.5</v>
+      </c>
+      <c r="I22" s="99">
+        <f t="shared" si="8"/>
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="143">
+        <v>9</v>
+      </c>
+      <c r="B23" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100">
+        <v>10</v>
+      </c>
+      <c r="E23" s="100">
+        <v>12</v>
+      </c>
+      <c r="F23" s="97">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="G23" s="98"/>
+      <c r="H23" s="101">
+        <v>9.5</v>
+      </c>
+      <c r="I23" s="99">
+        <f t="shared" si="8"/>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="143">
+        <v>10</v>
+      </c>
+      <c r="B24" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100">
+        <v>101</v>
+      </c>
+      <c r="E24" s="100">
+        <v>12</v>
+      </c>
+      <c r="F24" s="97">
+        <f t="shared" si="5"/>
+        <v>1212</v>
+      </c>
+      <c r="G24" s="98"/>
+      <c r="H24" s="101">
+        <v>9.5</v>
+      </c>
+      <c r="I24" s="99">
+        <f t="shared" si="8"/>
+        <v>11514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="143"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="102"/>
+    </row>
+    <row r="26" spans="1:9" s="84" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="145"/>
+      <c r="B26" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="104">
+        <f>SUM(C14:C25)</f>
+        <v>4560</v>
+      </c>
+      <c r="D26" s="104">
+        <f>SUM(D14:D25)</f>
+        <v>805</v>
+      </c>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104">
+        <f>SUM(F14:F25)</f>
+        <v>8100</v>
+      </c>
+      <c r="G26" s="104">
+        <f>SUM(G14:G25)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="104"/>
+      <c r="I26" s="105">
+        <f>SUM(I14:I25)</f>
+        <v>33630</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="146"/>
+      <c r="B27" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="149">
+        <v>22700</v>
+      </c>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="109"/>
+    </row>
+    <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="147">
+        <v>1</v>
+      </c>
+      <c r="B28" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="109">
+        <f>20000*$C$27</f>
+        <v>454000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="147">
+        <v>2</v>
+      </c>
+      <c r="B29" s="111" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="109">
+        <f>9568.5*$C$27</f>
+        <v>217204950</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="147">
+        <v>3</v>
+      </c>
+      <c r="B30" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="109">
+        <f>5388.74*$C$27</f>
+        <v>122324398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="147">
+        <v>4</v>
+      </c>
+      <c r="B31" s="111" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="109">
+        <f>50000*$C$27</f>
+        <v>1135000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="147"/>
+      <c r="B32" s="111" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="115"/>
+    </row>
+    <row r="33" spans="1:9" s="84" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="145"/>
+      <c r="B33" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="150">
+        <f>SUM(C27:C32)</f>
+        <v>22700</v>
+      </c>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116">
+        <f>SUM(F27:F32)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="116">
+        <f>SUM(G27:G32)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116">
+        <f>SUM(I27:I32)</f>
+        <v>1928529348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="146"/>
+      <c r="B34" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="109"/>
+    </row>
+    <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="147">
+        <v>1</v>
+      </c>
+      <c r="B35" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="109">
+        <f>(I26+I13)*22700</f>
+        <v>841035000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="147">
+        <v>2</v>
+      </c>
+      <c r="B36" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="109">
+        <f>$F$81</f>
+        <v>783083400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="147">
+        <v>3</v>
+      </c>
+      <c r="B37" s="111" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="112"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="115">
+        <f>F93</f>
+        <v>49087680</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="148"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="118"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="121"/>
+    </row>
+    <row r="39" spans="1:9" s="84" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="145"/>
+      <c r="B39" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="116">
+        <f>SUM(C34:C38)</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116">
+        <f>SUM(F34:F38)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="116">
+        <f>SUM(G34:G38)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116">
+        <f>SUM(I34:I38)</f>
+        <v>1673206080</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="122"/>
+      <c r="C40" s="176"/>
+      <c r="D40" s="176"/>
+      <c r="E40" s="176"/>
+      <c r="F40" s="176"/>
+      <c r="G40" s="123"/>
+      <c r="H40" s="123"/>
+      <c r="I40" s="124"/>
+    </row>
+    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="122"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="125"/>
+      <c r="F41" s="125" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" s="123"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="126">
+        <f>-(I39-I33)</f>
+        <v>255323268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="122"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="123"/>
+      <c r="H42" s="123"/>
+      <c r="I42" s="124"/>
+    </row>
+    <row r="43" spans="1:9" s="127" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="122" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="128"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="129"/>
+      <c r="H43" s="129"/>
+      <c r="I43" s="130"/>
+    </row>
+    <row r="44" spans="1:9" s="134" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="131" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="132" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="169"/>
+      <c r="F44" s="168" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="169"/>
+      <c r="H44" s="133"/>
+    </row>
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="135">
+        <v>1</v>
+      </c>
+      <c r="B45" s="136" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="96">
+        <v>849</v>
+      </c>
+      <c r="D45" s="172">
+        <v>215000</v>
+      </c>
+      <c r="E45" s="173"/>
+      <c r="F45" s="174">
+        <f>C45*D45</f>
+        <v>182535000</v>
+      </c>
+      <c r="G45" s="175"/>
+      <c r="H45" s="137"/>
+    </row>
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="135">
+        <v>2</v>
+      </c>
+      <c r="B46" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="100">
+        <v>1574</v>
+      </c>
+      <c r="D46" s="160">
+        <v>150000</v>
+      </c>
+      <c r="E46" s="161"/>
+      <c r="F46" s="162">
+        <f t="shared" ref="F46:F65" si="9">C46*D46</f>
+        <v>236100000</v>
+      </c>
+      <c r="G46" s="163"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="138"/>
+    </row>
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="135">
+        <v>3</v>
+      </c>
+      <c r="B47" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="100">
+        <v>676</v>
+      </c>
+      <c r="D47" s="160">
+        <v>115000</v>
+      </c>
+      <c r="E47" s="161"/>
+      <c r="F47" s="162">
+        <f t="shared" si="9"/>
+        <v>77740000</v>
+      </c>
+      <c r="G47" s="163"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="138"/>
+    </row>
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="135">
+        <v>4</v>
+      </c>
+      <c r="B48" s="110" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="100">
+        <v>9</v>
+      </c>
+      <c r="D48" s="160">
+        <v>380000</v>
+      </c>
+      <c r="E48" s="161"/>
+      <c r="F48" s="162">
+        <f>C48*D48</f>
+        <v>3420000</v>
+      </c>
+      <c r="G48" s="163"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="138"/>
+    </row>
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="135">
+        <v>5</v>
+      </c>
+      <c r="B49" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="100">
+        <v>821</v>
+      </c>
+      <c r="D49" s="160">
+        <v>28000</v>
+      </c>
+      <c r="E49" s="161"/>
+      <c r="F49" s="162">
+        <f t="shared" si="9"/>
+        <v>22988000</v>
+      </c>
+      <c r="G49" s="163"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="138"/>
+    </row>
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="135">
+        <v>6</v>
+      </c>
+      <c r="B50" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="100">
+        <v>950</v>
+      </c>
+      <c r="D50" s="160">
+        <v>78000</v>
+      </c>
+      <c r="E50" s="161"/>
+      <c r="F50" s="162">
+        <f t="shared" si="9"/>
+        <v>74100000</v>
+      </c>
+      <c r="G50" s="163"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="138"/>
+    </row>
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="135">
+        <v>7</v>
+      </c>
+      <c r="B51" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="100">
+        <v>1.5</v>
+      </c>
+      <c r="D51" s="160">
+        <v>58000</v>
+      </c>
+      <c r="E51" s="161"/>
+      <c r="F51" s="162">
+        <f t="shared" si="9"/>
+        <v>87000</v>
+      </c>
+      <c r="G51" s="163"/>
+      <c r="H51" s="137"/>
+      <c r="I51" s="138"/>
+    </row>
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="135">
+        <v>8</v>
+      </c>
+      <c r="B52" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="100">
+        <v>67</v>
+      </c>
+      <c r="D52" s="160">
+        <v>75000</v>
+      </c>
+      <c r="E52" s="161"/>
+      <c r="F52" s="162">
+        <f t="shared" si="9"/>
+        <v>5025000</v>
+      </c>
+      <c r="G52" s="163"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="138"/>
+    </row>
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="135">
+        <v>9</v>
+      </c>
+      <c r="B53" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="100">
+        <v>35</v>
+      </c>
+      <c r="D53" s="160">
+        <v>45000</v>
+      </c>
+      <c r="E53" s="161"/>
+      <c r="F53" s="162">
+        <f t="shared" si="9"/>
+        <v>1575000</v>
+      </c>
+      <c r="G53" s="163"/>
+      <c r="H53" s="137"/>
+      <c r="I53" s="138"/>
+    </row>
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="135">
+        <v>10</v>
+      </c>
+      <c r="B54" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="100">
+        <v>850</v>
+      </c>
+      <c r="D54" s="160">
+        <v>17800</v>
+      </c>
+      <c r="E54" s="161"/>
+      <c r="F54" s="162">
+        <f t="shared" si="9"/>
+        <v>15130000</v>
+      </c>
+      <c r="G54" s="163"/>
+      <c r="H54" s="137"/>
+      <c r="I54" s="138"/>
+    </row>
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="135">
+        <v>11</v>
+      </c>
+      <c r="B55" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="100">
+        <v>110</v>
+      </c>
+      <c r="D55" s="160">
+        <v>42000</v>
+      </c>
+      <c r="E55" s="161"/>
+      <c r="F55" s="162">
+        <f t="shared" si="9"/>
+        <v>4620000</v>
+      </c>
+      <c r="G55" s="163"/>
+      <c r="H55" s="137"/>
+      <c r="I55" s="138"/>
+    </row>
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="135">
+        <v>12</v>
+      </c>
+      <c r="B56" s="111" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="112">
+        <v>200</v>
+      </c>
+      <c r="D56" s="160">
+        <v>15000</v>
+      </c>
+      <c r="E56" s="161"/>
+      <c r="F56" s="162">
+        <f>C56*D56</f>
+        <v>3000000</v>
+      </c>
+      <c r="G56" s="163"/>
+      <c r="H56" s="137"/>
+      <c r="I56" s="138"/>
+    </row>
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="135">
+        <v>13</v>
+      </c>
+      <c r="B57" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="100">
+        <v>85</v>
+      </c>
+      <c r="D57" s="160">
+        <v>4500</v>
+      </c>
+      <c r="E57" s="161"/>
+      <c r="F57" s="162">
+        <f t="shared" si="9"/>
+        <v>382500</v>
+      </c>
+      <c r="G57" s="163"/>
+      <c r="H57" s="137"/>
+      <c r="I57" s="138"/>
+    </row>
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="135">
+        <v>14</v>
+      </c>
+      <c r="B58" s="139" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="100">
+        <v>170</v>
+      </c>
+      <c r="D58" s="160">
+        <v>105000</v>
+      </c>
+      <c r="E58" s="161"/>
+      <c r="F58" s="162">
+        <f t="shared" si="9"/>
+        <v>17850000</v>
+      </c>
+      <c r="G58" s="163"/>
+      <c r="H58" s="137"/>
+      <c r="I58" s="138"/>
+    </row>
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="135">
+        <v>15</v>
+      </c>
+      <c r="B59" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="100">
+        <v>1</v>
+      </c>
+      <c r="D59" s="160">
+        <v>240000</v>
+      </c>
+      <c r="E59" s="161"/>
+      <c r="F59" s="162">
+        <f t="shared" si="9"/>
+        <v>240000</v>
+      </c>
+      <c r="G59" s="163"/>
+      <c r="H59" s="137"/>
+      <c r="I59" s="138"/>
+    </row>
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="135">
+        <v>16</v>
+      </c>
+      <c r="B60" s="140" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="100">
+        <v>5.5</v>
+      </c>
+      <c r="D60" s="160">
+        <v>50000</v>
+      </c>
+      <c r="E60" s="161"/>
+      <c r="F60" s="162">
+        <f t="shared" si="9"/>
+        <v>275000</v>
+      </c>
+      <c r="G60" s="163"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="138"/>
+    </row>
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="135">
+        <v>17</v>
+      </c>
+      <c r="B61" s="141" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="100">
+        <v>3</v>
+      </c>
+      <c r="D61" s="160">
+        <v>240000</v>
+      </c>
+      <c r="E61" s="161"/>
+      <c r="F61" s="162">
+        <f t="shared" si="9"/>
+        <v>720000</v>
+      </c>
+      <c r="G61" s="163"/>
+      <c r="H61" s="137"/>
+      <c r="I61" s="138"/>
+    </row>
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="135">
+        <v>18</v>
+      </c>
+      <c r="B62" s="141" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="100">
+        <v>4</v>
+      </c>
+      <c r="D62" s="160">
+        <v>100000</v>
+      </c>
+      <c r="E62" s="161"/>
+      <c r="F62" s="162">
+        <f t="shared" ref="F62" si="10">C62*D62</f>
+        <v>400000</v>
+      </c>
+      <c r="G62" s="163"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="138"/>
+    </row>
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="135">
+        <v>19</v>
+      </c>
+      <c r="B63" s="111" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="112"/>
+      <c r="D63" s="160"/>
+      <c r="E63" s="161"/>
+      <c r="F63" s="162">
+        <v>900000</v>
+      </c>
+      <c r="G63" s="163"/>
+      <c r="H63" s="137"/>
+      <c r="I63" s="138"/>
+    </row>
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="135">
+        <v>20</v>
+      </c>
+      <c r="B64" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="112">
+        <v>15</v>
+      </c>
+      <c r="D64" s="160">
+        <v>25000</v>
+      </c>
+      <c r="E64" s="161"/>
+      <c r="F64" s="162">
+        <f>C64*D64</f>
+        <v>375000</v>
+      </c>
+      <c r="G64" s="163"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="138"/>
+    </row>
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="135">
+        <v>21</v>
+      </c>
+      <c r="B65" s="141" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="100">
+        <v>26</v>
+      </c>
+      <c r="D65" s="160">
+        <v>8000</v>
+      </c>
+      <c r="E65" s="161"/>
+      <c r="F65" s="162">
+        <f t="shared" si="9"/>
+        <v>208000</v>
+      </c>
+      <c r="G65" s="163"/>
+      <c r="H65" s="137"/>
+      <c r="I65" s="138"/>
+    </row>
+    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="135">
+        <v>22</v>
+      </c>
+      <c r="B66" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="112">
+        <v>1</v>
+      </c>
+      <c r="D66" s="160">
+        <v>18000</v>
+      </c>
+      <c r="E66" s="161"/>
+      <c r="F66" s="162">
+        <f t="shared" ref="F66:F70" si="11">C66*D66</f>
+        <v>18000</v>
+      </c>
+      <c r="G66" s="163"/>
+      <c r="H66" s="137"/>
+      <c r="I66" s="138"/>
+    </row>
+    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="135">
+        <v>23</v>
+      </c>
+      <c r="B67" s="111" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="112">
+        <v>4</v>
+      </c>
+      <c r="D67" s="160">
+        <v>75000</v>
+      </c>
+      <c r="E67" s="161"/>
+      <c r="F67" s="162">
+        <f t="shared" si="11"/>
+        <v>300000</v>
+      </c>
+      <c r="G67" s="163"/>
+      <c r="H67" s="137"/>
+      <c r="I67" s="138"/>
+    </row>
+    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="135">
+        <v>24</v>
+      </c>
+      <c r="B68" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="112">
+        <v>4</v>
+      </c>
+      <c r="D68" s="160">
+        <v>360000</v>
+      </c>
+      <c r="E68" s="161"/>
+      <c r="F68" s="162">
+        <f t="shared" si="11"/>
+        <v>1440000</v>
+      </c>
+      <c r="G68" s="163"/>
+      <c r="H68" s="137"/>
+      <c r="I68" s="138"/>
+    </row>
+    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="135">
+        <v>25</v>
+      </c>
+      <c r="B69" s="111" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" s="112">
+        <v>120</v>
+      </c>
+      <c r="D69" s="160">
+        <v>4500</v>
+      </c>
+      <c r="E69" s="161"/>
+      <c r="F69" s="162">
+        <f t="shared" si="11"/>
+        <v>540000</v>
+      </c>
+      <c r="G69" s="163"/>
+      <c r="H69" s="137"/>
+      <c r="I69" s="138"/>
+    </row>
+    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="135">
+        <v>26</v>
+      </c>
+      <c r="B70" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="112">
+        <v>4</v>
+      </c>
+      <c r="D70" s="160">
+        <v>55000</v>
+      </c>
+      <c r="E70" s="161"/>
+      <c r="F70" s="162">
+        <f t="shared" si="11"/>
+        <v>220000</v>
+      </c>
+      <c r="G70" s="163"/>
+      <c r="H70" s="137"/>
+      <c r="I70" s="138"/>
+    </row>
+    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="135">
+        <v>27</v>
+      </c>
+      <c r="B71" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="112">
+        <v>90</v>
+      </c>
+      <c r="D71" s="160">
+        <v>8500</v>
+      </c>
+      <c r="E71" s="161"/>
+      <c r="F71" s="162">
+        <f t="shared" ref="F71:F80" si="12">C71*D71</f>
+        <v>765000</v>
+      </c>
+      <c r="G71" s="163"/>
+      <c r="H71" s="137"/>
+      <c r="I71" s="138"/>
+    </row>
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="135">
+        <v>28</v>
+      </c>
+      <c r="B72" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="112">
+        <f>739-39</f>
+        <v>700</v>
+      </c>
+      <c r="D72" s="160">
+        <v>34000</v>
+      </c>
+      <c r="E72" s="161"/>
+      <c r="F72" s="162">
+        <f t="shared" si="12"/>
+        <v>23800000</v>
+      </c>
+      <c r="G72" s="163"/>
+      <c r="H72" s="137"/>
+      <c r="I72" s="138"/>
+    </row>
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="135">
+        <v>29</v>
+      </c>
+      <c r="B73" s="111" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" s="112">
+        <v>535</v>
+      </c>
+      <c r="D73" s="160">
+        <v>11500</v>
+      </c>
+      <c r="E73" s="161"/>
+      <c r="F73" s="162">
+        <f t="shared" si="12"/>
+        <v>6152500</v>
+      </c>
+      <c r="G73" s="163"/>
+      <c r="H73" s="137"/>
+      <c r="I73" s="138"/>
+    </row>
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="135">
+        <v>30</v>
+      </c>
+      <c r="B74" s="111" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" s="112">
+        <v>145</v>
+      </c>
+      <c r="D74" s="160">
+        <v>15800</v>
+      </c>
+      <c r="E74" s="161"/>
+      <c r="F74" s="162">
+        <f t="shared" si="12"/>
+        <v>2291000</v>
+      </c>
+      <c r="G74" s="163"/>
+      <c r="H74" s="137"/>
+      <c r="I74" s="138"/>
+    </row>
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="135">
+        <v>31</v>
+      </c>
+      <c r="B75" s="111" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" s="112">
+        <v>132</v>
+      </c>
+      <c r="D75" s="160">
+        <v>13200</v>
+      </c>
+      <c r="E75" s="161"/>
+      <c r="F75" s="162">
+        <f t="shared" si="12"/>
+        <v>1742400</v>
+      </c>
+      <c r="G75" s="163"/>
+      <c r="H75" s="137"/>
+      <c r="I75" s="138"/>
+    </row>
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="135">
+        <v>32</v>
+      </c>
+      <c r="B76" s="111" t="s">
+        <v>123</v>
+      </c>
+      <c r="C76" s="112">
+        <v>400</v>
+      </c>
+      <c r="D76" s="160">
+        <v>20300</v>
+      </c>
+      <c r="E76" s="161"/>
+      <c r="F76" s="162">
+        <f t="shared" si="12"/>
+        <v>8120000</v>
+      </c>
+      <c r="G76" s="163"/>
+      <c r="H76" s="137"/>
+      <c r="I76" s="138"/>
+    </row>
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="135">
+        <v>33</v>
+      </c>
+      <c r="B77" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="112">
+        <f>$C$26+$C$13</f>
+        <v>4840</v>
+      </c>
+      <c r="D77" s="160">
+        <v>10000</v>
+      </c>
+      <c r="E77" s="161"/>
+      <c r="F77" s="162">
+        <f t="shared" si="12"/>
+        <v>48400000</v>
+      </c>
+      <c r="G77" s="163"/>
+      <c r="H77" s="137"/>
+      <c r="I77" s="138"/>
+    </row>
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="135">
+        <v>34</v>
+      </c>
+      <c r="B78" s="139" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="112">
+        <f>$C$26+$C$13</f>
+        <v>4840</v>
+      </c>
+      <c r="D78" s="160">
+        <v>3600</v>
+      </c>
+      <c r="E78" s="161"/>
+      <c r="F78" s="162">
+        <f t="shared" si="12"/>
+        <v>17424000</v>
+      </c>
+      <c r="G78" s="163"/>
+      <c r="H78" s="137"/>
+      <c r="I78" s="138"/>
+    </row>
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="135">
+        <v>35</v>
+      </c>
+      <c r="B79" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" s="112">
+        <f>$C$26+$C$13</f>
+        <v>4840</v>
+      </c>
+      <c r="D79" s="160">
+        <v>5000</v>
+      </c>
+      <c r="E79" s="161"/>
+      <c r="F79" s="162">
+        <f t="shared" si="12"/>
+        <v>24200000</v>
+      </c>
+      <c r="G79" s="163"/>
+      <c r="H79" s="137"/>
+      <c r="I79" s="138"/>
+    </row>
+    <row r="80" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="135"/>
+      <c r="B80" s="142"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="160"/>
+      <c r="E80" s="161"/>
+      <c r="F80" s="162">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="163"/>
+      <c r="H80" s="137"/>
+      <c r="I80" s="138"/>
+    </row>
+    <row r="81" spans="1:9" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="103"/>
+      <c r="B81" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="104"/>
+      <c r="D81" s="164"/>
+      <c r="E81" s="165"/>
+      <c r="F81" s="166">
+        <f>SUM(F45:G80)</f>
+        <v>783083400</v>
+      </c>
+      <c r="G81" s="167"/>
+      <c r="H81" s="129"/>
+      <c r="I81" s="83"/>
+    </row>
+    <row r="82" spans="1:9" s="84" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="127"/>
+      <c r="B82" s="127"/>
+      <c r="C82" s="128"/>
+      <c r="D82" s="128"/>
+      <c r="E82" s="128"/>
+      <c r="F82" s="129"/>
+      <c r="G82" s="129"/>
+      <c r="H82" s="129"/>
+      <c r="I82" s="83"/>
+    </row>
+    <row r="83" spans="1:9" s="127" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="127" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="128"/>
+      <c r="D83" s="128"/>
+      <c r="E83" s="128"/>
+      <c r="F83" s="129"/>
+      <c r="G83" s="129"/>
+      <c r="H83" s="129"/>
+      <c r="I83" s="130"/>
+    </row>
+    <row r="84" spans="1:9" s="134" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="131" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="132" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="169"/>
+      <c r="F84" s="168" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" s="169"/>
+      <c r="H84" s="133"/>
+    </row>
+    <row r="85" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="143">
+        <v>1</v>
+      </c>
+      <c r="B85" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" s="100"/>
+      <c r="D85" s="160"/>
+      <c r="E85" s="161"/>
+      <c r="F85" s="162">
+        <f>600*22700</f>
+        <v>13620000</v>
+      </c>
+      <c r="G85" s="163"/>
+      <c r="H85" s="137"/>
+      <c r="I85" s="138"/>
+    </row>
+    <row r="86" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="143">
+        <v>2</v>
+      </c>
+      <c r="B86" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86" s="100"/>
+      <c r="D86" s="160"/>
+      <c r="E86" s="161"/>
+      <c r="F86" s="162">
+        <v>500000</v>
+      </c>
+      <c r="G86" s="163"/>
+      <c r="H86" s="137"/>
+      <c r="I86" s="138"/>
+    </row>
+    <row r="87" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="143">
+        <v>3</v>
+      </c>
+      <c r="B87" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" s="100"/>
+      <c r="D87" s="160"/>
+      <c r="E87" s="161"/>
+      <c r="F87" s="162">
+        <v>3000000</v>
+      </c>
+      <c r="G87" s="163"/>
+      <c r="H87" s="137"/>
+      <c r="I87" s="138"/>
+    </row>
+    <row r="88" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="143">
+        <v>4</v>
+      </c>
+      <c r="B88" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" s="112"/>
+      <c r="D88" s="160"/>
+      <c r="E88" s="161"/>
+      <c r="F88" s="162">
+        <v>18113000</v>
+      </c>
+      <c r="G88" s="163"/>
+      <c r="H88" s="137"/>
+      <c r="I88" s="138"/>
+    </row>
+    <row r="89" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="143">
+        <v>5</v>
+      </c>
+      <c r="B89" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="C89" s="112"/>
+      <c r="D89" s="160"/>
+      <c r="E89" s="161"/>
+      <c r="F89" s="162">
+        <v>1218000</v>
+      </c>
+      <c r="G89" s="163"/>
+      <c r="H89" s="137"/>
+      <c r="I89" s="138"/>
+    </row>
+    <row r="90" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="143">
+        <v>6</v>
+      </c>
+      <c r="B90" s="111" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90" s="112"/>
+      <c r="D90" s="160"/>
+      <c r="E90" s="161"/>
+      <c r="F90" s="162">
+        <v>5000000</v>
+      </c>
+      <c r="G90" s="163"/>
+      <c r="H90" s="137"/>
+      <c r="I90" s="138"/>
+    </row>
+    <row r="91" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="143">
+        <v>7</v>
+      </c>
+      <c r="B91" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="C91" s="112"/>
+      <c r="D91" s="151"/>
+      <c r="E91" s="152"/>
+      <c r="F91" s="162">
+        <v>7636680</v>
+      </c>
+      <c r="G91" s="163"/>
+      <c r="H91" s="137"/>
+      <c r="I91" s="138"/>
+    </row>
+    <row r="92" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="135"/>
+      <c r="B92" s="142"/>
+      <c r="C92" s="112"/>
+      <c r="D92" s="160"/>
+      <c r="E92" s="161"/>
+      <c r="F92" s="162"/>
+      <c r="G92" s="163"/>
+      <c r="H92" s="137"/>
+      <c r="I92" s="138"/>
+    </row>
+    <row r="93" spans="1:9" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="103"/>
+      <c r="B93" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="104"/>
+      <c r="D93" s="164"/>
+      <c r="E93" s="165"/>
+      <c r="F93" s="166">
+        <f>SUM(F85:G92)</f>
+        <v>49087680</v>
+      </c>
+      <c r="G93" s="167"/>
+      <c r="H93" s="129"/>
+      <c r="I93" s="83"/>
+    </row>
+  </sheetData>
+  <mergeCells count="104">
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+  </mergeCells>
+  <pageMargins left="0.16" right="0.11" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor indexed="25"/>
+  </sheetPr>
+  <dimension ref="A1:I85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="83" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="83" customWidth="1"/>
+    <col min="3" max="3" width="10" style="85" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="85" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="85" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="86" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="86" customWidth="1"/>
+    <col min="8" max="8" width="7.625" style="86" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="83" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="83"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="157" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="84"/>
+    </row>
+    <row r="3" spans="1:9" s="87" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="158" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="177" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="168" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="179"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="170" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="170" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="87" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="159"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="154" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="153" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="144"/>
+      <c r="B5" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="94"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="143">
+        <v>1</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="96">
+        <f>F6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="97">
+        <f>D6*E6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="98">
+        <f>C6-F6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="98"/>
+      <c r="I6" s="99">
+        <f>F6*H6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="143">
+        <v>2</v>
+      </c>
+      <c r="B7" s="95" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="96">
+        <f t="shared" ref="C7:C8" si="0">F7</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97">
+        <f t="shared" ref="F7:F11" si="1">D7*E7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="98">
+        <f t="shared" ref="G7" si="2">C7-F7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="98"/>
+      <c r="I7" s="99">
+        <f t="shared" ref="I7" si="3">F7*H7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="143">
+        <v>3</v>
+      </c>
+      <c r="B8" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="99">
+        <f>F8*H8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="143">
+        <v>4</v>
+      </c>
+      <c r="B9" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="97">
+        <f>D9*E9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="99">
+        <f>F9*H9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="143">
+        <v>5</v>
+      </c>
+      <c r="B10" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="99">
+        <f t="shared" ref="I10:I11" si="4">F10*H10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="143">
+        <v>6</v>
+      </c>
+      <c r="B11" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="143"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="102"/>
+    </row>
+    <row r="13" spans="1:9" s="84" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="145"/>
+      <c r="B13" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="104">
+        <f>SUM(C5:C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="104">
+        <f>SUM(D5:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104">
+        <f>SUM(F5:F12)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="104">
+        <f>SUM(G5:G12)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="104"/>
+      <c r="I13" s="105">
+        <f>SUM(I5:I12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="84" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="144"/>
+      <c r="B14" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="107"/>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="143">
+        <v>1</v>
+      </c>
+      <c r="B15" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="100">
+        <f>F15</f>
+        <v>488</v>
+      </c>
+      <c r="D15" s="100">
+        <v>61</v>
+      </c>
+      <c r="E15" s="100">
+        <v>8</v>
+      </c>
+      <c r="F15" s="97">
+        <f t="shared" ref="F15:F23" si="5">D15*E15</f>
+        <v>488</v>
+      </c>
+      <c r="G15" s="98">
+        <f t="shared" ref="G15:G17" si="6">C15-F15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="101"/>
+      <c r="I15" s="109"/>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="143">
+        <v>2</v>
+      </c>
+      <c r="B16" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="100">
+        <f t="shared" ref="C16:C22" si="7">F16</f>
+        <v>648</v>
+      </c>
+      <c r="D16" s="100">
+        <v>81</v>
+      </c>
+      <c r="E16" s="100">
+        <v>8</v>
+      </c>
+      <c r="F16" s="97">
+        <f t="shared" si="5"/>
+        <v>648</v>
+      </c>
+      <c r="G16" s="98">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="101"/>
+      <c r="I16" s="109"/>
+    </row>
+    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="143">
+        <v>3</v>
+      </c>
+      <c r="B17" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="100">
+        <f t="shared" si="7"/>
+        <v>1400</v>
+      </c>
+      <c r="D17" s="100">
+        <v>200</v>
+      </c>
+      <c r="E17" s="100">
+        <v>7</v>
+      </c>
+      <c r="F17" s="97">
+        <f t="shared" si="5"/>
+        <v>1400</v>
+      </c>
+      <c r="G17" s="98">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="101"/>
+      <c r="I17" s="99">
+        <f>F17*H17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="143">
+        <v>4</v>
+      </c>
+      <c r="B18" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100">
+        <v>150</v>
+      </c>
+      <c r="E18" s="100">
+        <v>12</v>
+      </c>
+      <c r="F18" s="97">
+        <f>D18*E18</f>
+        <v>1800</v>
+      </c>
+      <c r="G18" s="98"/>
+      <c r="H18" s="101">
+        <v>10</v>
+      </c>
+      <c r="I18" s="99">
+        <f>F18*H18</f>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="143">
+        <v>5</v>
+      </c>
+      <c r="B19" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100">
+        <v>20</v>
+      </c>
+      <c r="E19" s="100">
+        <v>12</v>
+      </c>
+      <c r="F19" s="97">
+        <f>D19*E19</f>
+        <v>240</v>
+      </c>
+      <c r="G19" s="98"/>
+      <c r="H19" s="101">
+        <v>9.5</v>
+      </c>
+      <c r="I19" s="99">
+        <f>F19*H19</f>
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="143">
+        <v>6</v>
+      </c>
+      <c r="B20" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="100">
+        <f t="shared" si="7"/>
+        <v>632</v>
+      </c>
+      <c r="D20" s="100">
+        <v>79</v>
+      </c>
+      <c r="E20" s="100">
+        <v>8</v>
+      </c>
+      <c r="F20" s="97">
+        <f t="shared" si="5"/>
+        <v>632</v>
+      </c>
+      <c r="G20" s="98"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="99">
+        <f t="shared" ref="I20:I23" si="8">F20*H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="143">
+        <v>7</v>
+      </c>
+      <c r="B21" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="100">
+        <f t="shared" si="7"/>
+        <v>1440</v>
+      </c>
+      <c r="D21" s="100">
+        <v>120</v>
+      </c>
+      <c r="E21" s="100">
+        <v>12</v>
+      </c>
+      <c r="F21" s="97">
+        <f t="shared" si="5"/>
+        <v>1440</v>
+      </c>
+      <c r="G21" s="98"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="99">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="143">
+        <v>8</v>
+      </c>
+      <c r="B22" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="100">
+        <f t="shared" si="7"/>
+        <v>240</v>
+      </c>
+      <c r="D22" s="100">
+        <v>20</v>
+      </c>
+      <c r="E22" s="100">
+        <v>12</v>
+      </c>
+      <c r="F22" s="97">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+      <c r="G22" s="98"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="99">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="143">
+        <v>9</v>
+      </c>
+      <c r="B23" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="100">
+        <f>F23</f>
+        <v>828</v>
+      </c>
+      <c r="D23" s="100">
+        <v>69</v>
+      </c>
+      <c r="E23" s="100">
+        <v>12</v>
+      </c>
+      <c r="F23" s="97">
+        <f t="shared" si="5"/>
+        <v>828</v>
+      </c>
+      <c r="G23" s="98"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="99">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="143"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="102"/>
+    </row>
+    <row r="25" spans="1:9" s="84" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="145"/>
+      <c r="B25" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="104">
+        <f>SUM(C14:C24)</f>
+        <v>5676</v>
+      </c>
+      <c r="D25" s="104">
+        <f>SUM(D14:D24)</f>
+        <v>800</v>
+      </c>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104">
+        <f>SUM(F14:F24)</f>
+        <v>7716</v>
+      </c>
+      <c r="G25" s="104">
+        <f>SUM(G14:G24)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="104"/>
+      <c r="I25" s="105">
+        <f>SUM(I14:I24)</f>
+        <v>20280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="146"/>
+      <c r="B26" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="149">
+        <v>22700</v>
+      </c>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="109"/>
+    </row>
+    <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="147">
+        <v>1</v>
+      </c>
+      <c r="B27" s="111" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="109">
+        <f>60000*$C$26</f>
+        <v>1362000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="147">
+        <v>2</v>
+      </c>
+      <c r="B28" s="111" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="109">
+        <f>20000*$C$26</f>
+        <v>454000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="147"/>
+      <c r="B29" s="111" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="115"/>
+    </row>
+    <row r="30" spans="1:9" s="84" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="145"/>
+      <c r="B30" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="150">
+        <f>SUM(C26:C29)</f>
+        <v>22700</v>
+      </c>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116">
+        <f>SUM(F26:F29)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="116">
+        <f>SUM(G26:G29)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116">
+        <f>SUM(I26:I29)</f>
+        <v>1816000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="146"/>
+      <c r="B31" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="109"/>
+    </row>
+    <row r="32" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="147">
+        <v>1</v>
+      </c>
+      <c r="B32" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="109">
+        <f>(I25+I13)*$C$26</f>
+        <v>460356000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="147">
+        <v>2</v>
+      </c>
+      <c r="B33" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="109">
+        <f>$F$76</f>
+        <v>1228580500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="147">
+        <v>3</v>
+      </c>
+      <c r="B34" s="111" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="115">
+        <f>F85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="148"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="120"/>
+      <c r="I35" s="121"/>
+    </row>
+    <row r="36" spans="1:9" s="84" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="145"/>
+      <c r="B36" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="116">
+        <f>SUM(C31:C35)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116">
+        <f>SUM(F31:F35)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="116">
+        <f>SUM(G31:G35)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116">
+        <f>SUM(I31:I35)</f>
+        <v>1688936500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="122"/>
+      <c r="C37" s="176"/>
+      <c r="D37" s="176"/>
+      <c r="E37" s="176"/>
+      <c r="F37" s="176"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="124"/>
+    </row>
+    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="122"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="123"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="126">
+        <f>-(I36-I30)</f>
+        <v>127063500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="122"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="125"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="123"/>
+      <c r="H39" s="123"/>
+      <c r="I39" s="124"/>
+    </row>
+    <row r="40" spans="1:9" s="127" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="122" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="128"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="129"/>
+      <c r="G40" s="129"/>
+      <c r="H40" s="129"/>
+      <c r="I40" s="130"/>
+    </row>
+    <row r="41" spans="1:9" s="134" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="131" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="132" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="169"/>
+      <c r="F41" s="168" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="169"/>
+      <c r="H41" s="133"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="135">
+        <v>1</v>
+      </c>
+      <c r="B42" s="136" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="96">
+        <v>888</v>
+      </c>
+      <c r="D42" s="172">
+        <v>215000</v>
+      </c>
+      <c r="E42" s="173"/>
+      <c r="F42" s="174">
+        <f>C42*D42</f>
+        <v>190920000</v>
+      </c>
+      <c r="G42" s="175"/>
+      <c r="H42" s="137"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="135">
+        <v>2</v>
+      </c>
+      <c r="B43" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="100">
+        <v>1514</v>
+      </c>
+      <c r="D43" s="160">
+        <v>150000</v>
+      </c>
+      <c r="E43" s="161"/>
+      <c r="F43" s="162">
+        <f t="shared" ref="F43:F75" si="9">C43*D43</f>
+        <v>227100000</v>
+      </c>
+      <c r="G43" s="163"/>
+      <c r="H43" s="137"/>
+      <c r="I43" s="138"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="135">
+        <v>3</v>
+      </c>
+      <c r="B44" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="100">
+        <v>799</v>
+      </c>
+      <c r="D44" s="160">
+        <v>115000</v>
+      </c>
+      <c r="E44" s="161"/>
+      <c r="F44" s="162">
+        <f t="shared" si="9"/>
+        <v>91885000</v>
+      </c>
+      <c r="G44" s="163"/>
+      <c r="H44" s="137"/>
+      <c r="I44" s="138"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="135">
+        <v>4</v>
+      </c>
+      <c r="B45" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="100">
+        <v>792</v>
+      </c>
+      <c r="D45" s="160">
+        <v>450000</v>
+      </c>
+      <c r="E45" s="161"/>
+      <c r="F45" s="162">
+        <f>C45*D45</f>
+        <v>356400000</v>
+      </c>
+      <c r="G45" s="163"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="138"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="135">
+        <v>5</v>
+      </c>
+      <c r="B46" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="100">
+        <v>1235</v>
+      </c>
+      <c r="D46" s="160">
+        <v>28000</v>
+      </c>
+      <c r="E46" s="161"/>
+      <c r="F46" s="162">
+        <f t="shared" si="9"/>
+        <v>34580000</v>
+      </c>
+      <c r="G46" s="163"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="138"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="135">
+        <v>6</v>
+      </c>
+      <c r="B47" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="100">
+        <v>1230</v>
+      </c>
+      <c r="D47" s="160">
+        <v>78000</v>
+      </c>
+      <c r="E47" s="161"/>
+      <c r="F47" s="162">
+        <f t="shared" si="9"/>
+        <v>95940000</v>
+      </c>
+      <c r="G47" s="163"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="138"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="135">
+        <v>7</v>
+      </c>
+      <c r="B48" s="95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="100">
+        <v>1</v>
+      </c>
+      <c r="D48" s="160">
+        <v>58000</v>
+      </c>
+      <c r="E48" s="161"/>
+      <c r="F48" s="162">
+        <f t="shared" si="9"/>
+        <v>58000</v>
+      </c>
+      <c r="G48" s="163"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="138"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="135">
+        <v>8</v>
+      </c>
+      <c r="B49" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="100">
+        <v>125</v>
+      </c>
+      <c r="D49" s="160">
+        <v>75000</v>
+      </c>
+      <c r="E49" s="161"/>
+      <c r="F49" s="162">
+        <f t="shared" si="9"/>
+        <v>9375000</v>
+      </c>
+      <c r="G49" s="163"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="138"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="135">
+        <v>9</v>
+      </c>
+      <c r="B50" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="100">
+        <f>20+25+4</f>
+        <v>49</v>
+      </c>
+      <c r="D50" s="160">
+        <v>45000</v>
+      </c>
+      <c r="E50" s="161"/>
+      <c r="F50" s="162">
+        <f t="shared" si="9"/>
+        <v>2205000</v>
+      </c>
+      <c r="G50" s="163"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="138"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="135">
+        <v>10</v>
+      </c>
+      <c r="B51" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="100">
+        <v>600</v>
+      </c>
+      <c r="D51" s="160">
+        <v>17800</v>
+      </c>
+      <c r="E51" s="161"/>
+      <c r="F51" s="162">
+        <f t="shared" si="9"/>
+        <v>10680000</v>
+      </c>
+      <c r="G51" s="163"/>
+      <c r="H51" s="137"/>
+      <c r="I51" s="138"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="135">
+        <v>11</v>
+      </c>
+      <c r="B52" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="100">
+        <f>55+2</f>
+        <v>57</v>
+      </c>
+      <c r="D52" s="160">
+        <v>42000</v>
+      </c>
+      <c r="E52" s="161"/>
+      <c r="F52" s="162">
+        <f t="shared" si="9"/>
+        <v>2394000</v>
+      </c>
+      <c r="G52" s="163"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="138"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="135">
+        <v>12</v>
+      </c>
+      <c r="B53" s="111" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="112">
+        <f>190+30</f>
+        <v>220</v>
+      </c>
+      <c r="D53" s="160">
+        <v>15000</v>
+      </c>
+      <c r="E53" s="161"/>
+      <c r="F53" s="162">
+        <f>C53*D53</f>
+        <v>3300000</v>
+      </c>
+      <c r="G53" s="163"/>
+      <c r="H53" s="137"/>
+      <c r="I53" s="138"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="135">
+        <v>13</v>
+      </c>
+      <c r="B54" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="100">
+        <v>5</v>
+      </c>
+      <c r="D54" s="160">
+        <v>4500</v>
+      </c>
+      <c r="E54" s="161"/>
+      <c r="F54" s="162">
+        <f t="shared" si="9"/>
+        <v>22500</v>
+      </c>
+      <c r="G54" s="163"/>
+      <c r="H54" s="137"/>
+      <c r="I54" s="138"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="135">
+        <v>14</v>
+      </c>
+      <c r="B55" s="139" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="100">
+        <v>217</v>
+      </c>
+      <c r="D55" s="160">
+        <v>105000</v>
+      </c>
+      <c r="E55" s="161"/>
+      <c r="F55" s="162">
+        <f t="shared" si="9"/>
+        <v>22785000</v>
+      </c>
+      <c r="G55" s="163"/>
+      <c r="H55" s="137"/>
+      <c r="I55" s="138"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="135">
+        <v>16</v>
+      </c>
+      <c r="B56" s="140" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="100">
+        <f>5+1.5</f>
+        <v>6.5</v>
+      </c>
+      <c r="D56" s="160">
+        <v>50000</v>
+      </c>
+      <c r="E56" s="161"/>
+      <c r="F56" s="162">
+        <f t="shared" si="9"/>
+        <v>325000</v>
+      </c>
+      <c r="G56" s="163"/>
+      <c r="H56" s="137"/>
+      <c r="I56" s="138"/>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="135">
+        <v>16</v>
+      </c>
+      <c r="B57" s="140" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="100">
+        <f>3+4.5</f>
+        <v>7.5</v>
+      </c>
+      <c r="D57" s="160">
+        <v>50000</v>
+      </c>
+      <c r="E57" s="161"/>
+      <c r="F57" s="162">
+        <f t="shared" ref="F57" si="10">C57*D57</f>
+        <v>375000</v>
+      </c>
+      <c r="G57" s="163"/>
+      <c r="H57" s="137"/>
+      <c r="I57" s="138"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="135">
+        <v>20</v>
+      </c>
+      <c r="B58" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="112">
+        <v>20</v>
+      </c>
+      <c r="D58" s="160">
+        <v>25000</v>
+      </c>
+      <c r="E58" s="161"/>
+      <c r="F58" s="162">
+        <f t="shared" ref="F58" si="11">C58*D58</f>
+        <v>500000</v>
+      </c>
+      <c r="G58" s="163"/>
+      <c r="H58" s="137"/>
+      <c r="I58" s="138"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="135">
+        <v>21</v>
+      </c>
+      <c r="B59" s="141" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="100">
+        <v>15</v>
+      </c>
+      <c r="D59" s="160">
+        <v>8000</v>
+      </c>
+      <c r="E59" s="161"/>
+      <c r="F59" s="162">
+        <f t="shared" si="9"/>
+        <v>120000</v>
+      </c>
+      <c r="G59" s="163"/>
+      <c r="H59" s="137"/>
+      <c r="I59" s="138"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="135">
+        <v>22</v>
+      </c>
+      <c r="B60" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="112">
+        <v>1</v>
+      </c>
+      <c r="D60" s="160">
+        <v>18000</v>
+      </c>
+      <c r="E60" s="161"/>
+      <c r="F60" s="162">
+        <f t="shared" si="9"/>
+        <v>18000</v>
+      </c>
+      <c r="G60" s="163"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="138"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="135">
+        <v>22</v>
+      </c>
+      <c r="B61" s="111" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="112">
+        <v>2</v>
+      </c>
+      <c r="D61" s="160">
+        <v>60000</v>
+      </c>
+      <c r="E61" s="161"/>
+      <c r="F61" s="162">
+        <f t="shared" ref="F61" si="12">C61*D61</f>
+        <v>120000</v>
+      </c>
+      <c r="G61" s="163"/>
+      <c r="H61" s="137"/>
+      <c r="I61" s="138"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="135">
+        <v>22</v>
+      </c>
+      <c r="B62" s="111" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="112">
+        <v>16</v>
+      </c>
+      <c r="D62" s="160">
+        <v>3000</v>
+      </c>
+      <c r="E62" s="161"/>
+      <c r="F62" s="162">
+        <f t="shared" ref="F62" si="13">C62*D62</f>
+        <v>48000</v>
+      </c>
+      <c r="G62" s="163"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="138"/>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="135">
+        <v>23</v>
+      </c>
+      <c r="B63" s="111" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="112">
+        <v>2</v>
+      </c>
+      <c r="D63" s="160">
+        <v>75000</v>
+      </c>
+      <c r="E63" s="161"/>
+      <c r="F63" s="162">
+        <f t="shared" si="9"/>
+        <v>150000</v>
+      </c>
+      <c r="G63" s="163"/>
+      <c r="H63" s="137"/>
+      <c r="I63" s="138"/>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="135">
+        <v>24</v>
+      </c>
+      <c r="B64" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="112">
+        <f>4.5+1</f>
+        <v>5.5</v>
+      </c>
+      <c r="D64" s="160">
+        <v>360000</v>
+      </c>
+      <c r="E64" s="161"/>
+      <c r="F64" s="162">
+        <f t="shared" si="9"/>
+        <v>1980000</v>
+      </c>
+      <c r="G64" s="163"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="138"/>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="135">
+        <v>26</v>
+      </c>
+      <c r="B65" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="112">
+        <v>4</v>
+      </c>
+      <c r="D65" s="160">
+        <v>55000</v>
+      </c>
+      <c r="E65" s="161"/>
+      <c r="F65" s="162">
+        <f t="shared" si="9"/>
+        <v>220000</v>
+      </c>
+      <c r="G65" s="163"/>
+      <c r="H65" s="137"/>
+      <c r="I65" s="138"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="135">
+        <v>27</v>
+      </c>
+      <c r="B66" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="112">
+        <v>85</v>
+      </c>
+      <c r="D66" s="160">
+        <v>8500</v>
+      </c>
+      <c r="E66" s="161"/>
+      <c r="F66" s="162">
+        <f t="shared" si="9"/>
+        <v>722500</v>
+      </c>
+      <c r="G66" s="163"/>
+      <c r="H66" s="137"/>
+      <c r="I66" s="138"/>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="135">
+        <v>28</v>
+      </c>
+      <c r="B67" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="112">
+        <v>900</v>
+      </c>
+      <c r="D67" s="160">
+        <v>34000</v>
+      </c>
+      <c r="E67" s="161"/>
+      <c r="F67" s="162">
+        <f t="shared" si="9"/>
+        <v>30600000</v>
+      </c>
+      <c r="G67" s="163"/>
+      <c r="H67" s="137"/>
+      <c r="I67" s="138"/>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="135">
+        <v>29</v>
+      </c>
+      <c r="B68" s="111" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="112">
+        <v>413</v>
+      </c>
+      <c r="D68" s="160">
+        <v>11500</v>
+      </c>
+      <c r="E68" s="161"/>
+      <c r="F68" s="162">
+        <f t="shared" si="9"/>
+        <v>4749500</v>
+      </c>
+      <c r="G68" s="163"/>
+      <c r="H68" s="137"/>
+      <c r="I68" s="138"/>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="135">
+        <v>30</v>
+      </c>
+      <c r="B69" s="111" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="112">
+        <v>104</v>
+      </c>
+      <c r="D69" s="160">
+        <v>15800</v>
+      </c>
+      <c r="E69" s="161"/>
+      <c r="F69" s="162">
+        <f t="shared" si="9"/>
+        <v>1643200</v>
+      </c>
+      <c r="G69" s="163"/>
+      <c r="H69" s="137"/>
+      <c r="I69" s="138"/>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="135">
+        <v>31</v>
+      </c>
+      <c r="B70" s="111" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" s="112">
+        <v>250</v>
+      </c>
+      <c r="D70" s="160">
+        <v>13200</v>
+      </c>
+      <c r="E70" s="161"/>
+      <c r="F70" s="162">
+        <f t="shared" si="9"/>
+        <v>3300000</v>
+      </c>
+      <c r="G70" s="163"/>
+      <c r="H70" s="137"/>
+      <c r="I70" s="138"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="135">
+        <v>32</v>
+      </c>
+      <c r="B71" s="111" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="112">
+        <v>104</v>
+      </c>
+      <c r="D71" s="160">
+        <v>20300</v>
+      </c>
+      <c r="E71" s="161"/>
+      <c r="F71" s="162">
+        <f t="shared" si="9"/>
+        <v>2111200</v>
+      </c>
+      <c r="G71" s="163"/>
+      <c r="H71" s="137"/>
+      <c r="I71" s="138"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="135">
+        <v>33</v>
+      </c>
+      <c r="B72" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="112">
+        <f>$C$25+$C$13</f>
+        <v>5676</v>
+      </c>
+      <c r="D72" s="160">
+        <v>15000</v>
+      </c>
+      <c r="E72" s="161"/>
+      <c r="F72" s="162">
+        <f t="shared" si="9"/>
+        <v>85140000</v>
+      </c>
+      <c r="G72" s="163"/>
+      <c r="H72" s="137"/>
+      <c r="I72" s="138"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="135">
+        <v>34</v>
+      </c>
+      <c r="B73" s="139" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="112">
+        <f>$C$25+$C$13</f>
+        <v>5676</v>
+      </c>
+      <c r="D73" s="160">
+        <v>3600</v>
+      </c>
+      <c r="E73" s="161"/>
+      <c r="F73" s="162">
+        <f t="shared" si="9"/>
+        <v>20433600</v>
+      </c>
+      <c r="G73" s="163"/>
+      <c r="H73" s="137"/>
+      <c r="I73" s="138"/>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="135">
+        <v>35</v>
+      </c>
+      <c r="B74" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" s="112">
+        <f>$C$25+$C$13</f>
+        <v>5676</v>
+      </c>
+      <c r="D74" s="160">
+        <v>5000</v>
+      </c>
+      <c r="E74" s="161"/>
+      <c r="F74" s="162">
+        <f t="shared" si="9"/>
+        <v>28380000</v>
+      </c>
+      <c r="G74" s="163"/>
+      <c r="H74" s="137"/>
+      <c r="I74" s="138"/>
+    </row>
+    <row r="75" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="135"/>
+      <c r="B75" s="142"/>
+      <c r="C75" s="112"/>
+      <c r="D75" s="160"/>
+      <c r="E75" s="161"/>
+      <c r="F75" s="162">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="163"/>
+      <c r="H75" s="137"/>
+      <c r="I75" s="138"/>
+    </row>
+    <row r="76" spans="1:9" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="103"/>
+      <c r="B76" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="104"/>
+      <c r="D76" s="164"/>
+      <c r="E76" s="165"/>
+      <c r="F76" s="166">
+        <f>SUM(F42:G75)</f>
+        <v>1228580500</v>
+      </c>
+      <c r="G76" s="167"/>
+      <c r="H76" s="129"/>
+      <c r="I76" s="83"/>
+    </row>
+    <row r="77" spans="1:9" s="84" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="127"/>
+      <c r="B77" s="127"/>
+      <c r="C77" s="128"/>
+      <c r="D77" s="128"/>
+      <c r="E77" s="128"/>
+      <c r="F77" s="129"/>
+      <c r="G77" s="129"/>
+      <c r="H77" s="129"/>
+      <c r="I77" s="83"/>
+    </row>
+    <row r="78" spans="1:9" s="127" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="127" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="128"/>
+      <c r="D78" s="128"/>
+      <c r="E78" s="128"/>
+      <c r="F78" s="129"/>
+      <c r="G78" s="129"/>
+      <c r="H78" s="129"/>
+      <c r="I78" s="130"/>
+    </row>
+    <row r="79" spans="1:9" s="134" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="131" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="132" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="169"/>
+      <c r="F79" s="168" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79" s="169"/>
+      <c r="H79" s="133"/>
+    </row>
+    <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="143">
+        <v>1</v>
+      </c>
+      <c r="B80" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80" s="100"/>
+      <c r="D80" s="160"/>
+      <c r="E80" s="161"/>
+      <c r="F80" s="162"/>
+      <c r="G80" s="163"/>
+      <c r="H80" s="137"/>
+      <c r="I80" s="138"/>
+    </row>
+    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="143">
+        <v>2</v>
+      </c>
+      <c r="B81" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81" s="100"/>
+      <c r="D81" s="160"/>
+      <c r="E81" s="161"/>
+      <c r="F81" s="162"/>
+      <c r="G81" s="163"/>
+      <c r="H81" s="137"/>
+      <c r="I81" s="138"/>
+    </row>
+    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="143">
+        <v>3</v>
+      </c>
+      <c r="B82" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82" s="100"/>
+      <c r="D82" s="160"/>
+      <c r="E82" s="161"/>
+      <c r="F82" s="162"/>
+      <c r="G82" s="163"/>
+      <c r="H82" s="137"/>
+      <c r="I82" s="138"/>
+    </row>
+    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="143"/>
+      <c r="B83" s="111"/>
+      <c r="C83" s="112"/>
+      <c r="D83" s="160"/>
+      <c r="E83" s="161"/>
+      <c r="F83" s="162"/>
+      <c r="G83" s="163"/>
+      <c r="H83" s="137"/>
+      <c r="I83" s="138"/>
+    </row>
+    <row r="84" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="135"/>
+      <c r="B84" s="142"/>
+      <c r="C84" s="112"/>
+      <c r="D84" s="160"/>
+      <c r="E84" s="161"/>
+      <c r="F84" s="162"/>
+      <c r="G84" s="163"/>
+      <c r="H84" s="137"/>
+      <c r="I84" s="138"/>
+    </row>
+    <row r="85" spans="1:9" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="103"/>
+      <c r="B85" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="104"/>
+      <c r="D85" s="164"/>
+      <c r="E85" s="165"/>
+      <c r="F85" s="166">
+        <f>SUM(F80:G84)</f>
+        <v>0</v>
+      </c>
+      <c r="G85" s="167"/>
+      <c r="H85" s="129"/>
+      <c r="I85" s="83"/>
+    </row>
+  </sheetData>
+  <mergeCells count="95">
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+  </mergeCells>
+  <pageMargins left="0.16" right="0.11" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/CONG NO/CONG NO 2016/CHI PHI HANG CHÚ NGUYÊN.xlsx
+++ b/CONG NO/CONG NO 2016/CHI PHI HANG CHÚ NGUYÊN.xlsx
@@ -16,15 +16,15 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'05-2017'!$A$1:$G$94</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'05-2017 (2)'!$A$1:$G$101</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'11-2017'!$A$1:$I$93</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'12-2017'!$A$1:$I$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'11-2017'!$A$1:$I$95</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'12-2017'!$A$1:$I$83</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="147">
   <si>
     <t>Đường</t>
   </si>
@@ -456,6 +456,15 @@
   </si>
   <si>
     <t>CHI PHÍ XUẤT HÀNG - CHÚ NGUYÊN (18/01/17)</t>
+  </si>
+  <si>
+    <t>Chú nguyên ứng (23/11/17)</t>
+  </si>
+  <si>
+    <t>Chi phí kiểm TPDD thêm 12/17</t>
+  </si>
+  <si>
+    <t>Tiền xe chở hàng ra cảng</t>
   </si>
 </sst>
 </file>
@@ -788,7 +797,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1240,6 +1249,24 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1249,83 +1276,59 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1651,13 +1654,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="153" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
       <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2014,8 +2017,8 @@
     </row>
     <row r="30" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="13"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="156"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
       <c r="E30" s="14"/>
       <c r="F30" s="15"/>
     </row>
@@ -2687,13 +2690,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="153" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
       <c r="F1" s="77"/>
       <c r="G1" s="24"/>
     </row>
@@ -3239,8 +3242,8 @@
     </row>
     <row r="39" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="13"/>
-      <c r="C39" s="156"/>
-      <c r="D39" s="156"/>
+      <c r="C39" s="154"/>
+      <c r="D39" s="154"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="15"/>
@@ -4157,7 +4160,7 @@
   </sheetPr>
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -4174,13 +4177,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="153" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
       <c r="F1" s="78"/>
       <c r="G1" s="24"/>
     </row>
@@ -4709,8 +4712,8 @@
     </row>
     <row r="38" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13"/>
-      <c r="C38" s="156"/>
-      <c r="D38" s="156"/>
+      <c r="C38" s="154"/>
+      <c r="D38" s="154"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="15"/>
@@ -5765,10 +5768,10 @@
   <sheetPr>
     <tabColor indexed="25"/>
   </sheetPr>
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -5786,50 +5789,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="177" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="84"/>
     </row>
     <row r="3" spans="1:9" s="87" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="158" t="s">
+      <c r="B3" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="177" t="s">
+      <c r="C3" s="170" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="168" t="s">
+      <c r="D3" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="179"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="170" t="s">
+      <c r="E3" s="172"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="159" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="170" t="s">
+      <c r="H3" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="170" t="s">
+      <c r="I3" s="159" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="87" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="159"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="178"/>
+      <c r="A4" s="169"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="171"/>
       <c r="D4" s="88" t="s">
         <v>107</v>
       </c>
@@ -5839,9 +5842,9 @@
       <c r="F4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="144"/>
@@ -6567,7 +6570,7 @@
       <c r="H36" s="114"/>
       <c r="I36" s="109">
         <f>$F$81</f>
-        <v>783083400</v>
+        <v>711473400</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6584,8 +6587,8 @@
       <c r="G37" s="114"/>
       <c r="H37" s="114"/>
       <c r="I37" s="115">
-        <f>F93</f>
-        <v>49087680</v>
+        <f>F95</f>
+        <v>52847680</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6621,15 +6624,15 @@
       <c r="H39" s="116"/>
       <c r="I39" s="116">
         <f>SUM(I34:I38)</f>
-        <v>1673206080</v>
+        <v>1605356080</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="122"/>
-      <c r="C40" s="176"/>
-      <c r="D40" s="176"/>
-      <c r="E40" s="176"/>
-      <c r="F40" s="176"/>
+      <c r="C40" s="167"/>
+      <c r="D40" s="167"/>
+      <c r="E40" s="167"/>
+      <c r="F40" s="167"/>
       <c r="G40" s="123"/>
       <c r="H40" s="123"/>
       <c r="I40" s="124"/>
@@ -6646,7 +6649,7 @@
       <c r="H41" s="123"/>
       <c r="I41" s="126">
         <f>-(I39-I33)</f>
-        <v>255323268</v>
+        <v>323173268</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6681,14 +6684,14 @@
       <c r="C44" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="168" t="s">
+      <c r="D44" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="169"/>
-      <c r="F44" s="168" t="s">
+      <c r="E44" s="162"/>
+      <c r="F44" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="169"/>
+      <c r="G44" s="162"/>
       <c r="H44" s="133"/>
     </row>
     <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6699,18 +6702,20 @@
         <v>112</v>
       </c>
       <c r="C45" s="96">
+        <v>657</v>
+      </c>
+      <c r="D45" s="163">
+        <v>215000</v>
+      </c>
+      <c r="E45" s="164"/>
+      <c r="F45" s="165">
+        <f>C45*D45</f>
+        <v>141255000</v>
+      </c>
+      <c r="G45" s="166"/>
+      <c r="H45" s="137">
         <v>849</v>
       </c>
-      <c r="D45" s="172">
-        <v>215000</v>
-      </c>
-      <c r="E45" s="173"/>
-      <c r="F45" s="174">
-        <f>C45*D45</f>
-        <v>182535000</v>
-      </c>
-      <c r="G45" s="175"/>
-      <c r="H45" s="137"/>
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="135">
@@ -6720,18 +6725,20 @@
         <v>43</v>
       </c>
       <c r="C46" s="100">
+        <v>1275</v>
+      </c>
+      <c r="D46" s="157">
+        <v>150000</v>
+      </c>
+      <c r="E46" s="158"/>
+      <c r="F46" s="155">
+        <f t="shared" ref="F46:F65" si="9">C46*D46</f>
+        <v>191250000</v>
+      </c>
+      <c r="G46" s="156"/>
+      <c r="H46" s="137">
         <v>1574</v>
       </c>
-      <c r="D46" s="160">
-        <v>150000</v>
-      </c>
-      <c r="E46" s="161"/>
-      <c r="F46" s="162">
-        <f t="shared" ref="F46:F65" si="9">C46*D46</f>
-        <v>236100000</v>
-      </c>
-      <c r="G46" s="163"/>
-      <c r="H46" s="137"/>
       <c r="I46" s="138"/>
     </row>
     <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6744,16 +6751,18 @@
       <c r="C47" s="100">
         <v>676</v>
       </c>
-      <c r="D47" s="160">
+      <c r="D47" s="157">
         <v>115000</v>
       </c>
-      <c r="E47" s="161"/>
-      <c r="F47" s="162">
+      <c r="E47" s="158"/>
+      <c r="F47" s="155">
         <f t="shared" si="9"/>
         <v>77740000</v>
       </c>
-      <c r="G47" s="163"/>
-      <c r="H47" s="137"/>
+      <c r="G47" s="156"/>
+      <c r="H47" s="137">
+        <v>676</v>
+      </c>
       <c r="I47" s="138"/>
     </row>
     <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6766,15 +6775,15 @@
       <c r="C48" s="100">
         <v>9</v>
       </c>
-      <c r="D48" s="160">
+      <c r="D48" s="157">
         <v>380000</v>
       </c>
-      <c r="E48" s="161"/>
-      <c r="F48" s="162">
+      <c r="E48" s="158"/>
+      <c r="F48" s="155">
         <f>C48*D48</f>
         <v>3420000</v>
       </c>
-      <c r="G48" s="163"/>
+      <c r="G48" s="156"/>
       <c r="H48" s="137"/>
       <c r="I48" s="138"/>
     </row>
@@ -6788,15 +6797,15 @@
       <c r="C49" s="100">
         <v>821</v>
       </c>
-      <c r="D49" s="160">
+      <c r="D49" s="157">
         <v>28000</v>
       </c>
-      <c r="E49" s="161"/>
-      <c r="F49" s="162">
+      <c r="E49" s="158"/>
+      <c r="F49" s="155">
         <f t="shared" si="9"/>
         <v>22988000</v>
       </c>
-      <c r="G49" s="163"/>
+      <c r="G49" s="156"/>
       <c r="H49" s="137"/>
       <c r="I49" s="138"/>
     </row>
@@ -6810,15 +6819,15 @@
       <c r="C50" s="100">
         <v>950</v>
       </c>
-      <c r="D50" s="160">
+      <c r="D50" s="157">
         <v>78000</v>
       </c>
-      <c r="E50" s="161"/>
-      <c r="F50" s="162">
+      <c r="E50" s="158"/>
+      <c r="F50" s="155">
         <f t="shared" si="9"/>
         <v>74100000</v>
       </c>
-      <c r="G50" s="163"/>
+      <c r="G50" s="156"/>
       <c r="H50" s="137"/>
       <c r="I50" s="138"/>
     </row>
@@ -6832,15 +6841,15 @@
       <c r="C51" s="100">
         <v>1.5</v>
       </c>
-      <c r="D51" s="160">
+      <c r="D51" s="157">
         <v>58000</v>
       </c>
-      <c r="E51" s="161"/>
-      <c r="F51" s="162">
+      <c r="E51" s="158"/>
+      <c r="F51" s="155">
         <f t="shared" si="9"/>
         <v>87000</v>
       </c>
-      <c r="G51" s="163"/>
+      <c r="G51" s="156"/>
       <c r="H51" s="137"/>
       <c r="I51" s="138"/>
     </row>
@@ -6854,15 +6863,15 @@
       <c r="C52" s="100">
         <v>67</v>
       </c>
-      <c r="D52" s="160">
+      <c r="D52" s="157">
         <v>75000</v>
       </c>
-      <c r="E52" s="161"/>
-      <c r="F52" s="162">
+      <c r="E52" s="158"/>
+      <c r="F52" s="155">
         <f t="shared" si="9"/>
         <v>5025000</v>
       </c>
-      <c r="G52" s="163"/>
+      <c r="G52" s="156"/>
       <c r="H52" s="137"/>
       <c r="I52" s="138"/>
     </row>
@@ -6876,15 +6885,15 @@
       <c r="C53" s="100">
         <v>35</v>
       </c>
-      <c r="D53" s="160">
+      <c r="D53" s="157">
         <v>45000</v>
       </c>
-      <c r="E53" s="161"/>
-      <c r="F53" s="162">
+      <c r="E53" s="158"/>
+      <c r="F53" s="155">
         <f t="shared" si="9"/>
         <v>1575000</v>
       </c>
-      <c r="G53" s="163"/>
+      <c r="G53" s="156"/>
       <c r="H53" s="137"/>
       <c r="I53" s="138"/>
     </row>
@@ -6898,15 +6907,15 @@
       <c r="C54" s="100">
         <v>850</v>
       </c>
-      <c r="D54" s="160">
+      <c r="D54" s="157">
         <v>17800</v>
       </c>
-      <c r="E54" s="161"/>
-      <c r="F54" s="162">
+      <c r="E54" s="158"/>
+      <c r="F54" s="155">
         <f t="shared" si="9"/>
         <v>15130000</v>
       </c>
-      <c r="G54" s="163"/>
+      <c r="G54" s="156"/>
       <c r="H54" s="137"/>
       <c r="I54" s="138"/>
     </row>
@@ -6920,15 +6929,15 @@
       <c r="C55" s="100">
         <v>110</v>
       </c>
-      <c r="D55" s="160">
+      <c r="D55" s="157">
         <v>42000</v>
       </c>
-      <c r="E55" s="161"/>
-      <c r="F55" s="162">
+      <c r="E55" s="158"/>
+      <c r="F55" s="155">
         <f t="shared" si="9"/>
         <v>4620000</v>
       </c>
-      <c r="G55" s="163"/>
+      <c r="G55" s="156"/>
       <c r="H55" s="137"/>
       <c r="I55" s="138"/>
     </row>
@@ -6942,15 +6951,15 @@
       <c r="C56" s="112">
         <v>200</v>
       </c>
-      <c r="D56" s="160">
+      <c r="D56" s="157">
         <v>15000</v>
       </c>
-      <c r="E56" s="161"/>
-      <c r="F56" s="162">
+      <c r="E56" s="158"/>
+      <c r="F56" s="155">
         <f>C56*D56</f>
         <v>3000000</v>
       </c>
-      <c r="G56" s="163"/>
+      <c r="G56" s="156"/>
       <c r="H56" s="137"/>
       <c r="I56" s="138"/>
     </row>
@@ -6964,15 +6973,15 @@
       <c r="C57" s="100">
         <v>85</v>
       </c>
-      <c r="D57" s="160">
+      <c r="D57" s="157">
         <v>4500</v>
       </c>
-      <c r="E57" s="161"/>
-      <c r="F57" s="162">
+      <c r="E57" s="158"/>
+      <c r="F57" s="155">
         <f t="shared" si="9"/>
         <v>382500</v>
       </c>
-      <c r="G57" s="163"/>
+      <c r="G57" s="156"/>
       <c r="H57" s="137"/>
       <c r="I57" s="138"/>
     </row>
@@ -6986,15 +6995,15 @@
       <c r="C58" s="100">
         <v>170</v>
       </c>
-      <c r="D58" s="160">
+      <c r="D58" s="157">
         <v>105000</v>
       </c>
-      <c r="E58" s="161"/>
-      <c r="F58" s="162">
+      <c r="E58" s="158"/>
+      <c r="F58" s="155">
         <f t="shared" si="9"/>
         <v>17850000</v>
       </c>
-      <c r="G58" s="163"/>
+      <c r="G58" s="156"/>
       <c r="H58" s="137"/>
       <c r="I58" s="138"/>
     </row>
@@ -7008,15 +7017,15 @@
       <c r="C59" s="100">
         <v>1</v>
       </c>
-      <c r="D59" s="160">
+      <c r="D59" s="157">
         <v>240000</v>
       </c>
-      <c r="E59" s="161"/>
-      <c r="F59" s="162">
+      <c r="E59" s="158"/>
+      <c r="F59" s="155">
         <f t="shared" si="9"/>
         <v>240000</v>
       </c>
-      <c r="G59" s="163"/>
+      <c r="G59" s="156"/>
       <c r="H59" s="137"/>
       <c r="I59" s="138"/>
     </row>
@@ -7030,15 +7039,15 @@
       <c r="C60" s="100">
         <v>5.5</v>
       </c>
-      <c r="D60" s="160">
+      <c r="D60" s="157">
         <v>50000</v>
       </c>
-      <c r="E60" s="161"/>
-      <c r="F60" s="162">
+      <c r="E60" s="158"/>
+      <c r="F60" s="155">
         <f t="shared" si="9"/>
         <v>275000</v>
       </c>
-      <c r="G60" s="163"/>
+      <c r="G60" s="156"/>
       <c r="H60" s="137"/>
       <c r="I60" s="138"/>
     </row>
@@ -7052,15 +7061,15 @@
       <c r="C61" s="100">
         <v>3</v>
       </c>
-      <c r="D61" s="160">
+      <c r="D61" s="157">
         <v>240000</v>
       </c>
-      <c r="E61" s="161"/>
-      <c r="F61" s="162">
+      <c r="E61" s="158"/>
+      <c r="F61" s="155">
         <f t="shared" si="9"/>
         <v>720000</v>
       </c>
-      <c r="G61" s="163"/>
+      <c r="G61" s="156"/>
       <c r="H61" s="137"/>
       <c r="I61" s="138"/>
     </row>
@@ -7074,15 +7083,15 @@
       <c r="C62" s="100">
         <v>4</v>
       </c>
-      <c r="D62" s="160">
+      <c r="D62" s="157">
         <v>100000</v>
       </c>
-      <c r="E62" s="161"/>
-      <c r="F62" s="162">
+      <c r="E62" s="158"/>
+      <c r="F62" s="155">
         <f t="shared" ref="F62" si="10">C62*D62</f>
         <v>400000</v>
       </c>
-      <c r="G62" s="163"/>
+      <c r="G62" s="156"/>
       <c r="H62" s="137"/>
       <c r="I62" s="138"/>
     </row>
@@ -7094,12 +7103,12 @@
         <v>122</v>
       </c>
       <c r="C63" s="112"/>
-      <c r="D63" s="160"/>
-      <c r="E63" s="161"/>
-      <c r="F63" s="162">
+      <c r="D63" s="157"/>
+      <c r="E63" s="158"/>
+      <c r="F63" s="155">
         <v>900000</v>
       </c>
-      <c r="G63" s="163"/>
+      <c r="G63" s="156"/>
       <c r="H63" s="137"/>
       <c r="I63" s="138"/>
     </row>
@@ -7113,15 +7122,15 @@
       <c r="C64" s="112">
         <v>15</v>
       </c>
-      <c r="D64" s="160">
+      <c r="D64" s="157">
         <v>25000</v>
       </c>
-      <c r="E64" s="161"/>
-      <c r="F64" s="162">
+      <c r="E64" s="158"/>
+      <c r="F64" s="155">
         <f>C64*D64</f>
         <v>375000</v>
       </c>
-      <c r="G64" s="163"/>
+      <c r="G64" s="156"/>
       <c r="H64" s="137"/>
       <c r="I64" s="138"/>
     </row>
@@ -7135,15 +7144,15 @@
       <c r="C65" s="100">
         <v>26</v>
       </c>
-      <c r="D65" s="160">
+      <c r="D65" s="157">
         <v>8000</v>
       </c>
-      <c r="E65" s="161"/>
-      <c r="F65" s="162">
+      <c r="E65" s="158"/>
+      <c r="F65" s="155">
         <f t="shared" si="9"/>
         <v>208000</v>
       </c>
-      <c r="G65" s="163"/>
+      <c r="G65" s="156"/>
       <c r="H65" s="137"/>
       <c r="I65" s="138"/>
     </row>
@@ -7157,15 +7166,15 @@
       <c r="C66" s="112">
         <v>1</v>
       </c>
-      <c r="D66" s="160">
+      <c r="D66" s="157">
         <v>18000</v>
       </c>
-      <c r="E66" s="161"/>
-      <c r="F66" s="162">
+      <c r="E66" s="158"/>
+      <c r="F66" s="155">
         <f t="shared" ref="F66:F70" si="11">C66*D66</f>
         <v>18000</v>
       </c>
-      <c r="G66" s="163"/>
+      <c r="G66" s="156"/>
       <c r="H66" s="137"/>
       <c r="I66" s="138"/>
     </row>
@@ -7179,15 +7188,15 @@
       <c r="C67" s="112">
         <v>4</v>
       </c>
-      <c r="D67" s="160">
+      <c r="D67" s="157">
         <v>75000</v>
       </c>
-      <c r="E67" s="161"/>
-      <c r="F67" s="162">
+      <c r="E67" s="158"/>
+      <c r="F67" s="155">
         <f t="shared" si="11"/>
         <v>300000</v>
       </c>
-      <c r="G67" s="163"/>
+      <c r="G67" s="156"/>
       <c r="H67" s="137"/>
       <c r="I67" s="138"/>
     </row>
@@ -7201,15 +7210,15 @@
       <c r="C68" s="112">
         <v>4</v>
       </c>
-      <c r="D68" s="160">
+      <c r="D68" s="157">
         <v>360000</v>
       </c>
-      <c r="E68" s="161"/>
-      <c r="F68" s="162">
+      <c r="E68" s="158"/>
+      <c r="F68" s="155">
         <f t="shared" si="11"/>
         <v>1440000</v>
       </c>
-      <c r="G68" s="163"/>
+      <c r="G68" s="156"/>
       <c r="H68" s="137"/>
       <c r="I68" s="138"/>
     </row>
@@ -7223,15 +7232,15 @@
       <c r="C69" s="112">
         <v>120</v>
       </c>
-      <c r="D69" s="160">
+      <c r="D69" s="157">
         <v>4500</v>
       </c>
-      <c r="E69" s="161"/>
-      <c r="F69" s="162">
+      <c r="E69" s="158"/>
+      <c r="F69" s="155">
         <f t="shared" si="11"/>
         <v>540000</v>
       </c>
-      <c r="G69" s="163"/>
+      <c r="G69" s="156"/>
       <c r="H69" s="137"/>
       <c r="I69" s="138"/>
     </row>
@@ -7245,15 +7254,15 @@
       <c r="C70" s="112">
         <v>4</v>
       </c>
-      <c r="D70" s="160">
+      <c r="D70" s="157">
         <v>55000</v>
       </c>
-      <c r="E70" s="161"/>
-      <c r="F70" s="162">
+      <c r="E70" s="158"/>
+      <c r="F70" s="155">
         <f t="shared" si="11"/>
         <v>220000</v>
       </c>
-      <c r="G70" s="163"/>
+      <c r="G70" s="156"/>
       <c r="H70" s="137"/>
       <c r="I70" s="138"/>
     </row>
@@ -7267,15 +7276,15 @@
       <c r="C71" s="112">
         <v>90</v>
       </c>
-      <c r="D71" s="160">
+      <c r="D71" s="157">
         <v>8500</v>
       </c>
-      <c r="E71" s="161"/>
-      <c r="F71" s="162">
+      <c r="E71" s="158"/>
+      <c r="F71" s="155">
         <f t="shared" ref="F71:F80" si="12">C71*D71</f>
         <v>765000</v>
       </c>
-      <c r="G71" s="163"/>
+      <c r="G71" s="156"/>
       <c r="H71" s="137"/>
       <c r="I71" s="138"/>
     </row>
@@ -7290,15 +7299,15 @@
         <f>739-39</f>
         <v>700</v>
       </c>
-      <c r="D72" s="160">
+      <c r="D72" s="157">
         <v>34000</v>
       </c>
-      <c r="E72" s="161"/>
-      <c r="F72" s="162">
+      <c r="E72" s="158"/>
+      <c r="F72" s="155">
         <f t="shared" si="12"/>
         <v>23800000</v>
       </c>
-      <c r="G72" s="163"/>
+      <c r="G72" s="156"/>
       <c r="H72" s="137"/>
       <c r="I72" s="138"/>
     </row>
@@ -7312,15 +7321,15 @@
       <c r="C73" s="112">
         <v>535</v>
       </c>
-      <c r="D73" s="160">
+      <c r="D73" s="157">
         <v>11500</v>
       </c>
-      <c r="E73" s="161"/>
-      <c r="F73" s="162">
+      <c r="E73" s="158"/>
+      <c r="F73" s="155">
         <f t="shared" si="12"/>
         <v>6152500</v>
       </c>
-      <c r="G73" s="163"/>
+      <c r="G73" s="156"/>
       <c r="H73" s="137"/>
       <c r="I73" s="138"/>
     </row>
@@ -7334,15 +7343,15 @@
       <c r="C74" s="112">
         <v>145</v>
       </c>
-      <c r="D74" s="160">
+      <c r="D74" s="157">
         <v>15800</v>
       </c>
-      <c r="E74" s="161"/>
-      <c r="F74" s="162">
+      <c r="E74" s="158"/>
+      <c r="F74" s="155">
         <f t="shared" si="12"/>
         <v>2291000</v>
       </c>
-      <c r="G74" s="163"/>
+      <c r="G74" s="156"/>
       <c r="H74" s="137"/>
       <c r="I74" s="138"/>
     </row>
@@ -7356,15 +7365,15 @@
       <c r="C75" s="112">
         <v>132</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="157">
         <v>13200</v>
       </c>
-      <c r="E75" s="161"/>
-      <c r="F75" s="162">
+      <c r="E75" s="158"/>
+      <c r="F75" s="155">
         <f t="shared" si="12"/>
         <v>1742400</v>
       </c>
-      <c r="G75" s="163"/>
+      <c r="G75" s="156"/>
       <c r="H75" s="137"/>
       <c r="I75" s="138"/>
     </row>
@@ -7378,15 +7387,15 @@
       <c r="C76" s="112">
         <v>400</v>
       </c>
-      <c r="D76" s="160">
+      <c r="D76" s="157">
         <v>20300</v>
       </c>
-      <c r="E76" s="161"/>
-      <c r="F76" s="162">
+      <c r="E76" s="158"/>
+      <c r="F76" s="155">
         <f t="shared" si="12"/>
         <v>8120000</v>
       </c>
-      <c r="G76" s="163"/>
+      <c r="G76" s="156"/>
       <c r="H76" s="137"/>
       <c r="I76" s="138"/>
     </row>
@@ -7401,15 +7410,15 @@
         <f>$C$26+$C$13</f>
         <v>4840</v>
       </c>
-      <c r="D77" s="160">
-        <v>10000</v>
-      </c>
-      <c r="E77" s="161"/>
-      <c r="F77" s="162">
+      <c r="D77" s="157">
+        <v>13000</v>
+      </c>
+      <c r="E77" s="158"/>
+      <c r="F77" s="155">
         <f t="shared" si="12"/>
-        <v>48400000</v>
-      </c>
-      <c r="G77" s="163"/>
+        <v>62920000</v>
+      </c>
+      <c r="G77" s="156"/>
       <c r="H77" s="137"/>
       <c r="I77" s="138"/>
     </row>
@@ -7424,15 +7433,15 @@
         <f>$C$26+$C$13</f>
         <v>4840</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="157">
         <v>3600</v>
       </c>
-      <c r="E78" s="161"/>
-      <c r="F78" s="162">
+      <c r="E78" s="158"/>
+      <c r="F78" s="155">
         <f t="shared" si="12"/>
         <v>17424000</v>
       </c>
-      <c r="G78" s="163"/>
+      <c r="G78" s="156"/>
       <c r="H78" s="137"/>
       <c r="I78" s="138"/>
     </row>
@@ -7447,15 +7456,15 @@
         <f>$C$26+$C$13</f>
         <v>4840</v>
       </c>
-      <c r="D79" s="160">
+      <c r="D79" s="157">
         <v>5000</v>
       </c>
-      <c r="E79" s="161"/>
-      <c r="F79" s="162">
+      <c r="E79" s="158"/>
+      <c r="F79" s="155">
         <f t="shared" si="12"/>
         <v>24200000</v>
       </c>
-      <c r="G79" s="163"/>
+      <c r="G79" s="156"/>
       <c r="H79" s="137"/>
       <c r="I79" s="138"/>
     </row>
@@ -7463,13 +7472,13 @@
       <c r="A80" s="135"/>
       <c r="B80" s="142"/>
       <c r="C80" s="112"/>
-      <c r="D80" s="160"/>
-      <c r="E80" s="161"/>
-      <c r="F80" s="162">
+      <c r="D80" s="157"/>
+      <c r="E80" s="158"/>
+      <c r="F80" s="155">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G80" s="163"/>
+      <c r="G80" s="156"/>
       <c r="H80" s="137"/>
       <c r="I80" s="138"/>
     </row>
@@ -7479,13 +7488,13 @@
         <v>9</v>
       </c>
       <c r="C81" s="104"/>
-      <c r="D81" s="164"/>
-      <c r="E81" s="165"/>
-      <c r="F81" s="166">
+      <c r="D81" s="173"/>
+      <c r="E81" s="174"/>
+      <c r="F81" s="175">
         <f>SUM(F45:G80)</f>
-        <v>783083400</v>
-      </c>
-      <c r="G81" s="167"/>
+        <v>711473400</v>
+      </c>
+      <c r="G81" s="176"/>
       <c r="H81" s="129"/>
       <c r="I81" s="83"/>
     </row>
@@ -7522,17 +7531,17 @@
       <c r="C84" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="D84" s="168" t="s">
+      <c r="D84" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="E84" s="169"/>
-      <c r="F84" s="168" t="s">
+      <c r="E84" s="162"/>
+      <c r="F84" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="G84" s="169"/>
+      <c r="G84" s="162"/>
       <c r="H84" s="133"/>
     </row>
-    <row r="85" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="143">
         <v>1</v>
       </c>
@@ -7540,17 +7549,17 @@
         <v>57</v>
       </c>
       <c r="C85" s="100"/>
-      <c r="D85" s="160"/>
-      <c r="E85" s="161"/>
-      <c r="F85" s="162">
+      <c r="D85" s="157"/>
+      <c r="E85" s="158"/>
+      <c r="F85" s="155">
         <f>600*22700</f>
         <v>13620000</v>
       </c>
-      <c r="G85" s="163"/>
+      <c r="G85" s="156"/>
       <c r="H85" s="137"/>
       <c r="I85" s="138"/>
     </row>
-    <row r="86" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="143">
         <v>2</v>
       </c>
@@ -7558,16 +7567,16 @@
         <v>58</v>
       </c>
       <c r="C86" s="100"/>
-      <c r="D86" s="160"/>
-      <c r="E86" s="161"/>
-      <c r="F86" s="162">
+      <c r="D86" s="157"/>
+      <c r="E86" s="158"/>
+      <c r="F86" s="155">
         <v>500000</v>
       </c>
-      <c r="G86" s="163"/>
+      <c r="G86" s="156"/>
       <c r="H86" s="137"/>
       <c r="I86" s="138"/>
     </row>
-    <row r="87" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="143">
         <v>3</v>
       </c>
@@ -7575,16 +7584,16 @@
         <v>59</v>
       </c>
       <c r="C87" s="100"/>
-      <c r="D87" s="160"/>
-      <c r="E87" s="161"/>
-      <c r="F87" s="162">
-        <v>3000000</v>
-      </c>
-      <c r="G87" s="163"/>
+      <c r="D87" s="157"/>
+      <c r="E87" s="158"/>
+      <c r="F87" s="155">
+        <v>1500000</v>
+      </c>
+      <c r="G87" s="156"/>
       <c r="H87" s="137"/>
       <c r="I87" s="138"/>
     </row>
-    <row r="88" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="143">
         <v>4</v>
       </c>
@@ -7592,16 +7601,16 @@
         <v>62</v>
       </c>
       <c r="C88" s="112"/>
-      <c r="D88" s="160"/>
-      <c r="E88" s="161"/>
-      <c r="F88" s="162">
+      <c r="D88" s="157"/>
+      <c r="E88" s="158"/>
+      <c r="F88" s="155">
         <v>18113000</v>
       </c>
-      <c r="G88" s="163"/>
+      <c r="G88" s="156"/>
       <c r="H88" s="137"/>
       <c r="I88" s="138"/>
     </row>
-    <row r="89" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="143">
         <v>5</v>
       </c>
@@ -7609,158 +7618,112 @@
         <v>120</v>
       </c>
       <c r="C89" s="112"/>
-      <c r="D89" s="160"/>
-      <c r="E89" s="161"/>
-      <c r="F89" s="162">
+      <c r="D89" s="157"/>
+      <c r="E89" s="158"/>
+      <c r="F89" s="155">
         <v>1218000</v>
       </c>
-      <c r="G89" s="163"/>
+      <c r="G89" s="156"/>
       <c r="H89" s="137"/>
       <c r="I89" s="138"/>
     </row>
-    <row r="90" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="143">
         <v>6</v>
       </c>
-      <c r="B90" s="111" t="s">
-        <v>121</v>
-      </c>
-      <c r="C90" s="112"/>
-      <c r="D90" s="160"/>
-      <c r="E90" s="161"/>
-      <c r="F90" s="162">
-        <v>5000000</v>
-      </c>
-      <c r="G90" s="163"/>
+      <c r="B90" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" s="100"/>
+      <c r="D90" s="157"/>
+      <c r="E90" s="158"/>
+      <c r="F90" s="155">
+        <v>3760000</v>
+      </c>
+      <c r="G90" s="156"/>
       <c r="H90" s="137"/>
       <c r="I90" s="138"/>
     </row>
-    <row r="91" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="143">
         <v>7</v>
       </c>
       <c r="B91" s="111" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C91" s="112"/>
-      <c r="D91" s="151"/>
-      <c r="E91" s="152"/>
-      <c r="F91" s="162">
-        <v>7636680</v>
-      </c>
-      <c r="G91" s="163"/>
+      <c r="D91" s="157"/>
+      <c r="E91" s="158"/>
+      <c r="F91" s="155">
+        <v>5000000</v>
+      </c>
+      <c r="G91" s="156"/>
       <c r="H91" s="137"/>
       <c r="I91" s="138"/>
     </row>
-    <row r="92" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="135"/>
-      <c r="B92" s="142"/>
+    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="143">
+        <v>8</v>
+      </c>
+      <c r="B92" s="111" t="s">
+        <v>134</v>
+      </c>
       <c r="C92" s="112"/>
-      <c r="D92" s="160"/>
-      <c r="E92" s="161"/>
-      <c r="F92" s="162"/>
-      <c r="G92" s="163"/>
+      <c r="D92" s="157"/>
+      <c r="E92" s="158"/>
+      <c r="F92" s="155">
+        <v>7636680</v>
+      </c>
+      <c r="G92" s="156"/>
       <c r="H92" s="137"/>
       <c r="I92" s="138"/>
     </row>
-    <row r="93" spans="1:9" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="103"/>
-      <c r="B93" s="103" t="s">
+    <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="143">
         <v>9</v>
       </c>
-      <c r="C93" s="104"/>
-      <c r="D93" s="164"/>
-      <c r="E93" s="165"/>
-      <c r="F93" s="166">
-        <f>SUM(F85:G92)</f>
-        <v>49087680</v>
-      </c>
-      <c r="G93" s="167"/>
-      <c r="H93" s="129"/>
-      <c r="I93" s="83"/>
+      <c r="B93" s="111" t="s">
+        <v>146</v>
+      </c>
+      <c r="C93" s="112"/>
+      <c r="D93" s="157"/>
+      <c r="E93" s="158"/>
+      <c r="F93" s="155">
+        <v>1500000</v>
+      </c>
+      <c r="G93" s="156"/>
+      <c r="H93" s="137"/>
+      <c r="I93" s="138"/>
+    </row>
+    <row r="94" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="135"/>
+      <c r="B94" s="142"/>
+      <c r="C94" s="112"/>
+      <c r="D94" s="157"/>
+      <c r="E94" s="158"/>
+      <c r="F94" s="155"/>
+      <c r="G94" s="156"/>
+      <c r="H94" s="137"/>
+      <c r="I94" s="138"/>
+    </row>
+    <row r="95" spans="1:9" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="103"/>
+      <c r="B95" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="104"/>
+      <c r="D95" s="173"/>
+      <c r="E95" s="174"/>
+      <c r="F95" s="175">
+        <f>SUM(F85:G94)</f>
+        <v>52847680</v>
+      </c>
+      <c r="G95" s="176"/>
+      <c r="H95" s="129"/>
+      <c r="I95" s="83"/>
     </row>
   </sheetData>
-  <mergeCells count="104">
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="D80:E80"/>
+  <mergeCells count="109">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D72:E72"/>
@@ -7780,11 +7743,96 @@
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="F68:G68"/>
     <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D70:E70"/>
     <mergeCell ref="F69:G69"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="F71:G71"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.11" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7797,10 +7845,10 @@
   <sheetPr>
     <tabColor indexed="25"/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -7818,62 +7866,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="177" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="84"/>
     </row>
     <row r="3" spans="1:9" s="87" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="158" t="s">
+      <c r="B3" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="177" t="s">
+      <c r="C3" s="170" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="168" t="s">
+      <c r="D3" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="179"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="170" t="s">
+      <c r="E3" s="172"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="159" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="170" t="s">
+      <c r="H3" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="170" t="s">
+      <c r="I3" s="159" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="87" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="159"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="154" t="s">
+      <c r="A4" s="169"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="152" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="154" t="s">
+      <c r="E4" s="152" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="153" t="s">
+      <c r="F4" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="144"/>
@@ -8188,11 +8236,11 @@
       </c>
       <c r="G18" s="98"/>
       <c r="H18" s="101">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I18" s="99">
         <f>F18*H18</f>
-        <v>18000</v>
+        <v>17640</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8370,7 +8418,7 @@
       <c r="H25" s="104"/>
       <c r="I25" s="105">
         <f>SUM(I14:I24)</f>
-        <v>20280</v>
+        <v>19920</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8490,7 +8538,7 @@
       <c r="H32" s="114"/>
       <c r="I32" s="109">
         <f>(I25+I13)*$C$26</f>
-        <v>460356000</v>
+        <v>452184000</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8508,7 +8556,7 @@
       <c r="H33" s="114"/>
       <c r="I33" s="109">
         <f>$F$76</f>
-        <v>1228580500</v>
+        <v>1207588500</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8525,8 +8573,8 @@
       <c r="G34" s="114"/>
       <c r="H34" s="114"/>
       <c r="I34" s="115">
-        <f>F85</f>
-        <v>0</v>
+        <f>F83</f>
+        <v>5000000</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8562,15 +8610,15 @@
       <c r="H36" s="116"/>
       <c r="I36" s="116">
         <f>SUM(I31:I35)</f>
-        <v>1688936500</v>
+        <v>1664772500</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="122"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="176"/>
-      <c r="E37" s="176"/>
-      <c r="F37" s="176"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="167"/>
       <c r="G37" s="123"/>
       <c r="H37" s="123"/>
       <c r="I37" s="124"/>
@@ -8587,10 +8635,10 @@
       <c r="H38" s="123"/>
       <c r="I38" s="126">
         <f>-(I36-I30)</f>
-        <v>127063500</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>151227500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="122"/>
       <c r="C39" s="125"/>
       <c r="D39" s="125"/>
@@ -8622,14 +8670,14 @@
       <c r="C41" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="168" t="s">
+      <c r="D41" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="169"/>
-      <c r="F41" s="168" t="s">
+      <c r="E41" s="162"/>
+      <c r="F41" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="169"/>
+      <c r="G41" s="162"/>
       <c r="H41" s="133"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8642,15 +8690,15 @@
       <c r="C42" s="96">
         <v>888</v>
       </c>
-      <c r="D42" s="172">
+      <c r="D42" s="163">
         <v>215000</v>
       </c>
-      <c r="E42" s="173"/>
-      <c r="F42" s="174">
+      <c r="E42" s="164"/>
+      <c r="F42" s="165">
         <f>C42*D42</f>
         <v>190920000</v>
       </c>
-      <c r="G42" s="175"/>
+      <c r="G42" s="166"/>
       <c r="H42" s="137"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8661,17 +8709,17 @@
         <v>43</v>
       </c>
       <c r="C43" s="100">
-        <v>1514</v>
-      </c>
-      <c r="D43" s="160">
+        <v>1524</v>
+      </c>
+      <c r="D43" s="157">
         <v>150000</v>
       </c>
-      <c r="E43" s="161"/>
-      <c r="F43" s="162">
+      <c r="E43" s="158"/>
+      <c r="F43" s="155">
         <f t="shared" ref="F43:F75" si="9">C43*D43</f>
-        <v>227100000</v>
-      </c>
-      <c r="G43" s="163"/>
+        <v>228600000</v>
+      </c>
+      <c r="G43" s="156"/>
       <c r="H43" s="137"/>
       <c r="I43" s="138"/>
     </row>
@@ -8683,18 +8731,20 @@
         <v>26</v>
       </c>
       <c r="C44" s="100">
+        <v>663</v>
+      </c>
+      <c r="D44" s="157">
+        <v>115000</v>
+      </c>
+      <c r="E44" s="158"/>
+      <c r="F44" s="155">
+        <f t="shared" si="9"/>
+        <v>76245000</v>
+      </c>
+      <c r="G44" s="156"/>
+      <c r="H44" s="137">
         <v>799</v>
       </c>
-      <c r="D44" s="160">
-        <v>115000</v>
-      </c>
-      <c r="E44" s="161"/>
-      <c r="F44" s="162">
-        <f t="shared" si="9"/>
-        <v>91885000</v>
-      </c>
-      <c r="G44" s="163"/>
-      <c r="H44" s="137"/>
       <c r="I44" s="138"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8705,18 +8755,20 @@
         <v>142</v>
       </c>
       <c r="C45" s="100">
+        <v>802</v>
+      </c>
+      <c r="D45" s="157">
+        <v>450000</v>
+      </c>
+      <c r="E45" s="158"/>
+      <c r="F45" s="155">
+        <f>C45*D45</f>
+        <v>360900000</v>
+      </c>
+      <c r="G45" s="156"/>
+      <c r="H45" s="137">
         <v>792</v>
       </c>
-      <c r="D45" s="160">
-        <v>450000</v>
-      </c>
-      <c r="E45" s="161"/>
-      <c r="F45" s="162">
-        <f>C45*D45</f>
-        <v>356400000</v>
-      </c>
-      <c r="G45" s="163"/>
-      <c r="H45" s="137"/>
       <c r="I45" s="138"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8729,15 +8781,15 @@
       <c r="C46" s="100">
         <v>1235</v>
       </c>
-      <c r="D46" s="160">
+      <c r="D46" s="157">
         <v>28000</v>
       </c>
-      <c r="E46" s="161"/>
-      <c r="F46" s="162">
+      <c r="E46" s="158"/>
+      <c r="F46" s="155">
         <f t="shared" si="9"/>
         <v>34580000</v>
       </c>
-      <c r="G46" s="163"/>
+      <c r="G46" s="156"/>
       <c r="H46" s="137"/>
       <c r="I46" s="138"/>
     </row>
@@ -8751,15 +8803,15 @@
       <c r="C47" s="100">
         <v>1230</v>
       </c>
-      <c r="D47" s="160">
+      <c r="D47" s="157">
         <v>78000</v>
       </c>
-      <c r="E47" s="161"/>
-      <c r="F47" s="162">
+      <c r="E47" s="158"/>
+      <c r="F47" s="155">
         <f t="shared" si="9"/>
         <v>95940000</v>
       </c>
-      <c r="G47" s="163"/>
+      <c r="G47" s="156"/>
       <c r="H47" s="137"/>
       <c r="I47" s="138"/>
     </row>
@@ -8773,15 +8825,15 @@
       <c r="C48" s="100">
         <v>1</v>
       </c>
-      <c r="D48" s="160">
+      <c r="D48" s="157">
         <v>58000</v>
       </c>
-      <c r="E48" s="161"/>
-      <c r="F48" s="162">
+      <c r="E48" s="158"/>
+      <c r="F48" s="155">
         <f t="shared" si="9"/>
         <v>58000</v>
       </c>
-      <c r="G48" s="163"/>
+      <c r="G48" s="156"/>
       <c r="H48" s="137"/>
       <c r="I48" s="138"/>
     </row>
@@ -8795,15 +8847,15 @@
       <c r="C49" s="100">
         <v>125</v>
       </c>
-      <c r="D49" s="160">
+      <c r="D49" s="157">
         <v>75000</v>
       </c>
-      <c r="E49" s="161"/>
-      <c r="F49" s="162">
+      <c r="E49" s="158"/>
+      <c r="F49" s="155">
         <f t="shared" si="9"/>
         <v>9375000</v>
       </c>
-      <c r="G49" s="163"/>
+      <c r="G49" s="156"/>
       <c r="H49" s="137"/>
       <c r="I49" s="138"/>
     </row>
@@ -8818,15 +8870,15 @@
         <f>20+25+4</f>
         <v>49</v>
       </c>
-      <c r="D50" s="160">
+      <c r="D50" s="157">
         <v>45000</v>
       </c>
-      <c r="E50" s="161"/>
-      <c r="F50" s="162">
+      <c r="E50" s="158"/>
+      <c r="F50" s="155">
         <f t="shared" si="9"/>
         <v>2205000</v>
       </c>
-      <c r="G50" s="163"/>
+      <c r="G50" s="156"/>
       <c r="H50" s="137"/>
       <c r="I50" s="138"/>
     </row>
@@ -8840,15 +8892,15 @@
       <c r="C51" s="100">
         <v>600</v>
       </c>
-      <c r="D51" s="160">
+      <c r="D51" s="157">
         <v>17800</v>
       </c>
-      <c r="E51" s="161"/>
-      <c r="F51" s="162">
+      <c r="E51" s="158"/>
+      <c r="F51" s="155">
         <f t="shared" si="9"/>
         <v>10680000</v>
       </c>
-      <c r="G51" s="163"/>
+      <c r="G51" s="156"/>
       <c r="H51" s="137"/>
       <c r="I51" s="138"/>
     </row>
@@ -8863,15 +8915,15 @@
         <f>55+2</f>
         <v>57</v>
       </c>
-      <c r="D52" s="160">
+      <c r="D52" s="157">
         <v>42000</v>
       </c>
-      <c r="E52" s="161"/>
-      <c r="F52" s="162">
+      <c r="E52" s="158"/>
+      <c r="F52" s="155">
         <f t="shared" si="9"/>
         <v>2394000</v>
       </c>
-      <c r="G52" s="163"/>
+      <c r="G52" s="156"/>
       <c r="H52" s="137"/>
       <c r="I52" s="138"/>
     </row>
@@ -8886,15 +8938,15 @@
         <f>190+30</f>
         <v>220</v>
       </c>
-      <c r="D53" s="160">
+      <c r="D53" s="157">
         <v>15000</v>
       </c>
-      <c r="E53" s="161"/>
-      <c r="F53" s="162">
+      <c r="E53" s="158"/>
+      <c r="F53" s="155">
         <f>C53*D53</f>
         <v>3300000</v>
       </c>
-      <c r="G53" s="163"/>
+      <c r="G53" s="156"/>
       <c r="H53" s="137"/>
       <c r="I53" s="138"/>
     </row>
@@ -8908,15 +8960,15 @@
       <c r="C54" s="100">
         <v>5</v>
       </c>
-      <c r="D54" s="160">
+      <c r="D54" s="157">
         <v>4500</v>
       </c>
-      <c r="E54" s="161"/>
-      <c r="F54" s="162">
+      <c r="E54" s="158"/>
+      <c r="F54" s="155">
         <f t="shared" si="9"/>
         <v>22500</v>
       </c>
-      <c r="G54" s="163"/>
+      <c r="G54" s="156"/>
       <c r="H54" s="137"/>
       <c r="I54" s="138"/>
     </row>
@@ -8930,15 +8982,15 @@
       <c r="C55" s="100">
         <v>217</v>
       </c>
-      <c r="D55" s="160">
+      <c r="D55" s="157">
         <v>105000</v>
       </c>
-      <c r="E55" s="161"/>
-      <c r="F55" s="162">
+      <c r="E55" s="158"/>
+      <c r="F55" s="155">
         <f t="shared" si="9"/>
         <v>22785000</v>
       </c>
-      <c r="G55" s="163"/>
+      <c r="G55" s="156"/>
       <c r="H55" s="137"/>
       <c r="I55" s="138"/>
     </row>
@@ -8953,15 +9005,15 @@
         <f>5+1.5</f>
         <v>6.5</v>
       </c>
-      <c r="D56" s="160">
+      <c r="D56" s="157">
         <v>50000</v>
       </c>
-      <c r="E56" s="161"/>
-      <c r="F56" s="162">
+      <c r="E56" s="158"/>
+      <c r="F56" s="155">
         <f t="shared" si="9"/>
         <v>325000</v>
       </c>
-      <c r="G56" s="163"/>
+      <c r="G56" s="156"/>
       <c r="H56" s="137"/>
       <c r="I56" s="138"/>
     </row>
@@ -8976,15 +9028,15 @@
         <f>3+4.5</f>
         <v>7.5</v>
       </c>
-      <c r="D57" s="160">
+      <c r="D57" s="157">
         <v>50000</v>
       </c>
-      <c r="E57" s="161"/>
-      <c r="F57" s="162">
+      <c r="E57" s="158"/>
+      <c r="F57" s="155">
         <f t="shared" ref="F57" si="10">C57*D57</f>
         <v>375000</v>
       </c>
-      <c r="G57" s="163"/>
+      <c r="G57" s="156"/>
       <c r="H57" s="137"/>
       <c r="I57" s="138"/>
     </row>
@@ -8998,15 +9050,15 @@
       <c r="C58" s="112">
         <v>20</v>
       </c>
-      <c r="D58" s="160">
+      <c r="D58" s="157">
         <v>25000</v>
       </c>
-      <c r="E58" s="161"/>
-      <c r="F58" s="162">
+      <c r="E58" s="158"/>
+      <c r="F58" s="155">
         <f t="shared" ref="F58" si="11">C58*D58</f>
         <v>500000</v>
       </c>
-      <c r="G58" s="163"/>
+      <c r="G58" s="156"/>
       <c r="H58" s="137"/>
       <c r="I58" s="138"/>
     </row>
@@ -9020,15 +9072,15 @@
       <c r="C59" s="100">
         <v>15</v>
       </c>
-      <c r="D59" s="160">
+      <c r="D59" s="157">
         <v>8000</v>
       </c>
-      <c r="E59" s="161"/>
-      <c r="F59" s="162">
+      <c r="E59" s="158"/>
+      <c r="F59" s="155">
         <f t="shared" si="9"/>
         <v>120000</v>
       </c>
-      <c r="G59" s="163"/>
+      <c r="G59" s="156"/>
       <c r="H59" s="137"/>
       <c r="I59" s="138"/>
     </row>
@@ -9042,15 +9094,15 @@
       <c r="C60" s="112">
         <v>1</v>
       </c>
-      <c r="D60" s="160">
+      <c r="D60" s="157">
         <v>18000</v>
       </c>
-      <c r="E60" s="161"/>
-      <c r="F60" s="162">
+      <c r="E60" s="158"/>
+      <c r="F60" s="155">
         <f t="shared" si="9"/>
         <v>18000</v>
       </c>
-      <c r="G60" s="163"/>
+      <c r="G60" s="156"/>
       <c r="H60" s="137"/>
       <c r="I60" s="138"/>
     </row>
@@ -9064,15 +9116,15 @@
       <c r="C61" s="112">
         <v>2</v>
       </c>
-      <c r="D61" s="160">
+      <c r="D61" s="157">
         <v>60000</v>
       </c>
-      <c r="E61" s="161"/>
-      <c r="F61" s="162">
+      <c r="E61" s="158"/>
+      <c r="F61" s="155">
         <f t="shared" ref="F61" si="12">C61*D61</f>
         <v>120000</v>
       </c>
-      <c r="G61" s="163"/>
+      <c r="G61" s="156"/>
       <c r="H61" s="137"/>
       <c r="I61" s="138"/>
     </row>
@@ -9086,15 +9138,15 @@
       <c r="C62" s="112">
         <v>16</v>
       </c>
-      <c r="D62" s="160">
+      <c r="D62" s="157">
         <v>3000</v>
       </c>
-      <c r="E62" s="161"/>
-      <c r="F62" s="162">
+      <c r="E62" s="158"/>
+      <c r="F62" s="155">
         <f t="shared" ref="F62" si="13">C62*D62</f>
         <v>48000</v>
       </c>
-      <c r="G62" s="163"/>
+      <c r="G62" s="156"/>
       <c r="H62" s="137"/>
       <c r="I62" s="138"/>
     </row>
@@ -9108,15 +9160,15 @@
       <c r="C63" s="112">
         <v>2</v>
       </c>
-      <c r="D63" s="160">
+      <c r="D63" s="157">
         <v>75000</v>
       </c>
-      <c r="E63" s="161"/>
-      <c r="F63" s="162">
+      <c r="E63" s="158"/>
+      <c r="F63" s="155">
         <f t="shared" si="9"/>
         <v>150000</v>
       </c>
-      <c r="G63" s="163"/>
+      <c r="G63" s="156"/>
       <c r="H63" s="137"/>
       <c r="I63" s="138"/>
     </row>
@@ -9131,15 +9183,15 @@
         <f>4.5+1</f>
         <v>5.5</v>
       </c>
-      <c r="D64" s="160">
+      <c r="D64" s="157">
         <v>360000</v>
       </c>
-      <c r="E64" s="161"/>
-      <c r="F64" s="162">
+      <c r="E64" s="158"/>
+      <c r="F64" s="155">
         <f t="shared" si="9"/>
         <v>1980000</v>
       </c>
-      <c r="G64" s="163"/>
+      <c r="G64" s="156"/>
       <c r="H64" s="137"/>
       <c r="I64" s="138"/>
     </row>
@@ -9153,15 +9205,15 @@
       <c r="C65" s="112">
         <v>4</v>
       </c>
-      <c r="D65" s="160">
+      <c r="D65" s="157">
         <v>55000</v>
       </c>
-      <c r="E65" s="161"/>
-      <c r="F65" s="162">
+      <c r="E65" s="158"/>
+      <c r="F65" s="155">
         <f t="shared" si="9"/>
         <v>220000</v>
       </c>
-      <c r="G65" s="163"/>
+      <c r="G65" s="156"/>
       <c r="H65" s="137"/>
       <c r="I65" s="138"/>
     </row>
@@ -9175,15 +9227,15 @@
       <c r="C66" s="112">
         <v>85</v>
       </c>
-      <c r="D66" s="160">
+      <c r="D66" s="157">
         <v>8500</v>
       </c>
-      <c r="E66" s="161"/>
-      <c r="F66" s="162">
+      <c r="E66" s="158"/>
+      <c r="F66" s="155">
         <f t="shared" si="9"/>
         <v>722500</v>
       </c>
-      <c r="G66" s="163"/>
+      <c r="G66" s="156"/>
       <c r="H66" s="137"/>
       <c r="I66" s="138"/>
     </row>
@@ -9197,15 +9249,15 @@
       <c r="C67" s="112">
         <v>900</v>
       </c>
-      <c r="D67" s="160">
+      <c r="D67" s="157">
         <v>34000</v>
       </c>
-      <c r="E67" s="161"/>
-      <c r="F67" s="162">
+      <c r="E67" s="158"/>
+      <c r="F67" s="155">
         <f t="shared" si="9"/>
         <v>30600000</v>
       </c>
-      <c r="G67" s="163"/>
+      <c r="G67" s="156"/>
       <c r="H67" s="137"/>
       <c r="I67" s="138"/>
     </row>
@@ -9219,15 +9271,15 @@
       <c r="C68" s="112">
         <v>413</v>
       </c>
-      <c r="D68" s="160">
+      <c r="D68" s="157">
         <v>11500</v>
       </c>
-      <c r="E68" s="161"/>
-      <c r="F68" s="162">
+      <c r="E68" s="158"/>
+      <c r="F68" s="155">
         <f t="shared" si="9"/>
         <v>4749500</v>
       </c>
-      <c r="G68" s="163"/>
+      <c r="G68" s="156"/>
       <c r="H68" s="137"/>
       <c r="I68" s="138"/>
     </row>
@@ -9241,15 +9293,15 @@
       <c r="C69" s="112">
         <v>104</v>
       </c>
-      <c r="D69" s="160">
+      <c r="D69" s="157">
         <v>15800</v>
       </c>
-      <c r="E69" s="161"/>
-      <c r="F69" s="162">
+      <c r="E69" s="158"/>
+      <c r="F69" s="155">
         <f t="shared" si="9"/>
         <v>1643200</v>
       </c>
-      <c r="G69" s="163"/>
+      <c r="G69" s="156"/>
       <c r="H69" s="137"/>
       <c r="I69" s="138"/>
     </row>
@@ -9263,15 +9315,15 @@
       <c r="C70" s="112">
         <v>250</v>
       </c>
-      <c r="D70" s="160">
+      <c r="D70" s="157">
         <v>13200</v>
       </c>
-      <c r="E70" s="161"/>
-      <c r="F70" s="162">
+      <c r="E70" s="158"/>
+      <c r="F70" s="155">
         <f t="shared" si="9"/>
         <v>3300000</v>
       </c>
-      <c r="G70" s="163"/>
+      <c r="G70" s="156"/>
       <c r="H70" s="137"/>
       <c r="I70" s="138"/>
     </row>
@@ -9285,15 +9337,15 @@
       <c r="C71" s="112">
         <v>104</v>
       </c>
-      <c r="D71" s="160">
+      <c r="D71" s="157">
         <v>20300</v>
       </c>
-      <c r="E71" s="161"/>
-      <c r="F71" s="162">
+      <c r="E71" s="158"/>
+      <c r="F71" s="155">
         <f t="shared" si="9"/>
         <v>2111200</v>
       </c>
-      <c r="G71" s="163"/>
+      <c r="G71" s="156"/>
       <c r="H71" s="137"/>
       <c r="I71" s="138"/>
     </row>
@@ -9308,15 +9360,15 @@
         <f>$C$25+$C$13</f>
         <v>5676</v>
       </c>
-      <c r="D72" s="160">
-        <v>15000</v>
-      </c>
-      <c r="E72" s="161"/>
-      <c r="F72" s="162">
+      <c r="D72" s="157">
+        <v>13000</v>
+      </c>
+      <c r="E72" s="158"/>
+      <c r="F72" s="155">
         <f t="shared" si="9"/>
-        <v>85140000</v>
-      </c>
-      <c r="G72" s="163"/>
+        <v>73788000</v>
+      </c>
+      <c r="G72" s="156"/>
       <c r="H72" s="137"/>
       <c r="I72" s="138"/>
     </row>
@@ -9331,15 +9383,15 @@
         <f>$C$25+$C$13</f>
         <v>5676</v>
       </c>
-      <c r="D73" s="160">
+      <c r="D73" s="157">
         <v>3600</v>
       </c>
-      <c r="E73" s="161"/>
-      <c r="F73" s="162">
+      <c r="E73" s="158"/>
+      <c r="F73" s="155">
         <f t="shared" si="9"/>
         <v>20433600</v>
       </c>
-      <c r="G73" s="163"/>
+      <c r="G73" s="156"/>
       <c r="H73" s="137"/>
       <c r="I73" s="138"/>
     </row>
@@ -9354,15 +9406,15 @@
         <f>$C$25+$C$13</f>
         <v>5676</v>
       </c>
-      <c r="D74" s="160">
+      <c r="D74" s="157">
         <v>5000</v>
       </c>
-      <c r="E74" s="161"/>
-      <c r="F74" s="162">
+      <c r="E74" s="158"/>
+      <c r="F74" s="155">
         <f t="shared" si="9"/>
         <v>28380000</v>
       </c>
-      <c r="G74" s="163"/>
+      <c r="G74" s="156"/>
       <c r="H74" s="137"/>
       <c r="I74" s="138"/>
     </row>
@@ -9370,13 +9422,13 @@
       <c r="A75" s="135"/>
       <c r="B75" s="142"/>
       <c r="C75" s="112"/>
-      <c r="D75" s="160"/>
-      <c r="E75" s="161"/>
-      <c r="F75" s="162">
+      <c r="D75" s="157"/>
+      <c r="E75" s="158"/>
+      <c r="F75" s="155">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G75" s="163"/>
+      <c r="G75" s="156"/>
       <c r="H75" s="137"/>
       <c r="I75" s="138"/>
     </row>
@@ -9386,13 +9438,13 @@
         <v>9</v>
       </c>
       <c r="C76" s="104"/>
-      <c r="D76" s="164"/>
-      <c r="E76" s="165"/>
-      <c r="F76" s="166">
+      <c r="D76" s="173"/>
+      <c r="E76" s="174"/>
+      <c r="F76" s="175">
         <f>SUM(F42:G75)</f>
-        <v>1228580500</v>
-      </c>
-      <c r="G76" s="167"/>
+        <v>1207588500</v>
+      </c>
+      <c r="G76" s="176"/>
       <c r="H76" s="129"/>
       <c r="I76" s="83"/>
     </row>
@@ -9429,181 +9481,73 @@
       <c r="C79" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="D79" s="168" t="s">
+      <c r="D79" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="E79" s="169"/>
-      <c r="F79" s="168" t="s">
+      <c r="E79" s="162"/>
+      <c r="F79" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="G79" s="169"/>
+      <c r="G79" s="162"/>
       <c r="H79" s="133"/>
     </row>
     <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="143">
         <v>1</v>
       </c>
-      <c r="B80" s="95" t="s">
-        <v>57</v>
-      </c>
-      <c r="C80" s="100"/>
-      <c r="D80" s="160"/>
-      <c r="E80" s="161"/>
-      <c r="F80" s="162"/>
-      <c r="G80" s="163"/>
+      <c r="B80" s="111" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" s="112"/>
+      <c r="D80" s="157"/>
+      <c r="E80" s="158"/>
+      <c r="F80" s="155">
+        <v>5000000</v>
+      </c>
+      <c r="G80" s="156"/>
       <c r="H80" s="137"/>
       <c r="I80" s="138"/>
     </row>
     <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="143">
-        <v>2</v>
-      </c>
-      <c r="B81" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="C81" s="100"/>
-      <c r="D81" s="160"/>
-      <c r="E81" s="161"/>
-      <c r="F81" s="162"/>
-      <c r="G81" s="163"/>
+      <c r="A81" s="143"/>
+      <c r="B81" s="111"/>
+      <c r="C81" s="112"/>
+      <c r="D81" s="157"/>
+      <c r="E81" s="158"/>
+      <c r="F81" s="155"/>
+      <c r="G81" s="156"/>
       <c r="H81" s="137"/>
       <c r="I81" s="138"/>
     </row>
-    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="143">
-        <v>3</v>
-      </c>
-      <c r="B82" s="95" t="s">
-        <v>59</v>
-      </c>
-      <c r="C82" s="100"/>
-      <c r="D82" s="160"/>
-      <c r="E82" s="161"/>
-      <c r="F82" s="162"/>
-      <c r="G82" s="163"/>
+    <row r="82" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="135"/>
+      <c r="B82" s="142"/>
+      <c r="C82" s="112"/>
+      <c r="D82" s="157"/>
+      <c r="E82" s="158"/>
+      <c r="F82" s="155"/>
+      <c r="G82" s="156"/>
       <c r="H82" s="137"/>
       <c r="I82" s="138"/>
     </row>
-    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="143"/>
-      <c r="B83" s="111"/>
-      <c r="C83" s="112"/>
-      <c r="D83" s="160"/>
-      <c r="E83" s="161"/>
-      <c r="F83" s="162"/>
-      <c r="G83" s="163"/>
-      <c r="H83" s="137"/>
-      <c r="I83" s="138"/>
-    </row>
-    <row r="84" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="135"/>
-      <c r="B84" s="142"/>
-      <c r="C84" s="112"/>
-      <c r="D84" s="160"/>
-      <c r="E84" s="161"/>
-      <c r="F84" s="162"/>
-      <c r="G84" s="163"/>
-      <c r="H84" s="137"/>
-      <c r="I84" s="138"/>
-    </row>
-    <row r="85" spans="1:9" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="103"/>
-      <c r="B85" s="103" t="s">
+    <row r="83" spans="1:9" s="84" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="103"/>
+      <c r="B83" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="104"/>
-      <c r="D85" s="164"/>
-      <c r="E85" s="165"/>
-      <c r="F85" s="166">
-        <f>SUM(F80:G84)</f>
-        <v>0</v>
-      </c>
-      <c r="G85" s="167"/>
-      <c r="H85" s="129"/>
-      <c r="I85" s="83"/>
+      <c r="C83" s="104"/>
+      <c r="D83" s="173"/>
+      <c r="E83" s="174"/>
+      <c r="F83" s="175">
+        <f>SUM(F80:G82)</f>
+        <v>5000000</v>
+      </c>
+      <c r="G83" s="176"/>
+      <c r="H83" s="129"/>
+      <c r="I83" s="83"/>
     </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
+  <mergeCells count="91">
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="A1:I1"/>
@@ -9619,6 +9563,82 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.11" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
